--- a/BackTest/2019-10-29 BackTest LRC.xlsx
+++ b/BackTest/2019-10-29 BackTest LRC.xlsx
@@ -1361,20 +1361,14 @@
         <v>40.66499999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>40.1</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1402,20 +1396,14 @@
         <v>40.62499999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>40.1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1443,20 +1431,14 @@
         <v>40.58499999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>40.2</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1484,20 +1466,14 @@
         <v>40.545</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>40.2</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1525,20 +1501,14 @@
         <v>40.545</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>41</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1612,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1651,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1690,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1729,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1768,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1807,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1846,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1885,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1924,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1963,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2041,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2080,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2119,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2158,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2197,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2236,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2275,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2314,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2353,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2392,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2470,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2509,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2548,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2587,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2626,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2658,20 +2516,14 @@
         <v>40.505</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>39</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2699,20 +2551,14 @@
         <v>40.37</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>38.7</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2740,20 +2586,14 @@
         <v>40.28</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>39.6</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2787,14 +2627,12 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>39.6</v>
+      </c>
+      <c r="K64" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2828,12 +2666,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
+        <v>40.2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -2863,18 +2703,18 @@
         <v>40.075</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -2910,14 +2750,12 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>40.1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2951,12 +2789,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+        <v>40.7</v>
+      </c>
+      <c r="K68" t="n">
+        <v>40.1</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -2986,18 +2826,18 @@
         <v>40.035</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>41</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>40.1</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -3034,11 +2874,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3073,11 +2909,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3112,11 +2944,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3151,11 +2979,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3014,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3229,11 +3049,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3268,11 +3084,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3307,11 +3119,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3346,11 +3154,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3385,11 +3189,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3424,11 +3224,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3463,11 +3259,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3502,11 +3294,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3541,11 +3329,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3580,11 +3364,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3399,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3658,11 +3434,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3697,11 +3469,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3736,11 +3504,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3775,11 +3539,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3814,11 +3574,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3853,11 +3609,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3892,11 +3644,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3931,11 +3679,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3970,11 +3714,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4009,11 +3749,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +3784,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4087,11 +3819,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4126,12 +3854,10 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4194,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest LRC.xlsx
+++ b/BackTest/2019-10-29 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,28 +433,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="C2" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="E2" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1623</v>
+        <v>1907.6939</v>
       </c>
       <c r="G2" t="n">
-        <v>40.17999999999999</v>
+        <v>39.89999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="C3" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>40.5</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1173.8099</v>
+        <v>1623</v>
       </c>
       <c r="G3" t="n">
-        <v>40.235</v>
+        <v>39.90333333333332</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="C4" t="n">
         <v>40.4</v>
       </c>
       <c r="D4" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="E4" t="n">
         <v>40.4</v>
       </c>
       <c r="F4" t="n">
-        <v>238.2805</v>
+        <v>1173.8099</v>
       </c>
       <c r="G4" t="n">
-        <v>40.27999999999999</v>
+        <v>39.89833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -550,16 +550,16 @@
         <v>40.4</v>
       </c>
       <c r="F5" t="n">
-        <v>1808.9999</v>
+        <v>238.2805</v>
       </c>
       <c r="G5" t="n">
-        <v>40.325</v>
+        <v>39.89833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -585,10 +585,10 @@
         <v>40.4</v>
       </c>
       <c r="F6" t="n">
-        <v>22262.8998</v>
+        <v>1808.9999</v>
       </c>
       <c r="G6" t="n">
-        <v>40.36499999999999</v>
+        <v>39.89333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>40.4</v>
       </c>
       <c r="C7" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="D7" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="E7" t="n">
         <v>40.4</v>
       </c>
       <c r="F7" t="n">
-        <v>30435.2142</v>
+        <v>22262.8998</v>
       </c>
       <c r="G7" t="n">
-        <v>40.39999999999999</v>
+        <v>39.88333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="C8" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="D8" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="E8" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>30435.2142</v>
       </c>
       <c r="G8" t="n">
-        <v>40.45999999999999</v>
+        <v>39.88</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>40.9</v>
       </c>
       <c r="F9" t="n">
-        <v>3867.7194</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="n">
-        <v>40.51999999999998</v>
+        <v>39.87833333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="C10" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="E10" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="F10" t="n">
-        <v>2726.2231</v>
+        <v>3867.7194</v>
       </c>
       <c r="G10" t="n">
-        <v>40.57999999999998</v>
+        <v>39.88</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>41</v>
       </c>
       <c r="F11" t="n">
-        <v>817.4386</v>
+        <v>2726.2231</v>
       </c>
       <c r="G11" t="n">
-        <v>40.62999999999998</v>
+        <v>39.88166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>41</v>
       </c>
       <c r="F12" t="n">
-        <v>91588.1452</v>
+        <v>817.4386</v>
       </c>
       <c r="G12" t="n">
-        <v>40.65999999999998</v>
+        <v>39.88833333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="D13" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="E13" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="F13" t="n">
-        <v>17800.0069</v>
+        <v>91588.1452</v>
       </c>
       <c r="G13" t="n">
-        <v>40.69999999999999</v>
+        <v>39.89</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="C14" t="n">
         <v>41.3</v>
@@ -862,13 +862,13 @@
         <v>41.3</v>
       </c>
       <c r="E14" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="F14" t="n">
-        <v>6072.8973</v>
+        <v>17800.0069</v>
       </c>
       <c r="G14" t="n">
-        <v>40.74999999999999</v>
+        <v>39.90666666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>41.3</v>
       </c>
       <c r="C15" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="D15" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="E15" t="n">
         <v>41.3</v>
       </c>
       <c r="F15" t="n">
-        <v>17794.0579</v>
+        <v>6072.8973</v>
       </c>
       <c r="G15" t="n">
-        <v>40.78499999999998</v>
+        <v>39.925</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="C16" t="n">
-        <v>41</v>
+        <v>41.4</v>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
+        <v>41.4</v>
       </c>
       <c r="E16" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="F16" t="n">
-        <v>6212.315</v>
+        <v>17794.0579</v>
       </c>
       <c r="G16" t="n">
-        <v>40.78999999999998</v>
+        <v>39.94500000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="D17" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="E17" t="n">
         <v>41</v>
       </c>
       <c r="F17" t="n">
-        <v>22032</v>
+        <v>6212.315</v>
       </c>
       <c r="G17" t="n">
-        <v>40.80499999999999</v>
+        <v>39.95333333333335</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="C18" t="n">
-        <v>40.1</v>
+        <v>41.4</v>
       </c>
       <c r="D18" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="E18" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="F18" t="n">
-        <v>33667.5145</v>
+        <v>22032</v>
       </c>
       <c r="G18" t="n">
-        <v>40.81499999999998</v>
+        <v>39.97833333333335</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="C19" t="n">
         <v>40.1</v>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="E19" t="n">
         <v>40.1</v>
       </c>
       <c r="F19" t="n">
-        <v>35660.361</v>
+        <v>33667.5145</v>
       </c>
       <c r="G19" t="n">
-        <v>40.83499999999998</v>
+        <v>39.98500000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>41.2</v>
+        <v>40.1</v>
       </c>
       <c r="D20" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="E20" t="n">
-        <v>41.2</v>
+        <v>40.1</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>35660.361</v>
       </c>
       <c r="G20" t="n">
-        <v>40.85499999999998</v>
+        <v>39.99333333333335</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40.3</v>
+        <v>41.2</v>
       </c>
       <c r="C21" t="n">
-        <v>40.3</v>
+        <v>41.2</v>
       </c>
       <c r="D21" t="n">
-        <v>40.3</v>
+        <v>41.2</v>
       </c>
       <c r="E21" t="n">
-        <v>40.3</v>
+        <v>41.2</v>
       </c>
       <c r="F21" t="n">
-        <v>1231.343</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>40.83499999999998</v>
+        <v>40.02166666666668</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="C22" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="D22" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="E22" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="F22" t="n">
-        <v>10000</v>
+        <v>1231.343</v>
       </c>
       <c r="G22" t="n">
-        <v>40.80499999999999</v>
+        <v>40.04166666666668</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="C23" t="n">
         <v>40.1</v>
       </c>
       <c r="D23" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="E23" t="n">
         <v>40.1</v>
       </c>
       <c r="F23" t="n">
-        <v>516.8754</v>
+        <v>10000</v>
       </c>
       <c r="G23" t="n">
-        <v>40.78499999999998</v>
+        <v>40.06000000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="C24" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="D24" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="E24" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="F24" t="n">
-        <v>11855.4401</v>
+        <v>516.8754</v>
       </c>
       <c r="G24" t="n">
-        <v>40.76499999999999</v>
+        <v>40.06833333333335</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="C25" t="n">
         <v>39.6</v>
       </c>
       <c r="D25" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="E25" t="n">
         <v>39.6</v>
       </c>
       <c r="F25" t="n">
-        <v>53359.4808</v>
+        <v>11855.4401</v>
       </c>
       <c r="G25" t="n">
-        <v>40.74999999999999</v>
+        <v>40.06500000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="C26" t="n">
-        <v>39.9</v>
+        <v>39.6</v>
       </c>
       <c r="D26" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="E26" t="n">
-        <v>39.9</v>
+        <v>39.6</v>
       </c>
       <c r="F26" t="n">
-        <v>1231.343</v>
+        <v>53359.4808</v>
       </c>
       <c r="G26" t="n">
-        <v>40.72499999999999</v>
+        <v>40.07166666666668</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="D27" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="E27" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="F27" t="n">
-        <v>6900</v>
+        <v>1231.343</v>
       </c>
       <c r="G27" t="n">
-        <v>40.70499999999999</v>
+        <v>40.08666666666668</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="C28" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="D28" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="E28" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="F28" t="n">
-        <v>36300</v>
+        <v>6900</v>
       </c>
       <c r="G28" t="n">
-        <v>40.66499999999999</v>
+        <v>40.10000000000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>40.1</v>
       </c>
       <c r="F29" t="n">
-        <v>3650</v>
+        <v>36300</v>
       </c>
       <c r="G29" t="n">
-        <v>40.62499999999999</v>
+        <v>40.11833333333335</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="C30" t="n">
         <v>40.2</v>
@@ -1422,23 +1422,29 @@
         <v>40.2</v>
       </c>
       <c r="E30" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3650</v>
+      </c>
+      <c r="G30" t="n">
+        <v>40.13500000000001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>40.2</v>
       </c>
-      <c r="F30" t="n">
-        <v>9600</v>
-      </c>
-      <c r="G30" t="n">
-        <v>40.58499999999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1451,19 +1457,19 @@
         <v>40.2</v>
       </c>
       <c r="C31" t="n">
-        <v>40.6</v>
+        <v>40.2</v>
       </c>
       <c r="D31" t="n">
-        <v>40.9</v>
+        <v>40.2</v>
       </c>
       <c r="E31" t="n">
         <v>40.2</v>
       </c>
       <c r="F31" t="n">
-        <v>21806.2962</v>
+        <v>9600</v>
       </c>
       <c r="G31" t="n">
-        <v>40.545</v>
+        <v>40.15000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1479,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1493,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>41</v>
+        <v>40.2</v>
       </c>
       <c r="C32" t="n">
-        <v>41.2</v>
+        <v>40.6</v>
       </c>
       <c r="D32" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="E32" t="n">
-        <v>41</v>
+        <v>40.2</v>
       </c>
       <c r="F32" t="n">
-        <v>18300</v>
+        <v>21806.2962</v>
       </c>
       <c r="G32" t="n">
-        <v>40.545</v>
+        <v>40.17</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1518,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,7 +1532,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="C33" t="n">
         <v>41.2</v>
@@ -1527,13 +1541,13 @@
         <v>41.2</v>
       </c>
       <c r="E33" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="F33" t="n">
-        <v>23116.7961</v>
+        <v>18300</v>
       </c>
       <c r="G33" t="n">
-        <v>40.55</v>
+        <v>40.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1557,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1571,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="C34" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="D34" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="E34" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>23116.7961</v>
       </c>
       <c r="G34" t="n">
-        <v>40.535</v>
+        <v>40.23</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1596,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1600,10 +1622,10 @@
         <v>41</v>
       </c>
       <c r="F35" t="n">
-        <v>7534.5169</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>40.52</v>
+        <v>40.25666666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1635,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1649,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="C36" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="D36" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="E36" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="F36" t="n">
-        <v>49.261</v>
+        <v>7534.5169</v>
       </c>
       <c r="G36" t="n">
-        <v>40.50000000000001</v>
+        <v>40.29499999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1674,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1670,10 +1700,10 @@
         <v>40.6</v>
       </c>
       <c r="F37" t="n">
-        <v>1436.9376</v>
+        <v>49.261</v>
       </c>
       <c r="G37" t="n">
-        <v>40.48</v>
+        <v>40.32666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1713,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1727,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="C38" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="D38" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="E38" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>1436.9376</v>
       </c>
       <c r="G38" t="n">
-        <v>40.46000000000001</v>
+        <v>40.35833333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1752,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1766,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="C39" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="D39" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="E39" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="F39" t="n">
-        <v>17700</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>40.46000000000001</v>
+        <v>40.385</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1791,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1805,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="C40" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="D40" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="E40" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="F40" t="n">
-        <v>142504.7877</v>
+        <v>17700</v>
       </c>
       <c r="G40" t="n">
-        <v>40.465</v>
+        <v>40.425</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1830,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1844,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="C41" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="D41" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="E41" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="F41" t="n">
-        <v>2642.3467</v>
+        <v>142504.7877</v>
       </c>
       <c r="G41" t="n">
-        <v>40.52</v>
+        <v>40.46166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1869,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1845,10 +1895,10 @@
         <v>41.4</v>
       </c>
       <c r="F42" t="n">
-        <v>4518.4132</v>
+        <v>2642.3467</v>
       </c>
       <c r="G42" t="n">
-        <v>40.58</v>
+        <v>40.49666666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1908,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1880,10 +1934,10 @@
         <v>41.4</v>
       </c>
       <c r="F43" t="n">
-        <v>1211</v>
+        <v>4518.4132</v>
       </c>
       <c r="G43" t="n">
-        <v>40.645</v>
+        <v>40.52999999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1947,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1906,19 +1964,19 @@
         <v>41.4</v>
       </c>
       <c r="C44" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="D44" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="E44" t="n">
         <v>41.4</v>
       </c>
       <c r="F44" t="n">
-        <v>8100</v>
+        <v>1211</v>
       </c>
       <c r="G44" t="n">
-        <v>40.715</v>
+        <v>40.56333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +1986,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1941,19 +2003,19 @@
         <v>41.4</v>
       </c>
       <c r="C45" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="D45" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="E45" t="n">
         <v>41.4</v>
       </c>
       <c r="F45" t="n">
-        <v>3976</v>
+        <v>8100</v>
       </c>
       <c r="G45" t="n">
-        <v>40.77999999999999</v>
+        <v>40.59666666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2025,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2039,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="C46" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="D46" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="E46" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="F46" t="n">
-        <v>12.1359</v>
+        <v>3976</v>
       </c>
       <c r="G46" t="n">
-        <v>40.845</v>
+        <v>40.62833333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2064,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2078,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="C47" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="D47" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="E47" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="F47" t="n">
-        <v>12.1654</v>
+        <v>12.1359</v>
       </c>
       <c r="G47" t="n">
-        <v>40.9</v>
+        <v>40.65499999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2103,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2117,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="C48" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="D48" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="E48" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="F48" t="n">
-        <v>24.3902</v>
+        <v>12.1654</v>
       </c>
       <c r="G48" t="n">
-        <v>40.945</v>
+        <v>40.67833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2142,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2156,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="C49" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="D49" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="E49" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="F49" t="n">
-        <v>23059.0041</v>
+        <v>24.3902</v>
       </c>
       <c r="G49" t="n">
-        <v>40.985</v>
+        <v>40.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2181,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2195,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="C50" t="n">
         <v>40.8</v>
       </c>
       <c r="D50" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="E50" t="n">
         <v>40.8</v>
       </c>
       <c r="F50" t="n">
-        <v>15993</v>
+        <v>23059.0041</v>
       </c>
       <c r="G50" t="n">
-        <v>41.01499999999999</v>
+        <v>40.71833333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2220,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2234,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="C51" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="D51" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="E51" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="F51" t="n">
-        <v>22218.3372</v>
+        <v>15993</v>
       </c>
       <c r="G51" t="n">
-        <v>41.02999999999999</v>
+        <v>40.73500000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2259,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2273,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40.8</v>
+        <v>40.5</v>
       </c>
       <c r="C52" t="n">
-        <v>40.8</v>
+        <v>40.5</v>
       </c>
       <c r="D52" t="n">
-        <v>40.8</v>
+        <v>40.5</v>
       </c>
       <c r="E52" t="n">
-        <v>40.8</v>
+        <v>40.5</v>
       </c>
       <c r="F52" t="n">
-        <v>1016.1053</v>
+        <v>22218.3372</v>
       </c>
       <c r="G52" t="n">
-        <v>41.01999999999999</v>
+        <v>40.74333333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2298,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2312,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="C53" t="n">
-        <v>40.3</v>
+        <v>40.8</v>
       </c>
       <c r="D53" t="n">
-        <v>40.4</v>
+        <v>40.8</v>
       </c>
       <c r="E53" t="n">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="F53" t="n">
-        <v>36150</v>
+        <v>1016.1053</v>
       </c>
       <c r="G53" t="n">
-        <v>40.97999999999998</v>
+        <v>40.75000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2337,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2351,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="C54" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="D54" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="E54" t="n">
-        <v>40.6</v>
+        <v>40.2</v>
       </c>
       <c r="F54" t="n">
-        <v>11</v>
+        <v>36150</v>
       </c>
       <c r="G54" t="n">
-        <v>40.95999999999999</v>
+        <v>40.75333333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2376,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2390,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="C55" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="D55" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="E55" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F55" t="n">
-        <v>3000</v>
+        <v>11</v>
       </c>
       <c r="G55" t="n">
-        <v>40.91499999999998</v>
+        <v>40.75666666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2415,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2429,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="C56" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="D56" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="E56" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="F56" t="n">
-        <v>123.5241</v>
+        <v>3000</v>
       </c>
       <c r="G56" t="n">
-        <v>40.90499999999999</v>
+        <v>40.74166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2454,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,7 +2468,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="C57" t="n">
         <v>40.4</v>
@@ -2367,13 +2477,13 @@
         <v>40.4</v>
       </c>
       <c r="E57" t="n">
-        <v>40</v>
+        <v>40.4</v>
       </c>
       <c r="F57" t="n">
-        <v>18854.6806</v>
+        <v>123.5241</v>
       </c>
       <c r="G57" t="n">
-        <v>40.87999999999998</v>
+        <v>40.73333333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2493,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2507,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>39.2</v>
+        <v>40.1</v>
       </c>
       <c r="C58" t="n">
-        <v>39.2</v>
+        <v>40.4</v>
       </c>
       <c r="D58" t="n">
-        <v>39.2</v>
+        <v>40.4</v>
       </c>
       <c r="E58" t="n">
-        <v>39.2</v>
+        <v>40</v>
       </c>
       <c r="F58" t="n">
-        <v>4975.0623</v>
+        <v>18854.6806</v>
       </c>
       <c r="G58" t="n">
-        <v>40.81999999999999</v>
+        <v>40.72833333333335</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2532,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2440,10 +2558,10 @@
         <v>39.2</v>
       </c>
       <c r="F59" t="n">
-        <v>7795.18</v>
+        <v>4975.0623</v>
       </c>
       <c r="G59" t="n">
-        <v>40.72999999999999</v>
+        <v>40.70500000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2571,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2475,10 +2597,10 @@
         <v>39.2</v>
       </c>
       <c r="F60" t="n">
-        <v>3512.994</v>
+        <v>7795.18</v>
       </c>
       <c r="G60" t="n">
-        <v>40.62499999999999</v>
+        <v>40.67833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2610,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2624,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="C61" t="n">
-        <v>38.9</v>
+        <v>39.2</v>
       </c>
       <c r="D61" t="n">
-        <v>39</v>
+        <v>39.2</v>
       </c>
       <c r="E61" t="n">
-        <v>38.9</v>
+        <v>39.2</v>
       </c>
       <c r="F61" t="n">
-        <v>2400</v>
+        <v>3512.994</v>
       </c>
       <c r="G61" t="n">
-        <v>40.505</v>
+        <v>40.65166666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2649,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2663,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>38.7</v>
+        <v>39</v>
       </c>
       <c r="C62" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="D62" t="n">
-        <v>38.7</v>
+        <v>39</v>
       </c>
       <c r="E62" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="F62" t="n">
-        <v>661.826</v>
+        <v>2400</v>
       </c>
       <c r="G62" t="n">
-        <v>40.37</v>
+        <v>40.62166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2688,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,32 +2702,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>39.6</v>
+        <v>38.7</v>
       </c>
       <c r="C63" t="n">
-        <v>39.6</v>
+        <v>38.7</v>
       </c>
       <c r="D63" t="n">
-        <v>39.6</v>
+        <v>38.7</v>
       </c>
       <c r="E63" t="n">
-        <v>39.6</v>
+        <v>38.7</v>
       </c>
       <c r="F63" t="n">
-        <v>11</v>
+        <v>661.826</v>
       </c>
       <c r="G63" t="n">
-        <v>40.28</v>
+        <v>40.58333333333334</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>38.9</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2743,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="C64" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="D64" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="E64" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="F64" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G64" t="n">
-        <v>40.22000000000001</v>
+        <v>40.57</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -2627,12 +2767,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="K64" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
+        <v>38.7</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2642,22 +2784,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="C65" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="D65" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="E65" t="n">
-        <v>39.5</v>
+        <v>40.2</v>
       </c>
       <c r="F65" t="n">
-        <v>5790.6316</v>
+        <v>25</v>
       </c>
       <c r="G65" t="n">
-        <v>40.12500000000001</v>
+        <v>40.56666666666666</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -2666,14 +2808,12 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="K65" t="n">
         <v>39.6</v>
       </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -2685,22 +2825,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>40.2</v>
+        <v>39.5</v>
       </c>
       <c r="C66" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="D66" t="n">
-        <v>40.3</v>
+        <v>39.5</v>
       </c>
       <c r="E66" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="F66" t="n">
-        <v>21253.277</v>
+        <v>5790.6316</v>
       </c>
       <c r="G66" t="n">
-        <v>40.075</v>
+        <v>40.55166666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2709,12 +2849,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>39.6</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -2726,36 +2864,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="C67" t="n">
-        <v>40.7</v>
+        <v>40.1</v>
       </c>
       <c r="D67" t="n">
-        <v>40.7</v>
+        <v>40.3</v>
       </c>
       <c r="E67" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="F67" t="n">
-        <v>20700</v>
+        <v>21253.277</v>
       </c>
       <c r="G67" t="n">
-        <v>40.04000000000001</v>
+        <v>40.54666666666665</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="K67" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2765,38 +2903,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="C68" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="D68" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="E68" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="F68" t="n">
-        <v>5700</v>
+        <v>20700</v>
       </c>
       <c r="G68" t="n">
-        <v>40.03</v>
+        <v>40.54499999999998</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K68" t="n">
-        <v>40.1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -2808,22 +2942,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="C69" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="D69" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="E69" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="F69" t="n">
-        <v>2250</v>
+        <v>5700</v>
       </c>
       <c r="G69" t="n">
-        <v>40.035</v>
+        <v>40.54499999999998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2832,12 +2966,10 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>40.1</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -2849,22 +2981,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="C70" t="n">
-        <v>40.7</v>
+        <v>41.2</v>
       </c>
       <c r="D70" t="n">
-        <v>40.7</v>
+        <v>41.2</v>
       </c>
       <c r="E70" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="F70" t="n">
-        <v>1363.8397</v>
+        <v>2250</v>
       </c>
       <c r="G70" t="n">
-        <v>40.03000000000001</v>
+        <v>40.54999999999998</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2874,7 +3006,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2884,22 +3020,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="C71" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="D71" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="E71" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="F71" t="n">
-        <v>1209.6956</v>
+        <v>1363.8397</v>
       </c>
       <c r="G71" t="n">
-        <v>40.03500000000001</v>
+        <v>40.54499999999997</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2909,7 +3045,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2922,19 +3062,19 @@
         <v>40.6</v>
       </c>
       <c r="C72" t="n">
-        <v>41.4</v>
+        <v>40.6</v>
       </c>
       <c r="D72" t="n">
-        <v>41.4</v>
+        <v>40.6</v>
       </c>
       <c r="E72" t="n">
         <v>40.6</v>
       </c>
       <c r="F72" t="n">
-        <v>21947.6338</v>
+        <v>1209.6956</v>
       </c>
       <c r="G72" t="n">
-        <v>40.02500000000001</v>
+        <v>40.53833333333331</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2944,7 +3084,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2954,22 +3098,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="C73" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="D73" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="E73" t="n">
         <v>40.6</v>
       </c>
       <c r="F73" t="n">
-        <v>1319</v>
+        <v>21947.6338</v>
       </c>
       <c r="G73" t="n">
-        <v>40.04000000000001</v>
+        <v>40.54499999999997</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2979,7 +3123,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2989,22 +3137,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="C74" t="n">
-        <v>41.3</v>
+        <v>40.6</v>
       </c>
       <c r="D74" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="E74" t="n">
-        <v>41.3</v>
+        <v>40.6</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>1319</v>
       </c>
       <c r="G74" t="n">
-        <v>40.07500000000001</v>
+        <v>40.5333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3014,7 +3162,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3027,19 +3179,19 @@
         <v>41.3</v>
       </c>
       <c r="C75" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="D75" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="E75" t="n">
-        <v>40.7</v>
+        <v>41.3</v>
       </c>
       <c r="F75" t="n">
-        <v>4933.2083</v>
+        <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>40.13500000000001</v>
+        <v>40.5333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3049,7 +3201,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3059,22 +3215,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="C76" t="n">
-        <v>41</v>
+        <v>41.4</v>
       </c>
       <c r="D76" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="E76" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="F76" t="n">
-        <v>14775.9999</v>
+        <v>4933.2083</v>
       </c>
       <c r="G76" t="n">
-        <v>40.17000000000001</v>
+        <v>40.5333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3084,7 +3240,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3094,22 +3254,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="C77" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="D77" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="E77" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="F77" t="n">
-        <v>9236.3264</v>
+        <v>14775.9999</v>
       </c>
       <c r="G77" t="n">
-        <v>40.23</v>
+        <v>40.5333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3119,7 +3279,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3129,22 +3293,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>40.8</v>
+        <v>41.3</v>
       </c>
       <c r="C78" t="n">
         <v>40.8</v>
       </c>
       <c r="D78" t="n">
-        <v>40.8</v>
+        <v>41.3</v>
       </c>
       <c r="E78" t="n">
         <v>40.8</v>
       </c>
       <c r="F78" t="n">
-        <v>22713.7483</v>
+        <v>9236.3264</v>
       </c>
       <c r="G78" t="n">
-        <v>40.31</v>
+        <v>40.52333333333331</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3154,7 +3318,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3164,22 +3332,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="C79" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="D79" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="E79" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="F79" t="n">
-        <v>7495.3883</v>
+        <v>22713.7483</v>
       </c>
       <c r="G79" t="n">
-        <v>40.405</v>
+        <v>40.53499999999998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3189,7 +3357,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3199,22 +3371,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C80" t="n">
         <v>41.2</v>
       </c>
-      <c r="C80" t="n">
-        <v>41.4</v>
-      </c>
       <c r="D80" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="E80" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="F80" t="n">
-        <v>39900</v>
+        <v>7495.3883</v>
       </c>
       <c r="G80" t="n">
-        <v>40.505</v>
+        <v>40.55333333333331</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3224,7 +3396,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3234,7 +3410,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="C81" t="n">
         <v>41.4</v>
@@ -3243,13 +3419,13 @@
         <v>41.4</v>
       </c>
       <c r="E81" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="F81" t="n">
-        <v>27308.2367</v>
+        <v>39900</v>
       </c>
       <c r="G81" t="n">
-        <v>40.625</v>
+        <v>40.55666666666664</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3259,7 +3435,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3269,22 +3449,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="C82" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="D82" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="E82" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="F82" t="n">
-        <v>94296.3855</v>
+        <v>27308.2367</v>
       </c>
       <c r="G82" t="n">
-        <v>40.755</v>
+        <v>40.57499999999997</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3294,7 +3474,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3304,7 +3488,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="C83" t="n">
         <v>41.5</v>
@@ -3313,13 +3497,13 @@
         <v>41.5</v>
       </c>
       <c r="E83" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="F83" t="n">
-        <v>7607.4226</v>
+        <v>94296.3855</v>
       </c>
       <c r="G83" t="n">
-        <v>40.84999999999999</v>
+        <v>40.59833333333331</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3329,7 +3513,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3342,19 +3530,19 @@
         <v>41.5</v>
       </c>
       <c r="C84" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="D84" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="E84" t="n">
         <v>41.5</v>
       </c>
       <c r="F84" t="n">
-        <v>23729.5949</v>
+        <v>7607.4226</v>
       </c>
       <c r="G84" t="n">
-        <v>40.91499999999999</v>
+        <v>40.62166666666665</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3364,7 +3552,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3374,22 +3566,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="C85" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="D85" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="E85" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="F85" t="n">
-        <v>2156.1019</v>
+        <v>23729.5949</v>
       </c>
       <c r="G85" t="n">
-        <v>41.02499999999999</v>
+        <v>40.65499999999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3399,7 +3591,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3421,10 +3617,10 @@
         <v>41.7</v>
       </c>
       <c r="F86" t="n">
-        <v>2887</v>
+        <v>2156.1019</v>
       </c>
       <c r="G86" t="n">
-        <v>41.09999999999999</v>
+        <v>40.68999999999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3434,7 +3630,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3447,19 +3647,19 @@
         <v>41.7</v>
       </c>
       <c r="C87" t="n">
-        <v>42.2</v>
+        <v>41.7</v>
       </c>
       <c r="D87" t="n">
-        <v>42.2</v>
+        <v>41.7</v>
       </c>
       <c r="E87" t="n">
         <v>41.7</v>
       </c>
       <c r="F87" t="n">
-        <v>8850</v>
+        <v>2887</v>
       </c>
       <c r="G87" t="n">
-        <v>41.165</v>
+        <v>40.71999999999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3469,7 +3669,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3479,22 +3683,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C88" t="n">
         <v>42.2</v>
-      </c>
-      <c r="C88" t="n">
-        <v>41.8</v>
       </c>
       <c r="D88" t="n">
         <v>42.2</v>
       </c>
       <c r="E88" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="F88" t="n">
-        <v>20216.6604</v>
+        <v>8850</v>
       </c>
       <c r="G88" t="n">
-        <v>41.235</v>
+        <v>40.75666666666664</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3504,7 +3708,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3514,22 +3722,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>41.9</v>
+        <v>42.2</v>
       </c>
       <c r="C89" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="D89" t="n">
-        <v>41.9</v>
+        <v>42.2</v>
       </c>
       <c r="E89" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="F89" t="n">
-        <v>1009.6513</v>
+        <v>20216.6604</v>
       </c>
       <c r="G89" t="n">
-        <v>41.28</v>
+        <v>40.78333333333331</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3539,7 +3747,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3549,22 +3761,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="C90" t="n">
-        <v>42.2</v>
+        <v>41.9</v>
       </c>
       <c r="D90" t="n">
-        <v>42.2</v>
+        <v>41.9</v>
       </c>
       <c r="E90" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="F90" t="n">
-        <v>1352.8277</v>
+        <v>1009.6513</v>
       </c>
       <c r="G90" t="n">
-        <v>41.33</v>
+        <v>40.81166666666665</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3574,7 +3786,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3584,22 +3800,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="C91" t="n">
-        <v>41.6</v>
+        <v>42.2</v>
       </c>
       <c r="D91" t="n">
-        <v>41.8</v>
+        <v>42.2</v>
       </c>
       <c r="E91" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="F91" t="n">
-        <v>14960.7178</v>
+        <v>1352.8277</v>
       </c>
       <c r="G91" t="n">
-        <v>41.39</v>
+        <v>40.84499999999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3609,7 +3825,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3622,19 +3842,19 @@
         <v>41.8</v>
       </c>
       <c r="C92" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="D92" t="n">
         <v>41.8</v>
       </c>
       <c r="E92" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="F92" t="n">
-        <v>24036.1445</v>
+        <v>14960.7178</v>
       </c>
       <c r="G92" t="n">
-        <v>41.45</v>
+        <v>40.86166666666665</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3644,7 +3864,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3666,10 +3890,10 @@
         <v>41.8</v>
       </c>
       <c r="F93" t="n">
-        <v>1373</v>
+        <v>24036.1445</v>
       </c>
       <c r="G93" t="n">
-        <v>41.50499999999999</v>
+        <v>40.87166666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3679,7 +3903,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3692,19 +3920,19 @@
         <v>41.8</v>
       </c>
       <c r="C94" t="n">
-        <v>42.5</v>
+        <v>41.8</v>
       </c>
       <c r="D94" t="n">
-        <v>42.5</v>
+        <v>41.8</v>
       </c>
       <c r="E94" t="n">
         <v>41.8</v>
       </c>
       <c r="F94" t="n">
-        <v>2393.7909</v>
+        <v>1373</v>
       </c>
       <c r="G94" t="n">
-        <v>41.52999999999999</v>
+        <v>40.88166666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3714,7 +3942,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3724,7 +3956,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>42.3</v>
+        <v>41.8</v>
       </c>
       <c r="C95" t="n">
         <v>42.5</v>
@@ -3733,13 +3965,13 @@
         <v>42.5</v>
       </c>
       <c r="E95" t="n">
-        <v>42.3</v>
+        <v>41.8</v>
       </c>
       <c r="F95" t="n">
-        <v>675.9623</v>
+        <v>2393.7909</v>
       </c>
       <c r="G95" t="n">
-        <v>41.57999999999999</v>
+        <v>40.90666666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3749,7 +3981,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3759,22 +3995,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>42.7</v>
+        <v>42.3</v>
       </c>
       <c r="C96" t="n">
-        <v>43.2</v>
+        <v>42.5</v>
       </c>
       <c r="D96" t="n">
-        <v>43.4</v>
+        <v>42.5</v>
       </c>
       <c r="E96" t="n">
-        <v>42.7</v>
+        <v>42.3</v>
       </c>
       <c r="F96" t="n">
-        <v>51128.4838</v>
+        <v>675.9623</v>
       </c>
       <c r="G96" t="n">
-        <v>41.65999999999999</v>
+        <v>40.93166666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3784,7 +4020,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3794,10 +4034,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>43.4</v>
+        <v>42.7</v>
       </c>
       <c r="C97" t="n">
-        <v>42.7</v>
+        <v>43.2</v>
       </c>
       <c r="D97" t="n">
         <v>43.4</v>
@@ -3806,10 +4046,10 @@
         <v>42.7</v>
       </c>
       <c r="F97" t="n">
-        <v>2449.95</v>
+        <v>51128.4838</v>
       </c>
       <c r="G97" t="n">
-        <v>41.76499999999999</v>
+        <v>40.97499999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3819,7 +4059,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3829,32 +4073,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="C98" t="n">
         <v>42.7</v>
-      </c>
-      <c r="C98" t="n">
-        <v>43.4</v>
       </c>
       <c r="D98" t="n">
         <v>43.4</v>
       </c>
       <c r="E98" t="n">
-        <v>42.2</v>
+        <v>42.7</v>
       </c>
       <c r="F98" t="n">
-        <v>11927.8996</v>
+        <v>2449.95</v>
       </c>
       <c r="G98" t="n">
-        <v>41.86</v>
+        <v>41.00999999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3864,32 +4112,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C99" t="n">
         <v>43.4</v>
-      </c>
-      <c r="C99" t="n">
-        <v>42.3</v>
       </c>
       <c r="D99" t="n">
         <v>43.4</v>
       </c>
       <c r="E99" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="F99" t="n">
-        <v>1165.4403</v>
+        <v>11927.8996</v>
       </c>
       <c r="G99" t="n">
-        <v>41.97499999999999</v>
+        <v>41.05999999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3899,32 +4151,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>43</v>
+        <v>43.4</v>
       </c>
       <c r="C100" t="n">
-        <v>43.3</v>
+        <v>42.3</v>
       </c>
       <c r="D100" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="E100" t="n">
-        <v>43</v>
+        <v>42.3</v>
       </c>
       <c r="F100" t="n">
-        <v>15766.69091316397</v>
+        <v>1165.4403</v>
       </c>
       <c r="G100" t="n">
-        <v>42.06499999999999</v>
+        <v>41.075</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3934,22 +4190,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>42.3</v>
+        <v>43</v>
       </c>
       <c r="C101" t="n">
-        <v>42.1</v>
+        <v>43.3</v>
       </c>
       <c r="D101" t="n">
-        <v>42.3</v>
+        <v>43.3</v>
       </c>
       <c r="E101" t="n">
-        <v>42.1</v>
+        <v>43</v>
       </c>
       <c r="F101" t="n">
-        <v>6315.77</v>
+        <v>15766.69091316397</v>
       </c>
       <c r="G101" t="n">
-        <v>42.10999999999999</v>
+        <v>41.105</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3959,7 +4215,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3969,22 +4229,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="C102" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="D102" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="E102" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="F102" t="n">
-        <v>736.8483</v>
+        <v>6315.77</v>
       </c>
       <c r="G102" t="n">
-        <v>42.15499999999999</v>
+        <v>41.11666666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3994,7 +4254,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4007,19 +4271,19 @@
         <v>42.2</v>
       </c>
       <c r="C103" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="D103" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="E103" t="n">
         <v>42.2</v>
       </c>
       <c r="F103" t="n">
-        <v>395.255</v>
+        <v>736.8483</v>
       </c>
       <c r="G103" t="n">
-        <v>42.19</v>
+        <v>41.12999999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4029,7 +4293,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4042,19 +4310,19 @@
         <v>42.2</v>
       </c>
       <c r="C104" t="n">
-        <v>42</v>
+        <v>42.3</v>
       </c>
       <c r="D104" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E104" t="n">
         <v>42.2</v>
       </c>
-      <c r="E104" t="n">
-        <v>42</v>
-      </c>
       <c r="F104" t="n">
-        <v>7982.5221</v>
+        <v>395.255</v>
       </c>
       <c r="G104" t="n">
-        <v>42.225</v>
+        <v>41.14499999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4064,7 +4332,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4074,22 +4346,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>41.8</v>
+        <v>42.2</v>
       </c>
       <c r="C105" t="n">
-        <v>41.5</v>
+        <v>42</v>
       </c>
       <c r="D105" t="n">
-        <v>41.8</v>
+        <v>42.2</v>
       </c>
       <c r="E105" t="n">
-        <v>41.5</v>
+        <v>42</v>
       </c>
       <c r="F105" t="n">
-        <v>6131.3393</v>
+        <v>7982.5221</v>
       </c>
       <c r="G105" t="n">
-        <v>42.23</v>
+        <v>41.15333333333332</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4099,7 +4371,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4109,22 +4385,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C106" t="n">
         <v>41.5</v>
       </c>
-      <c r="C106" t="n">
-        <v>41.2</v>
-      </c>
       <c r="D106" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E106" t="n">
         <v>41.5</v>
       </c>
-      <c r="E106" t="n">
-        <v>41.2</v>
-      </c>
       <c r="F106" t="n">
-        <v>64040.702</v>
+        <v>6131.3393</v>
       </c>
       <c r="G106" t="n">
-        <v>42.21999999999999</v>
+        <v>41.15499999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4134,7 +4410,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4144,22 +4424,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="C107" t="n">
-        <v>42</v>
+        <v>41.2</v>
       </c>
       <c r="D107" t="n">
-        <v>42</v>
+        <v>41.5</v>
       </c>
       <c r="E107" t="n">
-        <v>41.7</v>
+        <v>41.2</v>
       </c>
       <c r="F107" t="n">
-        <v>3930.3507</v>
+        <v>64040.702</v>
       </c>
       <c r="G107" t="n">
-        <v>42.21999999999999</v>
+        <v>41.15499999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4169,7 +4449,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4179,22 +4463,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C108" t="n">
         <v>42</v>
       </c>
-      <c r="C108" t="n">
-        <v>42.3</v>
-      </c>
       <c r="D108" t="n">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="E108" t="n">
-        <v>42</v>
+        <v>41.7</v>
       </c>
       <c r="F108" t="n">
-        <v>70650</v>
+        <v>3930.3507</v>
       </c>
       <c r="G108" t="n">
-        <v>42.20999999999999</v>
+        <v>41.16999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4204,7 +4488,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4214,22 +4502,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>42.7</v>
+        <v>42</v>
       </c>
       <c r="C109" t="n">
-        <v>42.6</v>
+        <v>42.3</v>
       </c>
       <c r="D109" t="n">
-        <v>42.7</v>
+        <v>42.3</v>
       </c>
       <c r="E109" t="n">
-        <v>42.6</v>
+        <v>42</v>
       </c>
       <c r="F109" t="n">
-        <v>12450</v>
+        <v>70650</v>
       </c>
       <c r="G109" t="n">
-        <v>42.24999999999999</v>
+        <v>41.19166666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4239,7 +4527,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4249,22 +4541,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>42.2</v>
+        <v>42.7</v>
       </c>
       <c r="C110" t="n">
-        <v>42.1</v>
+        <v>42.6</v>
       </c>
       <c r="D110" t="n">
-        <v>42.2</v>
+        <v>42.7</v>
       </c>
       <c r="E110" t="n">
-        <v>42.1</v>
+        <v>42.6</v>
       </c>
       <c r="F110" t="n">
-        <v>4213.2652</v>
+        <v>12450</v>
       </c>
       <c r="G110" t="n">
-        <v>42.27499999999999</v>
+        <v>41.22166666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4274,7 +4566,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4284,22 +4580,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>42.9</v>
+        <v>42.2</v>
       </c>
       <c r="C111" t="n">
-        <v>43.2</v>
+        <v>42.1</v>
       </c>
       <c r="D111" t="n">
-        <v>43.2</v>
+        <v>42.2</v>
       </c>
       <c r="E111" t="n">
-        <v>42.9</v>
+        <v>42.1</v>
       </c>
       <c r="F111" t="n">
-        <v>48034.389</v>
+        <v>4213.2652</v>
       </c>
       <c r="G111" t="n">
-        <v>42.33</v>
+        <v>41.24333333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4309,7 +4605,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4322,19 +4622,19 @@
         <v>42.9</v>
       </c>
       <c r="C112" t="n">
-        <v>42.9</v>
+        <v>43.2</v>
       </c>
       <c r="D112" t="n">
-        <v>42.9</v>
+        <v>43.2</v>
       </c>
       <c r="E112" t="n">
         <v>42.9</v>
       </c>
       <c r="F112" t="n">
-        <v>2297.2378</v>
+        <v>48034.389</v>
       </c>
       <c r="G112" t="n">
-        <v>42.385</v>
+        <v>41.28833333333331</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4344,7 +4644,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4354,22 +4658,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="C113" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="D113" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="E113" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="F113" t="n">
-        <v>6720.5373</v>
+        <v>2297.2378</v>
       </c>
       <c r="G113" t="n">
-        <v>42.435</v>
+        <v>41.32333333333331</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4379,7 +4683,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4389,22 +4697,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="C114" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="D114" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="E114" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="F114" t="n">
-        <v>15000</v>
+        <v>6720.5373</v>
       </c>
       <c r="G114" t="n">
-        <v>42.475</v>
+        <v>41.36499999999998</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4414,8 +4722,51 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="C115" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="D115" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E115" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F115" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G115" t="n">
+        <v>41.39999999999998</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest LRC.xlsx
+++ b/BackTest/2019-10-29 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1907.6939</v>
       </c>
       <c r="G2" t="n">
+        <v>40.35333333333332</v>
+      </c>
+      <c r="H2" t="n">
         <v>39.89999999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1623</v>
       </c>
       <c r="G3" t="n">
+        <v>40.43999999999998</v>
+      </c>
+      <c r="H3" t="n">
         <v>39.90333333333332</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1173.8099</v>
       </c>
       <c r="G4" t="n">
+        <v>40.48666666666665</v>
+      </c>
+      <c r="H4" t="n">
         <v>39.89833333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>238.2805</v>
       </c>
       <c r="G5" t="n">
+        <v>40.53333333333331</v>
+      </c>
+      <c r="H5" t="n">
         <v>39.89833333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1808.9999</v>
       </c>
       <c r="G6" t="n">
+        <v>40.57333333333331</v>
+      </c>
+      <c r="H6" t="n">
         <v>39.89333333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>22262.8998</v>
       </c>
       <c r="G7" t="n">
+        <v>40.59999999999998</v>
+      </c>
+      <c r="H7" t="n">
         <v>39.88333333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>30435.2142</v>
       </c>
       <c r="G8" t="n">
+        <v>40.62666666666664</v>
+      </c>
+      <c r="H8" t="n">
         <v>39.88</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1000</v>
       </c>
       <c r="G9" t="n">
+        <v>40.67999999999997</v>
+      </c>
+      <c r="H9" t="n">
         <v>39.87833333333334</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>3867.7194</v>
       </c>
       <c r="G10" t="n">
+        <v>40.7133333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>39.88</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>2726.2231</v>
       </c>
       <c r="G11" t="n">
+        <v>40.7133333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>39.88166666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>817.4386</v>
       </c>
       <c r="G12" t="n">
+        <v>40.71999999999998</v>
+      </c>
+      <c r="H12" t="n">
         <v>39.88833333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>91588.1452</v>
       </c>
       <c r="G13" t="n">
+        <v>40.73999999999997</v>
+      </c>
+      <c r="H13" t="n">
         <v>39.89</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>17800.0069</v>
       </c>
       <c r="G14" t="n">
+        <v>40.78666666666663</v>
+      </c>
+      <c r="H14" t="n">
         <v>39.90666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>6072.8973</v>
       </c>
       <c r="G15" t="n">
+        <v>40.81999999999996</v>
+      </c>
+      <c r="H15" t="n">
         <v>39.925</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>17794.0579</v>
       </c>
       <c r="G16" t="n">
+        <v>40.85999999999997</v>
+      </c>
+      <c r="H16" t="n">
         <v>39.94500000000001</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>6212.315</v>
       </c>
       <c r="G17" t="n">
+        <v>40.87999999999997</v>
+      </c>
+      <c r="H17" t="n">
         <v>39.95333333333335</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>22032</v>
       </c>
       <c r="G18" t="n">
+        <v>40.90666666666663</v>
+      </c>
+      <c r="H18" t="n">
         <v>39.97833333333335</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>33667.5145</v>
       </c>
       <c r="G19" t="n">
+        <v>40.88666666666663</v>
+      </c>
+      <c r="H19" t="n">
         <v>39.98500000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>35660.361</v>
       </c>
       <c r="G20" t="n">
+        <v>40.86666666666664</v>
+      </c>
+      <c r="H20" t="n">
         <v>39.99333333333335</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
+        <v>40.91999999999997</v>
+      </c>
+      <c r="H21" t="n">
         <v>40.02166666666668</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>1231.343</v>
       </c>
       <c r="G22" t="n">
+        <v>40.91333333333331</v>
+      </c>
+      <c r="H22" t="n">
         <v>40.04166666666668</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>10000</v>
       </c>
       <c r="G23" t="n">
+        <v>40.86666666666665</v>
+      </c>
+      <c r="H23" t="n">
         <v>40.06000000000002</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>516.8754</v>
       </c>
       <c r="G24" t="n">
+        <v>40.81333333333331</v>
+      </c>
+      <c r="H24" t="n">
         <v>40.06833333333335</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>11855.4401</v>
       </c>
       <c r="G25" t="n">
+        <v>40.72666666666665</v>
+      </c>
+      <c r="H25" t="n">
         <v>40.06500000000001</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>53359.4808</v>
       </c>
       <c r="G26" t="n">
+        <v>40.63333333333332</v>
+      </c>
+      <c r="H26" t="n">
         <v>40.07166666666668</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1231.343</v>
       </c>
       <c r="G27" t="n">
+        <v>40.55999999999998</v>
+      </c>
+      <c r="H27" t="n">
         <v>40.08666666666668</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>6900</v>
       </c>
       <c r="G28" t="n">
+        <v>40.49333333333332</v>
+      </c>
+      <c r="H28" t="n">
         <v>40.10000000000002</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>36300</v>
       </c>
       <c r="G29" t="n">
+        <v>40.41999999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>40.11833333333335</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,24 +1517,21 @@
         <v>3650</v>
       </c>
       <c r="G30" t="n">
+        <v>40.34666666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>40.13500000000001</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>40.2</v>
+        <v>0</v>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1469,22 +1555,21 @@
         <v>9600</v>
       </c>
       <c r="G31" t="n">
+        <v>40.26666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>40.15000000000001</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1508,22 +1593,21 @@
         <v>21806.2962</v>
       </c>
       <c r="G32" t="n">
+        <v>40.24</v>
+      </c>
+      <c r="H32" t="n">
         <v>40.17</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1547,22 +1631,21 @@
         <v>18300</v>
       </c>
       <c r="G33" t="n">
+        <v>40.22666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>40.2</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,22 +1669,21 @@
         <v>23116.7961</v>
       </c>
       <c r="G34" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="H34" t="n">
         <v>40.23</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1625,22 +1707,21 @@
         <v>10</v>
       </c>
       <c r="G35" t="n">
+        <v>40.36000000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>40.25666666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1664,22 +1745,21 @@
         <v>7534.5169</v>
       </c>
       <c r="G36" t="n">
+        <v>40.34666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>40.29499999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1703,22 +1783,21 @@
         <v>49.261</v>
       </c>
       <c r="G37" t="n">
+        <v>40.36666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>40.32666666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1742,22 +1821,21 @@
         <v>1436.9376</v>
       </c>
       <c r="G38" t="n">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>40.35833333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1781,22 +1859,21 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="H39" t="n">
         <v>40.385</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1820,22 +1897,21 @@
         <v>17700</v>
       </c>
       <c r="G40" t="n">
+        <v>40.54</v>
+      </c>
+      <c r="H40" t="n">
         <v>40.425</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1859,22 +1935,21 @@
         <v>142504.7877</v>
       </c>
       <c r="G41" t="n">
+        <v>40.66666666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>40.46166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1898,22 +1973,21 @@
         <v>2642.3467</v>
       </c>
       <c r="G42" t="n">
+        <v>40.76666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>40.49666666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1937,22 +2011,21 @@
         <v>4518.4132</v>
       </c>
       <c r="G43" t="n">
+        <v>40.86</v>
+      </c>
+      <c r="H43" t="n">
         <v>40.52999999999999</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1976,22 +2049,21 @@
         <v>1211</v>
       </c>
       <c r="G44" t="n">
+        <v>40.93999999999999</v>
+      </c>
+      <c r="H44" t="n">
         <v>40.56333333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2015,22 +2087,21 @@
         <v>8100</v>
       </c>
       <c r="G45" t="n">
+        <v>41.02666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>40.59666666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2054,22 +2125,21 @@
         <v>3976</v>
       </c>
       <c r="G46" t="n">
+        <v>41.10666666666665</v>
+      </c>
+      <c r="H46" t="n">
         <v>40.62833333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,22 +2163,21 @@
         <v>12.1359</v>
       </c>
       <c r="G47" t="n">
+        <v>41.14666666666665</v>
+      </c>
+      <c r="H47" t="n">
         <v>40.65499999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2132,22 +2201,21 @@
         <v>12.1654</v>
       </c>
       <c r="G48" t="n">
+        <v>41.13999999999999</v>
+      </c>
+      <c r="H48" t="n">
         <v>40.67833333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2171,22 +2239,21 @@
         <v>24.3902</v>
       </c>
       <c r="G49" t="n">
+        <v>41.12666666666665</v>
+      </c>
+      <c r="H49" t="n">
         <v>40.7</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2210,22 +2277,21 @@
         <v>23059.0041</v>
       </c>
       <c r="G50" t="n">
+        <v>41.11333333333332</v>
+      </c>
+      <c r="H50" t="n">
         <v>40.71833333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,22 +2315,21 @@
         <v>15993</v>
       </c>
       <c r="G51" t="n">
+        <v>41.09999999999998</v>
+      </c>
+      <c r="H51" t="n">
         <v>40.73500000000001</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,22 +2353,21 @@
         <v>22218.3372</v>
       </c>
       <c r="G52" t="n">
+        <v>41.09333333333331</v>
+      </c>
+      <c r="H52" t="n">
         <v>40.74333333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2327,22 +2391,21 @@
         <v>1016.1053</v>
       </c>
       <c r="G53" t="n">
+        <v>41.10666666666664</v>
+      </c>
+      <c r="H53" t="n">
         <v>40.75000000000001</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2366,22 +2429,21 @@
         <v>36150</v>
       </c>
       <c r="G54" t="n">
+        <v>41.09999999999997</v>
+      </c>
+      <c r="H54" t="n">
         <v>40.75333333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2405,22 +2467,21 @@
         <v>11</v>
       </c>
       <c r="G55" t="n">
+        <v>41.04666666666664</v>
+      </c>
+      <c r="H55" t="n">
         <v>40.75666666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,22 +2505,21 @@
         <v>3000</v>
       </c>
       <c r="G56" t="n">
+        <v>40.9533333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>40.74166666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2483,22 +2543,21 @@
         <v>123.5241</v>
       </c>
       <c r="G57" t="n">
+        <v>40.88666666666664</v>
+      </c>
+      <c r="H57" t="n">
         <v>40.73333333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2522,22 +2581,21 @@
         <v>18854.6806</v>
       </c>
       <c r="G58" t="n">
+        <v>40.81999999999997</v>
+      </c>
+      <c r="H58" t="n">
         <v>40.72833333333335</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2561,22 +2619,21 @@
         <v>4975.0623</v>
       </c>
       <c r="G59" t="n">
+        <v>40.67333333333331</v>
+      </c>
+      <c r="H59" t="n">
         <v>40.70500000000001</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2600,22 +2657,21 @@
         <v>7795.18</v>
       </c>
       <c r="G60" t="n">
+        <v>40.51999999999998</v>
+      </c>
+      <c r="H60" t="n">
         <v>40.67833333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2639,22 +2695,21 @@
         <v>3512.994</v>
       </c>
       <c r="G61" t="n">
+        <v>40.37333333333332</v>
+      </c>
+      <c r="H61" t="n">
         <v>40.65166666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2678,22 +2733,21 @@
         <v>2400</v>
       </c>
       <c r="G62" t="n">
+        <v>40.21999999999998</v>
+      </c>
+      <c r="H62" t="n">
         <v>40.62166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2717,24 +2771,25 @@
         <v>661.826</v>
       </c>
       <c r="G63" t="n">
+        <v>40.05999999999998</v>
+      </c>
+      <c r="H63" t="n">
         <v>40.58333333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
         <v>38.9</v>
       </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,24 +2813,29 @@
         <v>11</v>
       </c>
       <c r="G64" t="n">
+        <v>39.96666666666665</v>
+      </c>
+      <c r="H64" t="n">
         <v>40.57</v>
       </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
         <v>38.7</v>
       </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2799,24 +2859,27 @@
         <v>25</v>
       </c>
       <c r="G65" t="n">
+        <v>39.92666666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>40.56666666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>39.6</v>
+        <v>0</v>
       </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2840,22 +2903,21 @@
         <v>5790.6316</v>
       </c>
       <c r="G66" t="n">
+        <v>39.84</v>
+      </c>
+      <c r="H66" t="n">
         <v>40.55166666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,22 +2941,21 @@
         <v>21253.277</v>
       </c>
       <c r="G67" t="n">
+        <v>39.81333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>40.54666666666665</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,22 +2979,21 @@
         <v>20700</v>
       </c>
       <c r="G68" t="n">
+        <v>39.80666666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>40.54499999999998</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2957,22 +3017,21 @@
         <v>5700</v>
       </c>
       <c r="G69" t="n">
+        <v>39.84666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>40.54499999999998</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2996,22 +3055,21 @@
         <v>2250</v>
       </c>
       <c r="G70" t="n">
+        <v>39.88666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>40.54999999999998</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3035,22 +3093,21 @@
         <v>1363.8397</v>
       </c>
       <c r="G71" t="n">
+        <v>39.92666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>40.54499999999997</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3074,22 +3131,21 @@
         <v>1209.6956</v>
       </c>
       <c r="G72" t="n">
+        <v>39.94000000000001</v>
+      </c>
+      <c r="H72" t="n">
         <v>40.53833333333331</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3113,22 +3169,21 @@
         <v>21947.6338</v>
       </c>
       <c r="G73" t="n">
+        <v>40.00666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>40.54499999999997</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3152,22 +3207,21 @@
         <v>1319</v>
       </c>
       <c r="G74" t="n">
+        <v>40.10000000000001</v>
+      </c>
+      <c r="H74" t="n">
         <v>40.5333333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3191,22 +3245,21 @@
         <v>100</v>
       </c>
       <c r="G75" t="n">
+        <v>40.24</v>
+      </c>
+      <c r="H75" t="n">
         <v>40.5333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,22 +3283,21 @@
         <v>4933.2083</v>
       </c>
       <c r="G76" t="n">
+        <v>40.38666666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>40.5333333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3269,22 +3321,21 @@
         <v>14775.9999</v>
       </c>
       <c r="G77" t="n">
+        <v>40.52666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>40.5333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3308,22 +3359,21 @@
         <v>9236.3264</v>
       </c>
       <c r="G78" t="n">
+        <v>40.66666666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>40.52333333333331</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3347,22 +3397,21 @@
         <v>22713.7483</v>
       </c>
       <c r="G79" t="n">
+        <v>40.74666666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>40.53499999999998</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3386,22 +3435,21 @@
         <v>7495.3883</v>
       </c>
       <c r="G80" t="n">
+        <v>40.81333333333332</v>
+      </c>
+      <c r="H80" t="n">
         <v>40.55333333333331</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3425,22 +3473,21 @@
         <v>39900</v>
       </c>
       <c r="G81" t="n">
+        <v>40.93999999999998</v>
+      </c>
+      <c r="H81" t="n">
         <v>40.55666666666664</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3464,22 +3511,21 @@
         <v>27308.2367</v>
       </c>
       <c r="G82" t="n">
+        <v>41.02666666666665</v>
+      </c>
+      <c r="H82" t="n">
         <v>40.57499999999997</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3503,22 +3549,21 @@
         <v>94296.3855</v>
       </c>
       <c r="G83" t="n">
+        <v>41.07999999999998</v>
+      </c>
+      <c r="H83" t="n">
         <v>40.59833333333331</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3542,22 +3587,21 @@
         <v>7607.4226</v>
       </c>
       <c r="G84" t="n">
+        <v>41.11999999999998</v>
+      </c>
+      <c r="H84" t="n">
         <v>40.62166666666665</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,22 +3625,21 @@
         <v>23729.5949</v>
       </c>
       <c r="G85" t="n">
+        <v>41.14666666666665</v>
+      </c>
+      <c r="H85" t="n">
         <v>40.65499999999998</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3620,22 +3663,21 @@
         <v>2156.1019</v>
       </c>
       <c r="G86" t="n">
+        <v>41.21333333333332</v>
+      </c>
+      <c r="H86" t="n">
         <v>40.68999999999998</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3659,22 +3701,21 @@
         <v>2887</v>
       </c>
       <c r="G87" t="n">
+        <v>41.28666666666665</v>
+      </c>
+      <c r="H87" t="n">
         <v>40.71999999999998</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3698,22 +3739,21 @@
         <v>8850</v>
       </c>
       <c r="G88" t="n">
+        <v>41.33999999999999</v>
+      </c>
+      <c r="H88" t="n">
         <v>40.75666666666664</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,22 +3777,21 @@
         <v>20216.6604</v>
       </c>
       <c r="G89" t="n">
+        <v>41.41999999999998</v>
+      </c>
+      <c r="H89" t="n">
         <v>40.78333333333331</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3776,22 +3815,21 @@
         <v>1009.6513</v>
       </c>
       <c r="G90" t="n">
+        <v>41.45999999999999</v>
+      </c>
+      <c r="H90" t="n">
         <v>40.81166666666665</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3815,22 +3853,21 @@
         <v>1352.8277</v>
       </c>
       <c r="G91" t="n">
+        <v>41.51333333333332</v>
+      </c>
+      <c r="H91" t="n">
         <v>40.84499999999998</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,22 +3891,21 @@
         <v>14960.7178</v>
       </c>
       <c r="G92" t="n">
+        <v>41.55333333333332</v>
+      </c>
+      <c r="H92" t="n">
         <v>40.86166666666665</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3893,22 +3929,21 @@
         <v>24036.1445</v>
       </c>
       <c r="G93" t="n">
+        <v>41.61999999999999</v>
+      </c>
+      <c r="H93" t="n">
         <v>40.87166666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3932,22 +3967,21 @@
         <v>1373</v>
       </c>
       <c r="G94" t="n">
+        <v>41.68666666666665</v>
+      </c>
+      <c r="H94" t="n">
         <v>40.88166666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3971,22 +4005,21 @@
         <v>2393.7909</v>
       </c>
       <c r="G95" t="n">
+        <v>41.77333333333332</v>
+      </c>
+      <c r="H95" t="n">
         <v>40.90666666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,22 +4043,21 @@
         <v>675.9623</v>
       </c>
       <c r="G96" t="n">
+        <v>41.84666666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>40.93166666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4049,22 +4081,21 @@
         <v>51128.4838</v>
       </c>
       <c r="G97" t="n">
+        <v>41.96666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>40.97499999999999</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,22 +4119,21 @@
         <v>2449.95</v>
       </c>
       <c r="G98" t="n">
+        <v>42.04666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>41.00999999999999</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4127,22 +4157,21 @@
         <v>11927.8996</v>
       </c>
       <c r="G99" t="n">
+        <v>42.17333333333332</v>
+      </c>
+      <c r="H99" t="n">
         <v>41.05999999999999</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4166,22 +4195,21 @@
         <v>1165.4403</v>
       </c>
       <c r="G100" t="n">
+        <v>42.21999999999999</v>
+      </c>
+      <c r="H100" t="n">
         <v>41.075</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4205,22 +4233,21 @@
         <v>15766.69091316397</v>
       </c>
       <c r="G101" t="n">
+        <v>42.32666666666665</v>
+      </c>
+      <c r="H101" t="n">
         <v>41.105</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,22 +4271,21 @@
         <v>6315.77</v>
       </c>
       <c r="G102" t="n">
+        <v>42.35333333333332</v>
+      </c>
+      <c r="H102" t="n">
         <v>41.11666666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4283,22 +4309,21 @@
         <v>736.8483</v>
       </c>
       <c r="G103" t="n">
+        <v>42.35333333333332</v>
+      </c>
+      <c r="H103" t="n">
         <v>41.12999999999999</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4322,22 +4347,21 @@
         <v>395.255</v>
       </c>
       <c r="G104" t="n">
+        <v>42.38666666666665</v>
+      </c>
+      <c r="H104" t="n">
         <v>41.14499999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4361,22 +4385,21 @@
         <v>7982.5221</v>
       </c>
       <c r="G105" t="n">
+        <v>42.39333333333332</v>
+      </c>
+      <c r="H105" t="n">
         <v>41.15333333333332</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,22 +4423,21 @@
         <v>6131.3393</v>
       </c>
       <c r="G106" t="n">
+        <v>42.34666666666665</v>
+      </c>
+      <c r="H106" t="n">
         <v>41.15499999999999</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4439,22 +4461,21 @@
         <v>64040.702</v>
       </c>
       <c r="G107" t="n">
+        <v>42.31999999999998</v>
+      </c>
+      <c r="H107" t="n">
         <v>41.15499999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,22 +4499,21 @@
         <v>3930.3507</v>
       </c>
       <c r="G108" t="n">
+        <v>42.33333333333332</v>
+      </c>
+      <c r="H108" t="n">
         <v>41.16999999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4517,22 +4537,21 @@
         <v>70650</v>
       </c>
       <c r="G109" t="n">
+        <v>42.36666666666665</v>
+      </c>
+      <c r="H109" t="n">
         <v>41.19166666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4556,22 +4575,21 @@
         <v>12450</v>
       </c>
       <c r="G110" t="n">
+        <v>42.37333333333332</v>
+      </c>
+      <c r="H110" t="n">
         <v>41.22166666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4595,22 +4613,21 @@
         <v>4213.2652</v>
       </c>
       <c r="G111" t="n">
+        <v>42.34666666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>41.24333333333332</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4634,22 +4651,21 @@
         <v>48034.389</v>
       </c>
       <c r="G112" t="n">
+        <v>42.34666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>41.28833333333331</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4673,22 +4689,21 @@
         <v>2297.2378</v>
       </c>
       <c r="G113" t="n">
+        <v>42.35999999999999</v>
+      </c>
+      <c r="H113" t="n">
         <v>41.32333333333331</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4712,22 +4727,21 @@
         <v>6720.5373</v>
       </c>
       <c r="G114" t="n">
+        <v>42.31999999999998</v>
+      </c>
+      <c r="H114" t="n">
         <v>41.36499999999998</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4751,22 +4765,401 @@
         <v>15000</v>
       </c>
       <c r="G115" t="n">
+        <v>42.34666666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>41.39999999999998</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>500</v>
+      </c>
+      <c r="G116" t="n">
+        <v>42.29333333333332</v>
+      </c>
+      <c r="H116" t="n">
+        <v>41.43999999999998</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>13005.3554</v>
+      </c>
+      <c r="G117" t="n">
+        <v>42.29999999999999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>41.46999999999998</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>42</v>
+      </c>
+      <c r="C118" t="n">
+        <v>42</v>
+      </c>
+      <c r="D118" t="n">
+        <v>42</v>
+      </c>
+      <c r="E118" t="n">
+        <v>42</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7303.5804</v>
+      </c>
+      <c r="G118" t="n">
+        <v>42.28666666666665</v>
+      </c>
+      <c r="H118" t="n">
+        <v>41.49666666666664</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>42</v>
+      </c>
+      <c r="C119" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D119" t="n">
+        <v>42</v>
+      </c>
+      <c r="E119" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>6703.736</v>
+      </c>
+      <c r="G119" t="n">
+        <v>42.25999999999999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>41.54166666666664</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C120" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>972.9234584905661</v>
+      </c>
+      <c r="G120" t="n">
+        <v>42.28666666666665</v>
+      </c>
+      <c r="H120" t="n">
+        <v>41.59499999999998</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="C121" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="E121" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3945.8068</v>
+      </c>
+      <c r="G121" t="n">
+        <v>42.34666666666666</v>
+      </c>
+      <c r="H121" t="n">
+        <v>41.64833333333332</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>42</v>
+      </c>
+      <c r="C122" t="n">
+        <v>42</v>
+      </c>
+      <c r="D122" t="n">
+        <v>42</v>
+      </c>
+      <c r="E122" t="n">
+        <v>42</v>
+      </c>
+      <c r="F122" t="n">
+        <v>21717.6233</v>
+      </c>
+      <c r="G122" t="n">
+        <v>42.39999999999998</v>
+      </c>
+      <c r="H122" t="n">
+        <v>41.69999999999998</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>42</v>
+      </c>
+      <c r="C123" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>42</v>
+      </c>
+      <c r="E123" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>21180.1798</v>
+      </c>
+      <c r="G123" t="n">
+        <v>42.36666666666665</v>
+      </c>
+      <c r="H123" t="n">
+        <v>41.74666666666666</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E124" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>474.525</v>
+      </c>
+      <c r="G124" t="n">
+        <v>42.29999999999998</v>
+      </c>
+      <c r="H124" t="n">
+        <v>41.77499999999999</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C125" t="n">
+        <v>42</v>
+      </c>
+      <c r="D125" t="n">
+        <v>42</v>
+      </c>
+      <c r="E125" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F125" t="n">
+        <v>12894.3499</v>
+      </c>
+      <c r="G125" t="n">
+        <v>42.25999999999998</v>
+      </c>
+      <c r="H125" t="n">
+        <v>41.80499999999999</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest LRC.xlsx
+++ b/BackTest/2019-10-29 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>40.7</v>
+        <v>39.4</v>
       </c>
       <c r="C2" t="n">
-        <v>40.7</v>
+        <v>39.4</v>
       </c>
       <c r="D2" t="n">
-        <v>40.7</v>
+        <v>39.4</v>
       </c>
       <c r="E2" t="n">
-        <v>40.7</v>
+        <v>39.4</v>
       </c>
       <c r="F2" t="n">
-        <v>1907.6939</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>40.35333333333332</v>
+        <v>49683.37755121944</v>
       </c>
       <c r="H2" t="n">
-        <v>39.89999999999999</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40.8</v>
+        <v>39.4</v>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="E3" t="n">
-        <v>40.8</v>
+        <v>39.4</v>
       </c>
       <c r="F3" t="n">
-        <v>1623</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>40.43999999999998</v>
+        <v>49683.37755121944</v>
       </c>
       <c r="H3" t="n">
-        <v>39.90333333333332</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>39.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>39.4</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40.5</v>
+        <v>39.4</v>
       </c>
       <c r="C4" t="n">
-        <v>40.4</v>
+        <v>39.4</v>
       </c>
       <c r="D4" t="n">
-        <v>40.5</v>
+        <v>39.4</v>
       </c>
       <c r="E4" t="n">
-        <v>40.4</v>
+        <v>39.4</v>
       </c>
       <c r="F4" t="n">
-        <v>1173.8099</v>
+        <v>8238.9252</v>
       </c>
       <c r="G4" t="n">
-        <v>40.48666666666665</v>
+        <v>49683.37755121944</v>
       </c>
       <c r="H4" t="n">
-        <v>39.89833333333333</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +550,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40.4</v>
+        <v>39.2</v>
       </c>
       <c r="C5" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="D5" t="n">
-        <v>40.4</v>
+        <v>39.2</v>
       </c>
       <c r="E5" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="F5" t="n">
-        <v>238.2805</v>
+        <v>4398.6128</v>
       </c>
       <c r="G5" t="n">
-        <v>40.53333333333331</v>
+        <v>45284.76475121944</v>
       </c>
       <c r="H5" t="n">
-        <v>39.89833333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +591,41 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="C6" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="D6" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="E6" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1808.9999</v>
+        <v>82</v>
       </c>
       <c r="G6" t="n">
-        <v>40.57333333333331</v>
+        <v>45284.76475121944</v>
       </c>
       <c r="H6" t="n">
-        <v>39.89333333333333</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +634,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="C7" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="D7" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="E7" t="n">
-        <v>40.4</v>
+        <v>38.7</v>
       </c>
       <c r="F7" t="n">
-        <v>22262.8998</v>
+        <v>165</v>
       </c>
       <c r="G7" t="n">
-        <v>40.59999999999998</v>
+        <v>45284.76475121944</v>
       </c>
       <c r="H7" t="n">
-        <v>39.88333333333333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +675,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.4</v>
+        <v>38.8</v>
       </c>
       <c r="C8" t="n">
-        <v>40.8</v>
+        <v>38.8</v>
       </c>
       <c r="D8" t="n">
-        <v>40.8</v>
+        <v>38.8</v>
       </c>
       <c r="E8" t="n">
-        <v>40.4</v>
+        <v>38.8</v>
       </c>
       <c r="F8" t="n">
-        <v>30435.2142</v>
+        <v>12.5376</v>
       </c>
       <c r="G8" t="n">
-        <v>40.62666666666664</v>
+        <v>45297.30235121944</v>
       </c>
       <c r="H8" t="n">
-        <v>39.88</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +718,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40.9</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>40.9</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>40.9</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
-        <v>40.9</v>
+        <v>39</v>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>3846.153846153846</v>
       </c>
       <c r="G9" t="n">
-        <v>40.67999999999997</v>
+        <v>49143.45619737329</v>
       </c>
       <c r="H9" t="n">
-        <v>39.87833333333334</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +761,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>40.9</v>
+        <v>39.3</v>
       </c>
       <c r="C10" t="n">
-        <v>40.9</v>
+        <v>39.3</v>
       </c>
       <c r="D10" t="n">
-        <v>40.9</v>
+        <v>39.3</v>
       </c>
       <c r="E10" t="n">
-        <v>40.9</v>
+        <v>39.3</v>
       </c>
       <c r="F10" t="n">
-        <v>3867.7194</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>40.7133333333333</v>
+        <v>49153.45619737329</v>
       </c>
       <c r="H10" t="n">
-        <v>39.88</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +802,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="C11" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="D11" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2726.2231</v>
+        <v>584.9605</v>
       </c>
       <c r="G11" t="n">
-        <v>40.7133333333333</v>
+        <v>49153.45619737329</v>
       </c>
       <c r="H11" t="n">
-        <v>39.88166666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +843,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="C12" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="D12" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="E12" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="F12" t="n">
-        <v>817.4386</v>
+        <v>1653.3453</v>
       </c>
       <c r="G12" t="n">
-        <v>40.71999999999998</v>
+        <v>50806.80149737329</v>
       </c>
       <c r="H12" t="n">
-        <v>39.88833333333334</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +884,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="C13" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="E13" t="n">
-        <v>41</v>
+        <v>39.4</v>
       </c>
       <c r="F13" t="n">
-        <v>91588.1452</v>
+        <v>790</v>
       </c>
       <c r="G13" t="n">
-        <v>40.73999999999997</v>
+        <v>50806.80149737329</v>
       </c>
       <c r="H13" t="n">
-        <v>39.89</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +925,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>41.1</v>
+        <v>39.5</v>
       </c>
       <c r="C14" t="n">
-        <v>41.3</v>
+        <v>39.5</v>
       </c>
       <c r="D14" t="n">
-        <v>41.3</v>
+        <v>39.5</v>
       </c>
       <c r="E14" t="n">
-        <v>41.1</v>
+        <v>39.5</v>
       </c>
       <c r="F14" t="n">
-        <v>17800.0069</v>
+        <v>17450.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>40.78666666666663</v>
+        <v>68257.80139737329</v>
       </c>
       <c r="H14" t="n">
-        <v>39.90666666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +966,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>41.3</v>
+        <v>39.5</v>
       </c>
       <c r="C15" t="n">
-        <v>41.3</v>
+        <v>39.5</v>
       </c>
       <c r="D15" t="n">
-        <v>41.3</v>
+        <v>39.5</v>
       </c>
       <c r="E15" t="n">
-        <v>41.3</v>
+        <v>39.5</v>
       </c>
       <c r="F15" t="n">
-        <v>6072.8973</v>
+        <v>849.1204</v>
       </c>
       <c r="G15" t="n">
-        <v>40.81999999999996</v>
+        <v>68257.80139737329</v>
       </c>
       <c r="H15" t="n">
-        <v>39.925</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +1007,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>41.3</v>
+        <v>39.6</v>
       </c>
       <c r="C16" t="n">
-        <v>41.4</v>
+        <v>39.6</v>
       </c>
       <c r="D16" t="n">
-        <v>41.4</v>
+        <v>39.6</v>
       </c>
       <c r="E16" t="n">
-        <v>41.3</v>
+        <v>39.6</v>
       </c>
       <c r="F16" t="n">
-        <v>17794.0579</v>
+        <v>12668.8733</v>
       </c>
       <c r="G16" t="n">
-        <v>40.85999999999997</v>
+        <v>80926.6746973733</v>
       </c>
       <c r="H16" t="n">
-        <v>39.94500000000001</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +1048,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="C17" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="D17" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="E17" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="F17" t="n">
-        <v>6212.315</v>
+        <v>81804</v>
       </c>
       <c r="G17" t="n">
-        <v>40.87999999999997</v>
+        <v>162730.6746973733</v>
       </c>
       <c r="H17" t="n">
-        <v>39.95333333333335</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1089,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="C18" t="n">
-        <v>41.4</v>
+        <v>39.7</v>
       </c>
       <c r="D18" t="n">
-        <v>41.4</v>
+        <v>39.7</v>
       </c>
       <c r="E18" t="n">
-        <v>41</v>
+        <v>39.7</v>
       </c>
       <c r="F18" t="n">
-        <v>22032</v>
+        <v>27951</v>
       </c>
       <c r="G18" t="n">
-        <v>40.90666666666663</v>
+        <v>162730.6746973733</v>
       </c>
       <c r="H18" t="n">
-        <v>39.97833333333335</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1130,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>40.8</v>
+        <v>39.7</v>
       </c>
       <c r="C19" t="n">
-        <v>40.1</v>
+        <v>39.7</v>
       </c>
       <c r="D19" t="n">
-        <v>40.8</v>
+        <v>39.7</v>
       </c>
       <c r="E19" t="n">
-        <v>40.1</v>
+        <v>39.7</v>
       </c>
       <c r="F19" t="n">
-        <v>33667.5145</v>
+        <v>952.1566</v>
       </c>
       <c r="G19" t="n">
-        <v>40.88666666666663</v>
+        <v>162730.6746973733</v>
       </c>
       <c r="H19" t="n">
-        <v>39.98500000000001</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1171,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>41</v>
+        <v>39.8</v>
       </c>
       <c r="C20" t="n">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="D20" t="n">
-        <v>41</v>
+        <v>39.8</v>
       </c>
       <c r="E20" t="n">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="F20" t="n">
-        <v>35660.361</v>
+        <v>6310.9389</v>
       </c>
       <c r="G20" t="n">
-        <v>40.86666666666664</v>
+        <v>169041.6135973733</v>
       </c>
       <c r="H20" t="n">
-        <v>39.99333333333335</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1212,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>41.2</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>41.2</v>
+        <v>40</v>
       </c>
       <c r="D21" t="n">
-        <v>41.2</v>
+        <v>40</v>
       </c>
       <c r="E21" t="n">
-        <v>41.2</v>
+        <v>40</v>
       </c>
       <c r="F21" t="n">
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>40.91999999999997</v>
+        <v>169051.6135973733</v>
       </c>
       <c r="H21" t="n">
-        <v>40.02166666666668</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1253,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="C22" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="D22" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="E22" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="F22" t="n">
-        <v>1231.343</v>
+        <v>29241</v>
       </c>
       <c r="G22" t="n">
-        <v>40.91333333333331</v>
+        <v>198292.6135973733</v>
       </c>
       <c r="H22" t="n">
-        <v>40.04166666666668</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1294,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="C23" t="n">
         <v>40.1</v>
       </c>
       <c r="D23" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="E23" t="n">
         <v>40.1</v>
       </c>
       <c r="F23" t="n">
-        <v>10000</v>
+        <v>8519.9998</v>
       </c>
       <c r="G23" t="n">
-        <v>40.86666666666665</v>
+        <v>189772.6137973733</v>
       </c>
       <c r="H23" t="n">
-        <v>40.06000000000002</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1335,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="C24" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="D24" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="E24" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="F24" t="n">
-        <v>516.8754</v>
+        <v>11062.9561</v>
       </c>
       <c r="G24" t="n">
-        <v>40.81333333333331</v>
+        <v>200835.5698973733</v>
       </c>
       <c r="H24" t="n">
-        <v>40.06833333333335</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1376,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="C25" t="n">
-        <v>39.6</v>
+        <v>41</v>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" t="n">
-        <v>39.6</v>
+        <v>40.6</v>
       </c>
       <c r="F25" t="n">
-        <v>11855.4401</v>
+        <v>2443.927825365854</v>
       </c>
       <c r="G25" t="n">
-        <v>40.72666666666665</v>
+        <v>203279.4977227392</v>
       </c>
       <c r="H25" t="n">
-        <v>40.06500000000001</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1417,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40.1</v>
+        <v>40.9</v>
       </c>
       <c r="C26" t="n">
-        <v>39.6</v>
+        <v>40.9</v>
       </c>
       <c r="D26" t="n">
-        <v>40.1</v>
+        <v>40.9</v>
       </c>
       <c r="E26" t="n">
-        <v>39.6</v>
+        <v>40.9</v>
       </c>
       <c r="F26" t="n">
-        <v>53359.4808</v>
+        <v>2356.8901</v>
       </c>
       <c r="G26" t="n">
-        <v>40.63333333333332</v>
+        <v>200922.6076227392</v>
       </c>
       <c r="H26" t="n">
-        <v>40.07166666666668</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1458,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="C27" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="D27" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="E27" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="F27" t="n">
-        <v>1231.343</v>
+        <v>5815.2535</v>
       </c>
       <c r="G27" t="n">
-        <v>40.55999999999998</v>
+        <v>195107.3541227392</v>
       </c>
       <c r="H27" t="n">
-        <v>40.08666666666668</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1499,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="F28" t="n">
-        <v>6900</v>
+        <v>5233.7281</v>
       </c>
       <c r="G28" t="n">
-        <v>40.49333333333332</v>
+        <v>189873.6260227392</v>
       </c>
       <c r="H28" t="n">
-        <v>40.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1540,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="C29" t="n">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="D29" t="n">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="E29" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F29" t="n">
-        <v>36300</v>
+        <v>8403.729600000001</v>
       </c>
       <c r="G29" t="n">
-        <v>40.41999999999999</v>
+        <v>198277.3556227392</v>
       </c>
       <c r="H29" t="n">
-        <v>40.11833333333335</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1581,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40.1</v>
+        <v>40.8</v>
       </c>
       <c r="C30" t="n">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="D30" t="n">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="E30" t="n">
-        <v>40.1</v>
+        <v>40.8</v>
       </c>
       <c r="F30" t="n">
-        <v>3650</v>
+        <v>2290.7713</v>
       </c>
       <c r="G30" t="n">
-        <v>40.34666666666666</v>
+        <v>198277.3556227392</v>
       </c>
       <c r="H30" t="n">
-        <v>40.13500000000001</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1622,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="C31" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="D31" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="E31" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="F31" t="n">
-        <v>9600</v>
+        <v>1907.6939</v>
       </c>
       <c r="G31" t="n">
-        <v>40.26666666666667</v>
+        <v>196369.6617227392</v>
       </c>
       <c r="H31" t="n">
-        <v>40.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1663,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="C32" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="D32" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="E32" t="n">
-        <v>40.2</v>
+        <v>40.8</v>
       </c>
       <c r="F32" t="n">
-        <v>21806.2962</v>
+        <v>1623</v>
       </c>
       <c r="G32" t="n">
-        <v>40.24</v>
+        <v>197992.6617227392</v>
       </c>
       <c r="H32" t="n">
-        <v>40.17</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1704,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="C33" t="n">
-        <v>41.2</v>
+        <v>40.4</v>
       </c>
       <c r="D33" t="n">
-        <v>41.2</v>
+        <v>40.5</v>
       </c>
       <c r="E33" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="F33" t="n">
-        <v>18300</v>
+        <v>1173.8099</v>
       </c>
       <c r="G33" t="n">
-        <v>40.22666666666667</v>
+        <v>196818.8518227392</v>
       </c>
       <c r="H33" t="n">
-        <v>40.2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1745,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>41.2</v>
+        <v>40.4</v>
       </c>
       <c r="C34" t="n">
-        <v>41.2</v>
+        <v>40.4</v>
       </c>
       <c r="D34" t="n">
-        <v>41.2</v>
+        <v>40.4</v>
       </c>
       <c r="E34" t="n">
-        <v>41.2</v>
+        <v>40.4</v>
       </c>
       <c r="F34" t="n">
-        <v>23116.7961</v>
+        <v>238.2805</v>
       </c>
       <c r="G34" t="n">
-        <v>40.3</v>
+        <v>196818.8518227392</v>
       </c>
       <c r="H34" t="n">
-        <v>40.23</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1786,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="C35" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="D35" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="E35" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>1808.9999</v>
       </c>
       <c r="G35" t="n">
-        <v>40.36000000000001</v>
+        <v>196818.8518227392</v>
       </c>
       <c r="H35" t="n">
-        <v>40.25666666666666</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1827,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="C36" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="D36" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="E36" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="F36" t="n">
-        <v>7534.5169</v>
+        <v>22262.8998</v>
       </c>
       <c r="G36" t="n">
-        <v>40.34666666666667</v>
+        <v>196818.8518227392</v>
       </c>
       <c r="H36" t="n">
-        <v>40.29499999999999</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1868,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="C37" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="D37" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="E37" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="F37" t="n">
-        <v>49.261</v>
+        <v>30435.2142</v>
       </c>
       <c r="G37" t="n">
-        <v>40.36666666666667</v>
+        <v>227254.0660227392</v>
       </c>
       <c r="H37" t="n">
-        <v>40.32666666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1909,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="C38" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="D38" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="E38" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="F38" t="n">
-        <v>1436.9376</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="n">
-        <v>40.40000000000001</v>
+        <v>228254.0660227392</v>
       </c>
       <c r="H38" t="n">
-        <v>40.35833333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1950,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="C39" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="D39" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="E39" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>3867.7194</v>
       </c>
       <c r="G39" t="n">
-        <v>40.42</v>
+        <v>228254.0660227392</v>
       </c>
       <c r="H39" t="n">
-        <v>40.385</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1885,33 +1994,36 @@
         <v>41</v>
       </c>
       <c r="C40" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="D40" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="E40" t="n">
         <v>41</v>
       </c>
       <c r="F40" t="n">
-        <v>17700</v>
+        <v>2726.2231</v>
       </c>
       <c r="G40" t="n">
-        <v>40.54</v>
+        <v>230980.2891227392</v>
       </c>
       <c r="H40" t="n">
-        <v>40.425</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +2032,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="C41" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="D41" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="E41" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="F41" t="n">
-        <v>142504.7877</v>
+        <v>817.4386</v>
       </c>
       <c r="G41" t="n">
-        <v>40.66666666666666</v>
+        <v>230980.2891227392</v>
       </c>
       <c r="H41" t="n">
-        <v>40.46166666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +2073,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="E42" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="F42" t="n">
-        <v>2642.3467</v>
+        <v>91588.1452</v>
       </c>
       <c r="G42" t="n">
-        <v>40.76666666666667</v>
+        <v>230980.2891227392</v>
       </c>
       <c r="H42" t="n">
-        <v>40.49666666666666</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +2114,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>41.4</v>
+        <v>41.1</v>
       </c>
       <c r="C43" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="D43" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="E43" t="n">
-        <v>41.4</v>
+        <v>41.1</v>
       </c>
       <c r="F43" t="n">
-        <v>4518.4132</v>
+        <v>17800.0069</v>
       </c>
       <c r="G43" t="n">
-        <v>40.86</v>
+        <v>248780.2960227392</v>
       </c>
       <c r="H43" t="n">
-        <v>40.52999999999999</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2155,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="C44" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="D44" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="E44" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="F44" t="n">
-        <v>1211</v>
+        <v>6072.8973</v>
       </c>
       <c r="G44" t="n">
-        <v>40.93999999999999</v>
+        <v>248780.2960227392</v>
       </c>
       <c r="H44" t="n">
-        <v>40.56333333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2196,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C45" t="n">
         <v>41.4</v>
       </c>
-      <c r="C45" t="n">
-        <v>41.5</v>
-      </c>
       <c r="D45" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="E45" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="F45" t="n">
-        <v>8100</v>
+        <v>17794.0579</v>
       </c>
       <c r="G45" t="n">
-        <v>41.02666666666666</v>
+        <v>266574.3539227392</v>
       </c>
       <c r="H45" t="n">
-        <v>40.59666666666666</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2237,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="C46" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="D46" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="E46" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="F46" t="n">
-        <v>3976</v>
+        <v>6212.315</v>
       </c>
       <c r="G46" t="n">
-        <v>41.10666666666665</v>
+        <v>260362.0389227392</v>
       </c>
       <c r="H46" t="n">
-        <v>40.62833333333333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2278,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="C47" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="D47" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="E47" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="F47" t="n">
-        <v>12.1359</v>
+        <v>22032</v>
       </c>
       <c r="G47" t="n">
-        <v>41.14666666666665</v>
+        <v>282394.0389227392</v>
       </c>
       <c r="H47" t="n">
-        <v>40.65499999999999</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2319,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="C48" t="n">
-        <v>41.1</v>
+        <v>40.1</v>
       </c>
       <c r="D48" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="E48" t="n">
-        <v>41.1</v>
+        <v>40.1</v>
       </c>
       <c r="F48" t="n">
-        <v>12.1654</v>
+        <v>33667.5145</v>
       </c>
       <c r="G48" t="n">
-        <v>41.13999999999999</v>
+        <v>248726.5244227392</v>
       </c>
       <c r="H48" t="n">
-        <v>40.67833333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2227,33 +2363,36 @@
         <v>41</v>
       </c>
       <c r="C49" t="n">
-        <v>41</v>
+        <v>40.1</v>
       </c>
       <c r="D49" t="n">
         <v>41</v>
       </c>
       <c r="E49" t="n">
-        <v>41</v>
+        <v>40.1</v>
       </c>
       <c r="F49" t="n">
-        <v>24.3902</v>
+        <v>35660.361</v>
       </c>
       <c r="G49" t="n">
-        <v>41.12666666666665</v>
+        <v>248726.5244227392</v>
       </c>
       <c r="H49" t="n">
-        <v>40.7</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2401,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>40.9</v>
+        <v>41.2</v>
       </c>
       <c r="C50" t="n">
-        <v>40.8</v>
+        <v>41.2</v>
       </c>
       <c r="D50" t="n">
-        <v>40.9</v>
+        <v>41.2</v>
       </c>
       <c r="E50" t="n">
-        <v>40.8</v>
+        <v>41.2</v>
       </c>
       <c r="F50" t="n">
-        <v>23059.0041</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>41.11333333333332</v>
+        <v>248736.5244227392</v>
       </c>
       <c r="H50" t="n">
-        <v>40.71833333333334</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2442,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="C51" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="D51" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="E51" t="n">
-        <v>40.8</v>
+        <v>40.3</v>
       </c>
       <c r="F51" t="n">
-        <v>15993</v>
+        <v>1231.343</v>
       </c>
       <c r="G51" t="n">
-        <v>41.09999999999998</v>
+        <v>247505.1814227392</v>
       </c>
       <c r="H51" t="n">
-        <v>40.73500000000001</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2483,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="C52" t="n">
-        <v>40.5</v>
+        <v>40.1</v>
       </c>
       <c r="D52" t="n">
-        <v>40.5</v>
+        <v>40.2</v>
       </c>
       <c r="E52" t="n">
-        <v>40.5</v>
+        <v>40.1</v>
       </c>
       <c r="F52" t="n">
-        <v>22218.3372</v>
+        <v>10000</v>
       </c>
       <c r="G52" t="n">
-        <v>41.09333333333331</v>
+        <v>237505.1814227392</v>
       </c>
       <c r="H52" t="n">
-        <v>40.74333333333334</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2524,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>40.8</v>
+        <v>40.1</v>
       </c>
       <c r="C53" t="n">
-        <v>40.8</v>
+        <v>40.1</v>
       </c>
       <c r="D53" t="n">
-        <v>40.8</v>
+        <v>40.1</v>
       </c>
       <c r="E53" t="n">
-        <v>40.8</v>
+        <v>40.1</v>
       </c>
       <c r="F53" t="n">
-        <v>1016.1053</v>
+        <v>516.8754</v>
       </c>
       <c r="G53" t="n">
-        <v>41.10666666666664</v>
+        <v>237505.1814227392</v>
       </c>
       <c r="H53" t="n">
-        <v>40.75000000000001</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2565,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="C54" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="D54" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="E54" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="F54" t="n">
-        <v>36150</v>
+        <v>11855.4401</v>
       </c>
       <c r="G54" t="n">
-        <v>41.09999999999997</v>
+        <v>225649.7413227392</v>
       </c>
       <c r="H54" t="n">
-        <v>40.75333333333334</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2606,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>40.6</v>
+        <v>40.1</v>
       </c>
       <c r="C55" t="n">
-        <v>40.6</v>
+        <v>39.6</v>
       </c>
       <c r="D55" t="n">
-        <v>40.6</v>
+        <v>40.1</v>
       </c>
       <c r="E55" t="n">
-        <v>40.6</v>
+        <v>39.6</v>
       </c>
       <c r="F55" t="n">
-        <v>11</v>
+        <v>53359.4808</v>
       </c>
       <c r="G55" t="n">
-        <v>41.04666666666664</v>
+        <v>225649.7413227392</v>
       </c>
       <c r="H55" t="n">
-        <v>40.75666666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2647,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="C56" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="D56" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="E56" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="F56" t="n">
-        <v>3000</v>
+        <v>1231.343</v>
       </c>
       <c r="G56" t="n">
-        <v>40.9533333333333</v>
+        <v>226881.0843227392</v>
       </c>
       <c r="H56" t="n">
-        <v>40.74166666666667</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2688,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="C57" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="E57" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="F57" t="n">
-        <v>123.5241</v>
+        <v>6900</v>
       </c>
       <c r="G57" t="n">
-        <v>40.88666666666664</v>
+        <v>233781.0843227392</v>
       </c>
       <c r="H57" t="n">
-        <v>40.73333333333334</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2569,33 +2732,36 @@
         <v>40.1</v>
       </c>
       <c r="C58" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="D58" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="E58" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="F58" t="n">
-        <v>18854.6806</v>
+        <v>36300</v>
       </c>
       <c r="G58" t="n">
-        <v>40.81999999999997</v>
+        <v>270081.0843227392</v>
       </c>
       <c r="H58" t="n">
-        <v>40.72833333333335</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2770,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>39.2</v>
+        <v>40.1</v>
       </c>
       <c r="C59" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="D59" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="E59" t="n">
-        <v>39.2</v>
+        <v>40.1</v>
       </c>
       <c r="F59" t="n">
-        <v>4975.0623</v>
+        <v>3650</v>
       </c>
       <c r="G59" t="n">
-        <v>40.67333333333331</v>
+        <v>270081.0843227392</v>
       </c>
       <c r="H59" t="n">
-        <v>40.70500000000001</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2811,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="C60" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="D60" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="E60" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="F60" t="n">
-        <v>7795.18</v>
+        <v>9600</v>
       </c>
       <c r="G60" t="n">
-        <v>40.51999999999998</v>
+        <v>270081.0843227392</v>
       </c>
       <c r="H60" t="n">
-        <v>40.67833333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2852,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="C61" t="n">
-        <v>39.2</v>
+        <v>40.6</v>
       </c>
       <c r="D61" t="n">
-        <v>39.2</v>
+        <v>40.9</v>
       </c>
       <c r="E61" t="n">
-        <v>39.2</v>
+        <v>40.2</v>
       </c>
       <c r="F61" t="n">
-        <v>3512.994</v>
+        <v>21806.2962</v>
       </c>
       <c r="G61" t="n">
-        <v>40.37333333333332</v>
+        <v>291887.3805227391</v>
       </c>
       <c r="H61" t="n">
-        <v>40.65166666666666</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2893,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C62" t="n">
-        <v>38.9</v>
+        <v>41.2</v>
       </c>
       <c r="D62" t="n">
-        <v>39</v>
+        <v>41.2</v>
       </c>
       <c r="E62" t="n">
-        <v>38.9</v>
+        <v>41</v>
       </c>
       <c r="F62" t="n">
-        <v>2400</v>
+        <v>18300</v>
       </c>
       <c r="G62" t="n">
-        <v>40.21999999999998</v>
+        <v>310187.3805227391</v>
       </c>
       <c r="H62" t="n">
-        <v>40.62166666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,40 +2934,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>38.7</v>
+        <v>41.2</v>
       </c>
       <c r="C63" t="n">
-        <v>38.7</v>
+        <v>41.2</v>
       </c>
       <c r="D63" t="n">
-        <v>38.7</v>
+        <v>41.2</v>
       </c>
       <c r="E63" t="n">
-        <v>38.7</v>
+        <v>41.2</v>
       </c>
       <c r="F63" t="n">
-        <v>661.826</v>
+        <v>23116.7961</v>
       </c>
       <c r="G63" t="n">
-        <v>40.05999999999998</v>
+        <v>310187.3805227391</v>
       </c>
       <c r="H63" t="n">
-        <v>40.58333333333334</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="L63" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2798,44 +2975,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>39.6</v>
+        <v>41</v>
       </c>
       <c r="C64" t="n">
-        <v>39.6</v>
+        <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>39.6</v>
+        <v>41</v>
       </c>
       <c r="E64" t="n">
-        <v>39.6</v>
+        <v>41</v>
       </c>
       <c r="F64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>39.96666666666665</v>
+        <v>310177.3805227391</v>
       </c>
       <c r="H64" t="n">
-        <v>40.57</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="L64" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,42 +3016,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>40.2</v>
+        <v>41</v>
       </c>
       <c r="C65" t="n">
-        <v>40.2</v>
+        <v>41</v>
       </c>
       <c r="D65" t="n">
-        <v>40.2</v>
+        <v>41</v>
       </c>
       <c r="E65" t="n">
-        <v>40.2</v>
+        <v>41</v>
       </c>
       <c r="F65" t="n">
-        <v>25</v>
+        <v>7534.5169</v>
       </c>
       <c r="G65" t="n">
-        <v>39.92666666666666</v>
+        <v>310177.3805227391</v>
       </c>
       <c r="H65" t="n">
-        <v>40.56666666666666</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2888,36 +3057,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="C66" t="n">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="D66" t="n">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="E66" t="n">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="F66" t="n">
-        <v>5790.6316</v>
+        <v>49.261</v>
       </c>
       <c r="G66" t="n">
-        <v>39.84</v>
+        <v>310128.1195227391</v>
       </c>
       <c r="H66" t="n">
-        <v>40.55166666666666</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,36 +3098,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="C67" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="D67" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="E67" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F67" t="n">
-        <v>21253.277</v>
+        <v>1436.9376</v>
       </c>
       <c r="G67" t="n">
-        <v>39.81333333333333</v>
+        <v>310128.1195227391</v>
       </c>
       <c r="H67" t="n">
-        <v>40.54666666666665</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2967,33 +3142,36 @@
         <v>40.4</v>
       </c>
       <c r="C68" t="n">
-        <v>40.7</v>
+        <v>40.4</v>
       </c>
       <c r="D68" t="n">
-        <v>40.7</v>
+        <v>40.4</v>
       </c>
       <c r="E68" t="n">
         <v>40.4</v>
       </c>
       <c r="F68" t="n">
-        <v>20700</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>39.80666666666666</v>
+        <v>310118.1195227391</v>
       </c>
       <c r="H68" t="n">
-        <v>40.54499999999998</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,36 +3180,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="C69" t="n">
-        <v>40.9</v>
+        <v>41.4</v>
       </c>
       <c r="D69" t="n">
-        <v>40.9</v>
+        <v>41.4</v>
       </c>
       <c r="E69" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="F69" t="n">
-        <v>5700</v>
+        <v>17700</v>
       </c>
       <c r="G69" t="n">
-        <v>39.84666666666667</v>
+        <v>327818.1195227391</v>
       </c>
       <c r="H69" t="n">
-        <v>40.54499999999998</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3040,36 +3221,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="C70" t="n">
-        <v>41.2</v>
+        <v>41.5</v>
       </c>
       <c r="D70" t="n">
-        <v>41.2</v>
+        <v>41.5</v>
       </c>
       <c r="E70" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="F70" t="n">
-        <v>2250</v>
+        <v>142504.7877</v>
       </c>
       <c r="G70" t="n">
-        <v>39.88666666666667</v>
+        <v>470322.9072227391</v>
       </c>
       <c r="H70" t="n">
-        <v>40.54999999999998</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3078,36 +3262,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="C71" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="D71" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="E71" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="F71" t="n">
-        <v>1363.8397</v>
+        <v>2642.3467</v>
       </c>
       <c r="G71" t="n">
-        <v>39.92666666666667</v>
+        <v>467680.5605227391</v>
       </c>
       <c r="H71" t="n">
-        <v>40.54499999999997</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3116,36 +3303,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="C72" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="D72" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="E72" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="F72" t="n">
-        <v>1209.6956</v>
+        <v>4518.4132</v>
       </c>
       <c r="G72" t="n">
-        <v>39.94000000000001</v>
+        <v>467680.5605227391</v>
       </c>
       <c r="H72" t="n">
-        <v>40.53833333333331</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3154,7 +3344,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="C73" t="n">
         <v>41.4</v>
@@ -3163,27 +3353,30 @@
         <v>41.4</v>
       </c>
       <c r="E73" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="F73" t="n">
-        <v>21947.6338</v>
+        <v>1211</v>
       </c>
       <c r="G73" t="n">
-        <v>40.00666666666667</v>
+        <v>467680.5605227391</v>
       </c>
       <c r="H73" t="n">
-        <v>40.54499999999997</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3192,36 +3385,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="C74" t="n">
-        <v>40.6</v>
+        <v>41.5</v>
       </c>
       <c r="D74" t="n">
-        <v>40.7</v>
+        <v>41.5</v>
       </c>
       <c r="E74" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="F74" t="n">
-        <v>1319</v>
+        <v>8100</v>
       </c>
       <c r="G74" t="n">
-        <v>40.10000000000001</v>
+        <v>475780.5605227391</v>
       </c>
       <c r="H74" t="n">
-        <v>40.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,36 +3426,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="C75" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="D75" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="E75" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>3976</v>
       </c>
       <c r="G75" t="n">
-        <v>40.24</v>
+        <v>471804.5605227391</v>
       </c>
       <c r="H75" t="n">
-        <v>40.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,36 +3467,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="C76" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="D76" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="E76" t="n">
-        <v>40.7</v>
+        <v>41.2</v>
       </c>
       <c r="F76" t="n">
-        <v>4933.2083</v>
+        <v>12.1359</v>
       </c>
       <c r="G76" t="n">
-        <v>40.38666666666666</v>
+        <v>471792.4246227391</v>
       </c>
       <c r="H76" t="n">
-        <v>40.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3309,33 +3511,36 @@
         <v>41.1</v>
       </c>
       <c r="C77" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="D77" t="n">
         <v>41.1</v>
       </c>
       <c r="E77" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="F77" t="n">
-        <v>14775.9999</v>
+        <v>12.1654</v>
       </c>
       <c r="G77" t="n">
-        <v>40.52666666666666</v>
+        <v>471780.2592227391</v>
       </c>
       <c r="H77" t="n">
-        <v>40.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3344,36 +3549,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="C78" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="D78" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="E78" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="F78" t="n">
-        <v>9236.3264</v>
+        <v>24.3902</v>
       </c>
       <c r="G78" t="n">
-        <v>40.66666666666666</v>
+        <v>471755.8690227391</v>
       </c>
       <c r="H78" t="n">
-        <v>40.52333333333331</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3382,36 +3590,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="C79" t="n">
         <v>40.8</v>
       </c>
       <c r="D79" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="E79" t="n">
         <v>40.8</v>
       </c>
       <c r="F79" t="n">
-        <v>22713.7483</v>
+        <v>23059.0041</v>
       </c>
       <c r="G79" t="n">
-        <v>40.74666666666666</v>
+        <v>448696.8649227391</v>
       </c>
       <c r="H79" t="n">
-        <v>40.53499999999998</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3420,36 +3631,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="C80" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="D80" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="E80" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="F80" t="n">
-        <v>7495.3883</v>
+        <v>15993</v>
       </c>
       <c r="G80" t="n">
-        <v>40.81333333333332</v>
+        <v>448696.8649227391</v>
       </c>
       <c r="H80" t="n">
-        <v>40.55333333333331</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,36 +3672,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>41.2</v>
+        <v>40.5</v>
       </c>
       <c r="C81" t="n">
-        <v>41.4</v>
+        <v>40.5</v>
       </c>
       <c r="D81" t="n">
-        <v>41.4</v>
+        <v>40.5</v>
       </c>
       <c r="E81" t="n">
-        <v>41.2</v>
+        <v>40.5</v>
       </c>
       <c r="F81" t="n">
-        <v>39900</v>
+        <v>22218.3372</v>
       </c>
       <c r="G81" t="n">
-        <v>40.93999999999998</v>
+        <v>426478.5277227391</v>
       </c>
       <c r="H81" t="n">
-        <v>40.55666666666664</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3496,36 +3713,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>41.4</v>
+        <v>40.8</v>
       </c>
       <c r="C82" t="n">
-        <v>41.4</v>
+        <v>40.8</v>
       </c>
       <c r="D82" t="n">
-        <v>41.4</v>
+        <v>40.8</v>
       </c>
       <c r="E82" t="n">
-        <v>41.4</v>
+        <v>40.8</v>
       </c>
       <c r="F82" t="n">
-        <v>27308.2367</v>
+        <v>1016.1053</v>
       </c>
       <c r="G82" t="n">
-        <v>41.02666666666665</v>
+        <v>427494.6330227391</v>
       </c>
       <c r="H82" t="n">
-        <v>40.57499999999997</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3534,36 +3754,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="C83" t="n">
-        <v>41.5</v>
+        <v>40.3</v>
       </c>
       <c r="D83" t="n">
-        <v>41.5</v>
+        <v>40.4</v>
       </c>
       <c r="E83" t="n">
-        <v>41.3</v>
+        <v>40.2</v>
       </c>
       <c r="F83" t="n">
-        <v>94296.3855</v>
+        <v>36150</v>
       </c>
       <c r="G83" t="n">
-        <v>41.07999999999998</v>
+        <v>391344.6330227391</v>
       </c>
       <c r="H83" t="n">
-        <v>40.59833333333331</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3572,36 +3795,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>41.5</v>
+        <v>40.6</v>
       </c>
       <c r="C84" t="n">
-        <v>41.5</v>
+        <v>40.6</v>
       </c>
       <c r="D84" t="n">
-        <v>41.5</v>
+        <v>40.6</v>
       </c>
       <c r="E84" t="n">
-        <v>41.5</v>
+        <v>40.6</v>
       </c>
       <c r="F84" t="n">
-        <v>7607.4226</v>
+        <v>11</v>
       </c>
       <c r="G84" t="n">
-        <v>41.11999999999998</v>
+        <v>391355.6330227391</v>
       </c>
       <c r="H84" t="n">
-        <v>40.62166666666665</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,36 +3836,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>41.5</v>
+        <v>40.1</v>
       </c>
       <c r="C85" t="n">
-        <v>41.6</v>
+        <v>40.1</v>
       </c>
       <c r="D85" t="n">
-        <v>41.6</v>
+        <v>40.1</v>
       </c>
       <c r="E85" t="n">
-        <v>41.5</v>
+        <v>40.1</v>
       </c>
       <c r="F85" t="n">
-        <v>23729.5949</v>
+        <v>3000</v>
       </c>
       <c r="G85" t="n">
-        <v>41.14666666666665</v>
+        <v>388355.6330227391</v>
       </c>
       <c r="H85" t="n">
-        <v>40.65499999999998</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,36 +3877,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>41.7</v>
+        <v>40.4</v>
       </c>
       <c r="C86" t="n">
-        <v>41.7</v>
+        <v>40.4</v>
       </c>
       <c r="D86" t="n">
-        <v>41.7</v>
+        <v>40.4</v>
       </c>
       <c r="E86" t="n">
-        <v>41.7</v>
+        <v>40.4</v>
       </c>
       <c r="F86" t="n">
-        <v>2156.1019</v>
+        <v>123.5241</v>
       </c>
       <c r="G86" t="n">
-        <v>41.21333333333332</v>
+        <v>388479.1571227391</v>
       </c>
       <c r="H86" t="n">
-        <v>40.68999999999998</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,36 +3918,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>41.7</v>
+        <v>40.1</v>
       </c>
       <c r="C87" t="n">
-        <v>41.7</v>
+        <v>40.4</v>
       </c>
       <c r="D87" t="n">
-        <v>41.7</v>
+        <v>40.4</v>
       </c>
       <c r="E87" t="n">
-        <v>41.7</v>
+        <v>40</v>
       </c>
       <c r="F87" t="n">
-        <v>2887</v>
+        <v>18854.6806</v>
       </c>
       <c r="G87" t="n">
-        <v>41.28666666666665</v>
+        <v>388479.1571227391</v>
       </c>
       <c r="H87" t="n">
-        <v>40.71999999999998</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3724,36 +3959,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>41.7</v>
+        <v>39.2</v>
       </c>
       <c r="C88" t="n">
-        <v>42.2</v>
+        <v>39.2</v>
       </c>
       <c r="D88" t="n">
-        <v>42.2</v>
+        <v>39.2</v>
       </c>
       <c r="E88" t="n">
-        <v>41.7</v>
+        <v>39.2</v>
       </c>
       <c r="F88" t="n">
-        <v>8850</v>
+        <v>4975.0623</v>
       </c>
       <c r="G88" t="n">
-        <v>41.33999999999999</v>
+        <v>383504.0948227391</v>
       </c>
       <c r="H88" t="n">
-        <v>40.75666666666664</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,36 +4000,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>42.2</v>
+        <v>39.2</v>
       </c>
       <c r="C89" t="n">
-        <v>41.8</v>
+        <v>39.2</v>
       </c>
       <c r="D89" t="n">
-        <v>42.2</v>
+        <v>39.2</v>
       </c>
       <c r="E89" t="n">
-        <v>41.8</v>
+        <v>39.2</v>
       </c>
       <c r="F89" t="n">
-        <v>20216.6604</v>
+        <v>7795.18</v>
       </c>
       <c r="G89" t="n">
-        <v>41.41999999999998</v>
+        <v>383504.0948227391</v>
       </c>
       <c r="H89" t="n">
-        <v>40.78333333333331</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3800,36 +4041,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>41.9</v>
+        <v>39.2</v>
       </c>
       <c r="C90" t="n">
-        <v>41.9</v>
+        <v>39.2</v>
       </c>
       <c r="D90" t="n">
-        <v>41.9</v>
+        <v>39.2</v>
       </c>
       <c r="E90" t="n">
-        <v>41.9</v>
+        <v>39.2</v>
       </c>
       <c r="F90" t="n">
-        <v>1009.6513</v>
+        <v>3512.994</v>
       </c>
       <c r="G90" t="n">
-        <v>41.45999999999999</v>
+        <v>383504.0948227391</v>
       </c>
       <c r="H90" t="n">
-        <v>40.81166666666665</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3838,36 +4082,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>41.7</v>
+        <v>39</v>
       </c>
       <c r="C91" t="n">
-        <v>42.2</v>
+        <v>38.9</v>
       </c>
       <c r="D91" t="n">
-        <v>42.2</v>
+        <v>39</v>
       </c>
       <c r="E91" t="n">
-        <v>41.7</v>
+        <v>38.9</v>
       </c>
       <c r="F91" t="n">
-        <v>1352.8277</v>
+        <v>2400</v>
       </c>
       <c r="G91" t="n">
-        <v>41.51333333333332</v>
+        <v>381104.0948227391</v>
       </c>
       <c r="H91" t="n">
-        <v>40.84499999999998</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3876,36 +4123,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>41.8</v>
+        <v>38.7</v>
       </c>
       <c r="C92" t="n">
-        <v>41.6</v>
+        <v>38.7</v>
       </c>
       <c r="D92" t="n">
-        <v>41.8</v>
+        <v>38.7</v>
       </c>
       <c r="E92" t="n">
-        <v>41.6</v>
+        <v>38.7</v>
       </c>
       <c r="F92" t="n">
-        <v>14960.7178</v>
+        <v>661.826</v>
       </c>
       <c r="G92" t="n">
-        <v>41.55333333333332</v>
+        <v>380442.2688227391</v>
       </c>
       <c r="H92" t="n">
-        <v>40.86166666666665</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,36 +4164,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>41.8</v>
+        <v>39.6</v>
       </c>
       <c r="C93" t="n">
-        <v>41.8</v>
+        <v>39.6</v>
       </c>
       <c r="D93" t="n">
-        <v>41.8</v>
+        <v>39.6</v>
       </c>
       <c r="E93" t="n">
-        <v>41.8</v>
+        <v>39.6</v>
       </c>
       <c r="F93" t="n">
-        <v>24036.1445</v>
+        <v>11</v>
       </c>
       <c r="G93" t="n">
-        <v>41.61999999999999</v>
+        <v>380453.2688227391</v>
       </c>
       <c r="H93" t="n">
-        <v>40.87166666666666</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3952,36 +4205,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>41.8</v>
+        <v>40.2</v>
       </c>
       <c r="C94" t="n">
-        <v>41.8</v>
+        <v>40.2</v>
       </c>
       <c r="D94" t="n">
-        <v>41.8</v>
+        <v>40.2</v>
       </c>
       <c r="E94" t="n">
-        <v>41.8</v>
+        <v>40.2</v>
       </c>
       <c r="F94" t="n">
-        <v>1373</v>
+        <v>25</v>
       </c>
       <c r="G94" t="n">
-        <v>41.68666666666665</v>
+        <v>380478.2688227391</v>
       </c>
       <c r="H94" t="n">
-        <v>40.88166666666666</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3990,36 +4246,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>41.8</v>
+        <v>39.5</v>
       </c>
       <c r="C95" t="n">
-        <v>42.5</v>
+        <v>39.5</v>
       </c>
       <c r="D95" t="n">
-        <v>42.5</v>
+        <v>39.5</v>
       </c>
       <c r="E95" t="n">
-        <v>41.8</v>
+        <v>39.5</v>
       </c>
       <c r="F95" t="n">
-        <v>2393.7909</v>
+        <v>5790.6316</v>
       </c>
       <c r="G95" t="n">
-        <v>41.77333333333332</v>
+        <v>374687.6372227391</v>
       </c>
       <c r="H95" t="n">
-        <v>40.90666666666666</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,36 +4287,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>42.3</v>
+        <v>40.2</v>
       </c>
       <c r="C96" t="n">
-        <v>42.5</v>
+        <v>40.1</v>
       </c>
       <c r="D96" t="n">
-        <v>42.5</v>
+        <v>40.3</v>
       </c>
       <c r="E96" t="n">
-        <v>42.3</v>
+        <v>40.1</v>
       </c>
       <c r="F96" t="n">
-        <v>675.9623</v>
+        <v>21253.277</v>
       </c>
       <c r="G96" t="n">
-        <v>41.84666666666666</v>
+        <v>395940.9142227391</v>
       </c>
       <c r="H96" t="n">
-        <v>40.93166666666666</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,36 +4328,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>42.7</v>
+        <v>40.4</v>
       </c>
       <c r="C97" t="n">
-        <v>43.2</v>
+        <v>40.7</v>
       </c>
       <c r="D97" t="n">
-        <v>43.4</v>
+        <v>40.7</v>
       </c>
       <c r="E97" t="n">
-        <v>42.7</v>
+        <v>40.4</v>
       </c>
       <c r="F97" t="n">
-        <v>51128.4838</v>
+        <v>20700</v>
       </c>
       <c r="G97" t="n">
-        <v>41.96666666666666</v>
+        <v>416640.9142227391</v>
       </c>
       <c r="H97" t="n">
-        <v>40.97499999999999</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,36 +4369,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>43.4</v>
+        <v>40.8</v>
       </c>
       <c r="C98" t="n">
-        <v>42.7</v>
+        <v>40.9</v>
       </c>
       <c r="D98" t="n">
-        <v>43.4</v>
+        <v>40.9</v>
       </c>
       <c r="E98" t="n">
-        <v>42.7</v>
+        <v>40.8</v>
       </c>
       <c r="F98" t="n">
-        <v>2449.95</v>
+        <v>5700</v>
       </c>
       <c r="G98" t="n">
-        <v>42.04666666666666</v>
+        <v>422340.9142227391</v>
       </c>
       <c r="H98" t="n">
-        <v>41.00999999999999</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,36 +4410,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>42.7</v>
+        <v>41</v>
       </c>
       <c r="C99" t="n">
-        <v>43.4</v>
+        <v>41.2</v>
       </c>
       <c r="D99" t="n">
-        <v>43.4</v>
+        <v>41.2</v>
       </c>
       <c r="E99" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="F99" t="n">
-        <v>11927.8996</v>
+        <v>2250</v>
       </c>
       <c r="G99" t="n">
-        <v>42.17333333333332</v>
+        <v>424590.9142227391</v>
       </c>
       <c r="H99" t="n">
-        <v>41.05999999999999</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4180,36 +4451,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>43.4</v>
+        <v>40.7</v>
       </c>
       <c r="C100" t="n">
-        <v>42.3</v>
+        <v>40.7</v>
       </c>
       <c r="D100" t="n">
-        <v>43.4</v>
+        <v>40.7</v>
       </c>
       <c r="E100" t="n">
-        <v>42.3</v>
+        <v>40.7</v>
       </c>
       <c r="F100" t="n">
-        <v>1165.4403</v>
+        <v>1363.8397</v>
       </c>
       <c r="G100" t="n">
-        <v>42.21999999999999</v>
+        <v>423227.074522739</v>
       </c>
       <c r="H100" t="n">
-        <v>41.075</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4218,36 +4492,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>43</v>
+        <v>40.6</v>
       </c>
       <c r="C101" t="n">
-        <v>43.3</v>
+        <v>40.6</v>
       </c>
       <c r="D101" t="n">
-        <v>43.3</v>
+        <v>40.6</v>
       </c>
       <c r="E101" t="n">
-        <v>43</v>
+        <v>40.6</v>
       </c>
       <c r="F101" t="n">
-        <v>15766.69091316397</v>
+        <v>1209.6956</v>
       </c>
       <c r="G101" t="n">
-        <v>42.32666666666665</v>
+        <v>422017.3789227391</v>
       </c>
       <c r="H101" t="n">
-        <v>41.105</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4256,36 +4533,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>42.3</v>
+        <v>40.6</v>
       </c>
       <c r="C102" t="n">
-        <v>42.1</v>
+        <v>41.4</v>
       </c>
       <c r="D102" t="n">
-        <v>42.3</v>
+        <v>41.4</v>
       </c>
       <c r="E102" t="n">
-        <v>42.1</v>
+        <v>40.6</v>
       </c>
       <c r="F102" t="n">
-        <v>6315.77</v>
+        <v>21947.6338</v>
       </c>
       <c r="G102" t="n">
-        <v>42.35333333333332</v>
+        <v>443965.0127227391</v>
       </c>
       <c r="H102" t="n">
-        <v>41.11666666666666</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4294,36 +4574,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>42.2</v>
+        <v>40.7</v>
       </c>
       <c r="C103" t="n">
-        <v>42.2</v>
+        <v>40.6</v>
       </c>
       <c r="D103" t="n">
-        <v>42.2</v>
+        <v>40.7</v>
       </c>
       <c r="E103" t="n">
-        <v>42.2</v>
+        <v>40.6</v>
       </c>
       <c r="F103" t="n">
-        <v>736.8483</v>
+        <v>1319</v>
       </c>
       <c r="G103" t="n">
-        <v>42.35333333333332</v>
+        <v>442646.0127227391</v>
       </c>
       <c r="H103" t="n">
-        <v>41.12999999999999</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,36 +4615,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>42.2</v>
+        <v>41.3</v>
       </c>
       <c r="C104" t="n">
-        <v>42.3</v>
+        <v>41.3</v>
       </c>
       <c r="D104" t="n">
-        <v>42.3</v>
+        <v>41.3</v>
       </c>
       <c r="E104" t="n">
-        <v>42.2</v>
+        <v>41.3</v>
       </c>
       <c r="F104" t="n">
-        <v>395.255</v>
+        <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>42.38666666666665</v>
+        <v>442746.0127227391</v>
       </c>
       <c r="H104" t="n">
-        <v>41.14499999999999</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4370,36 +4656,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>42.2</v>
+        <v>41.3</v>
       </c>
       <c r="C105" t="n">
-        <v>42</v>
+        <v>41.4</v>
       </c>
       <c r="D105" t="n">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="E105" t="n">
-        <v>42</v>
+        <v>40.7</v>
       </c>
       <c r="F105" t="n">
-        <v>7982.5221</v>
+        <v>4933.2083</v>
       </c>
       <c r="G105" t="n">
-        <v>42.39333333333332</v>
+        <v>447679.2210227391</v>
       </c>
       <c r="H105" t="n">
-        <v>41.15333333333332</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,36 +4697,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>41.8</v>
+        <v>41.1</v>
       </c>
       <c r="C106" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="D106" t="n">
-        <v>41.8</v>
+        <v>41.1</v>
       </c>
       <c r="E106" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="F106" t="n">
-        <v>6131.3393</v>
+        <v>14775.9999</v>
       </c>
       <c r="G106" t="n">
-        <v>42.34666666666665</v>
+        <v>432903.2211227391</v>
       </c>
       <c r="H106" t="n">
-        <v>41.15499999999999</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4446,36 +4738,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="C107" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="D107" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="E107" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="F107" t="n">
-        <v>64040.702</v>
+        <v>9236.3264</v>
       </c>
       <c r="G107" t="n">
-        <v>42.31999999999998</v>
+        <v>423666.8947227391</v>
       </c>
       <c r="H107" t="n">
-        <v>41.15499999999999</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4484,36 +4779,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>41.7</v>
+        <v>40.8</v>
       </c>
       <c r="C108" t="n">
-        <v>42</v>
+        <v>40.8</v>
       </c>
       <c r="D108" t="n">
-        <v>42</v>
+        <v>40.8</v>
       </c>
       <c r="E108" t="n">
-        <v>41.7</v>
+        <v>40.8</v>
       </c>
       <c r="F108" t="n">
-        <v>3930.3507</v>
+        <v>22713.7483</v>
       </c>
       <c r="G108" t="n">
-        <v>42.33333333333332</v>
+        <v>423666.8947227391</v>
       </c>
       <c r="H108" t="n">
-        <v>41.16999999999999</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,36 +4820,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>42</v>
+        <v>41.1</v>
       </c>
       <c r="C109" t="n">
-        <v>42.3</v>
+        <v>41.2</v>
       </c>
       <c r="D109" t="n">
-        <v>42.3</v>
+        <v>41.2</v>
       </c>
       <c r="E109" t="n">
-        <v>42</v>
+        <v>41.1</v>
       </c>
       <c r="F109" t="n">
-        <v>70650</v>
+        <v>7495.3883</v>
       </c>
       <c r="G109" t="n">
-        <v>42.36666666666665</v>
+        <v>431162.2830227391</v>
       </c>
       <c r="H109" t="n">
-        <v>41.19166666666666</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,36 +4861,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>42.7</v>
+        <v>41.2</v>
       </c>
       <c r="C110" t="n">
-        <v>42.6</v>
+        <v>41.4</v>
       </c>
       <c r="D110" t="n">
-        <v>42.7</v>
+        <v>41.4</v>
       </c>
       <c r="E110" t="n">
-        <v>42.6</v>
+        <v>41.2</v>
       </c>
       <c r="F110" t="n">
-        <v>12450</v>
+        <v>39900</v>
       </c>
       <c r="G110" t="n">
-        <v>42.37333333333332</v>
+        <v>471062.2830227391</v>
       </c>
       <c r="H110" t="n">
-        <v>41.22166666666666</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,36 +4902,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="C111" t="n">
-        <v>42.1</v>
+        <v>41.4</v>
       </c>
       <c r="D111" t="n">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="E111" t="n">
-        <v>42.1</v>
+        <v>41.4</v>
       </c>
       <c r="F111" t="n">
-        <v>4213.2652</v>
+        <v>27308.2367</v>
       </c>
       <c r="G111" t="n">
-        <v>42.34666666666666</v>
+        <v>471062.2830227391</v>
       </c>
       <c r="H111" t="n">
-        <v>41.24333333333332</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4636,36 +4943,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>42.9</v>
+        <v>41.3</v>
       </c>
       <c r="C112" t="n">
-        <v>43.2</v>
+        <v>41.5</v>
       </c>
       <c r="D112" t="n">
-        <v>43.2</v>
+        <v>41.5</v>
       </c>
       <c r="E112" t="n">
-        <v>42.9</v>
+        <v>41.3</v>
       </c>
       <c r="F112" t="n">
-        <v>48034.389</v>
+        <v>94296.3855</v>
       </c>
       <c r="G112" t="n">
-        <v>42.34666666666666</v>
+        <v>565358.6685227391</v>
       </c>
       <c r="H112" t="n">
-        <v>41.28833333333331</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,36 +4984,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>42.9</v>
+        <v>41.5</v>
       </c>
       <c r="C113" t="n">
-        <v>42.9</v>
+        <v>41.5</v>
       </c>
       <c r="D113" t="n">
-        <v>42.9</v>
+        <v>41.5</v>
       </c>
       <c r="E113" t="n">
-        <v>42.9</v>
+        <v>41.5</v>
       </c>
       <c r="F113" t="n">
-        <v>2297.2378</v>
+        <v>7607.4226</v>
       </c>
       <c r="G113" t="n">
-        <v>42.35999999999999</v>
+        <v>565358.6685227391</v>
       </c>
       <c r="H113" t="n">
-        <v>41.32333333333331</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>1</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4712,36 +5025,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>42.8</v>
+        <v>41.5</v>
       </c>
       <c r="C114" t="n">
-        <v>42.8</v>
+        <v>41.6</v>
       </c>
       <c r="D114" t="n">
-        <v>42.8</v>
+        <v>41.6</v>
       </c>
       <c r="E114" t="n">
-        <v>42.8</v>
+        <v>41.5</v>
       </c>
       <c r="F114" t="n">
-        <v>6720.5373</v>
+        <v>23729.5949</v>
       </c>
       <c r="G114" t="n">
-        <v>42.31999999999998</v>
+        <v>589088.2634227391</v>
       </c>
       <c r="H114" t="n">
-        <v>41.36499999999998</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>1</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4750,36 +5066,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>42.6</v>
+        <v>41.7</v>
       </c>
       <c r="C115" t="n">
-        <v>42.7</v>
+        <v>41.7</v>
       </c>
       <c r="D115" t="n">
-        <v>42.7</v>
+        <v>41.7</v>
       </c>
       <c r="E115" t="n">
-        <v>42.6</v>
+        <v>41.7</v>
       </c>
       <c r="F115" t="n">
-        <v>15000</v>
+        <v>2156.1019</v>
       </c>
       <c r="G115" t="n">
-        <v>42.34666666666666</v>
+        <v>591244.3653227391</v>
       </c>
       <c r="H115" t="n">
-        <v>41.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>1</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,36 +5107,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>42.5</v>
+        <v>41.7</v>
       </c>
       <c r="C116" t="n">
-        <v>42.5</v>
+        <v>41.7</v>
       </c>
       <c r="D116" t="n">
-        <v>42.5</v>
+        <v>41.7</v>
       </c>
       <c r="E116" t="n">
-        <v>42.5</v>
+        <v>41.7</v>
       </c>
       <c r="F116" t="n">
-        <v>500</v>
+        <v>2887</v>
       </c>
       <c r="G116" t="n">
-        <v>42.29333333333332</v>
+        <v>591244.3653227391</v>
       </c>
       <c r="H116" t="n">
-        <v>41.43999999999998</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>1</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,7 +5148,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>42.2</v>
+        <v>41.7</v>
       </c>
       <c r="C117" t="n">
         <v>42.2</v>
@@ -4835,27 +5157,30 @@
         <v>42.2</v>
       </c>
       <c r="E117" t="n">
-        <v>42.2</v>
+        <v>41.7</v>
       </c>
       <c r="F117" t="n">
-        <v>13005.3554</v>
+        <v>8850</v>
       </c>
       <c r="G117" t="n">
-        <v>42.29999999999999</v>
+        <v>600094.3653227391</v>
       </c>
       <c r="H117" t="n">
-        <v>41.46999999999998</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>1</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,36 +5189,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="C118" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="D118" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="E118" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="F118" t="n">
-        <v>7303.5804</v>
+        <v>20216.6604</v>
       </c>
       <c r="G118" t="n">
-        <v>42.28666666666665</v>
+        <v>579877.7049227391</v>
       </c>
       <c r="H118" t="n">
-        <v>41.49666666666664</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4902,36 +5230,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="C119" t="n">
         <v>41.9</v>
       </c>
       <c r="D119" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="E119" t="n">
         <v>41.9</v>
       </c>
       <c r="F119" t="n">
-        <v>6703.736</v>
+        <v>1009.6513</v>
       </c>
       <c r="G119" t="n">
-        <v>42.25999999999999</v>
+        <v>580887.3562227391</v>
       </c>
       <c r="H119" t="n">
-        <v>41.54166666666664</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4940,36 +5271,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="C120" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="D120" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="E120" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="F120" t="n">
-        <v>972.9234584905661</v>
+        <v>1352.8277</v>
       </c>
       <c r="G120" t="n">
-        <v>42.28666666666665</v>
+        <v>582240.1839227391</v>
       </c>
       <c r="H120" t="n">
-        <v>41.59499999999998</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4978,36 +5312,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>42.3</v>
+        <v>41.8</v>
       </c>
       <c r="C121" t="n">
-        <v>42.4</v>
+        <v>41.6</v>
       </c>
       <c r="D121" t="n">
-        <v>42.4</v>
+        <v>41.8</v>
       </c>
       <c r="E121" t="n">
-        <v>42.3</v>
+        <v>41.6</v>
       </c>
       <c r="F121" t="n">
-        <v>3945.8068</v>
+        <v>14960.7178</v>
       </c>
       <c r="G121" t="n">
-        <v>42.34666666666666</v>
+        <v>567279.4661227391</v>
       </c>
       <c r="H121" t="n">
-        <v>41.64833333333332</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>1</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,36 +5353,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="C122" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="D122" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="E122" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="F122" t="n">
-        <v>21717.6233</v>
+        <v>24036.1445</v>
       </c>
       <c r="G122" t="n">
-        <v>42.39999999999998</v>
+        <v>591315.6106227392</v>
       </c>
       <c r="H122" t="n">
-        <v>41.69999999999998</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5054,36 +5394,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="C123" t="n">
-        <v>41.5</v>
+        <v>41.8</v>
       </c>
       <c r="D123" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="E123" t="n">
-        <v>41.5</v>
+        <v>41.8</v>
       </c>
       <c r="F123" t="n">
-        <v>21180.1798</v>
+        <v>1373</v>
       </c>
       <c r="G123" t="n">
-        <v>42.36666666666665</v>
+        <v>591315.6106227392</v>
       </c>
       <c r="H123" t="n">
-        <v>41.74666666666666</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5092,36 +5435,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>41.3</v>
+        <v>41.8</v>
       </c>
       <c r="C124" t="n">
-        <v>41.3</v>
+        <v>42.5</v>
       </c>
       <c r="D124" t="n">
-        <v>41.3</v>
+        <v>42.5</v>
       </c>
       <c r="E124" t="n">
-        <v>41.3</v>
+        <v>41.8</v>
       </c>
       <c r="F124" t="n">
-        <v>474.525</v>
+        <v>2393.7909</v>
       </c>
       <c r="G124" t="n">
-        <v>42.29999999999998</v>
+        <v>593709.4015227392</v>
       </c>
       <c r="H124" t="n">
-        <v>41.77499999999999</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>1</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5130,36 +5476,1090 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="C125" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="F125" t="n">
+        <v>675.9623</v>
+      </c>
+      <c r="G125" t="n">
+        <v>593709.4015227392</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>51128.4838</v>
+      </c>
+      <c r="G126" t="n">
+        <v>644837.8853227393</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="D127" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E127" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2449.95</v>
+      </c>
+      <c r="G127" t="n">
+        <v>642387.9353227393</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>11927.8996</v>
+      </c>
+      <c r="G128" t="n">
+        <v>654315.8349227393</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1165.4403</v>
+      </c>
+      <c r="G129" t="n">
+        <v>653150.3946227393</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>43</v>
+      </c>
+      <c r="C130" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="E130" t="n">
+        <v>43</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15766.69091316397</v>
+      </c>
+      <c r="G130" t="n">
+        <v>668917.0855359032</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>6315.77</v>
+      </c>
+      <c r="G131" t="n">
+        <v>662601.3155359032</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1.063527918781726</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C132" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>736.8483</v>
+      </c>
+      <c r="G132" t="n">
+        <v>663338.1638359032</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>395.255</v>
+      </c>
+      <c r="G133" t="n">
+        <v>663733.4188359032</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>42</v>
+      </c>
+      <c r="D134" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>42</v>
+      </c>
+      <c r="F134" t="n">
+        <v>7982.5221</v>
+      </c>
+      <c r="G134" t="n">
+        <v>655750.8967359032</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6131.3393</v>
+      </c>
+      <c r="G135" t="n">
+        <v>649619.5574359032</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F136" t="n">
+        <v>64040.702</v>
+      </c>
+      <c r="G136" t="n">
+        <v>585578.8554359032</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>42</v>
+      </c>
+      <c r="D137" t="n">
+        <v>42</v>
+      </c>
+      <c r="E137" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3930.3507</v>
+      </c>
+      <c r="G137" t="n">
+        <v>589509.2061359031</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>42</v>
+      </c>
+      <c r="C138" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>42</v>
+      </c>
+      <c r="F138" t="n">
+        <v>70650</v>
+      </c>
+      <c r="G138" t="n">
+        <v>660159.2061359031</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C139" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="D139" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F139" t="n">
+        <v>12450</v>
+      </c>
+      <c r="G139" t="n">
+        <v>672609.2061359031</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C140" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4213.2652</v>
+      </c>
+      <c r="G140" t="n">
+        <v>668395.9409359031</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>48034.389</v>
+      </c>
+      <c r="G141" t="n">
+        <v>716430.3299359031</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2297.2378</v>
+      </c>
+      <c r="G142" t="n">
+        <v>714133.0921359031</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>6720.5373</v>
+      </c>
+      <c r="G143" t="n">
+        <v>707412.5548359031</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="C144" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F144" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>692412.5548359031</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>500</v>
+      </c>
+      <c r="G145" t="n">
+        <v>691912.5548359031</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>13005.3554</v>
+      </c>
+      <c r="G146" t="n">
+        <v>678907.1994359031</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>42</v>
+      </c>
+      <c r="C147" t="n">
+        <v>42</v>
+      </c>
+      <c r="D147" t="n">
+        <v>42</v>
+      </c>
+      <c r="E147" t="n">
+        <v>42</v>
+      </c>
+      <c r="F147" t="n">
+        <v>7303.5804</v>
+      </c>
+      <c r="G147" t="n">
+        <v>671603.6190359031</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>42</v>
+      </c>
+      <c r="C148" t="n">
         <v>41.9</v>
       </c>
-      <c r="C125" t="n">
+      <c r="D148" t="n">
         <v>42</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E148" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F148" t="n">
+        <v>6703.736</v>
+      </c>
+      <c r="G148" t="n">
+        <v>664899.8830359031</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C149" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="D149" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="E149" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F149" t="n">
+        <v>972.9234584905661</v>
+      </c>
+      <c r="G149" t="n">
+        <v>665872.8064943936</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="E150" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3945.8068</v>
+      </c>
+      <c r="G150" t="n">
+        <v>665872.8064943936</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
         <v>42</v>
       </c>
-      <c r="E125" t="n">
+      <c r="C151" t="n">
+        <v>42</v>
+      </c>
+      <c r="D151" t="n">
+        <v>42</v>
+      </c>
+      <c r="E151" t="n">
+        <v>42</v>
+      </c>
+      <c r="F151" t="n">
+        <v>21717.6233</v>
+      </c>
+      <c r="G151" t="n">
+        <v>644155.1831943936</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>42</v>
+      </c>
+      <c r="C152" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>42</v>
+      </c>
+      <c r="E152" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>21180.1798</v>
+      </c>
+      <c r="G152" t="n">
+        <v>622975.0033943936</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C153" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E153" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>474.525</v>
+      </c>
+      <c r="G153" t="n">
+        <v>622500.4783943936</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
         <v>41.9</v>
       </c>
-      <c r="F125" t="n">
+      <c r="C154" t="n">
+        <v>42</v>
+      </c>
+      <c r="D154" t="n">
+        <v>42</v>
+      </c>
+      <c r="E154" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F154" t="n">
         <v>12894.3499</v>
       </c>
-      <c r="G125" t="n">
-        <v>42.25999999999998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>41.80499999999999</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="G154" t="n">
+        <v>635394.8282943936</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest LRC.xlsx
+++ b/BackTest/2019-10-29 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>39.4</v>
+        <v>41.3</v>
       </c>
       <c r="C2" t="n">
-        <v>39.4</v>
+        <v>41.3</v>
       </c>
       <c r="D2" t="n">
-        <v>39.4</v>
+        <v>41.3</v>
       </c>
       <c r="E2" t="n">
-        <v>39.4</v>
+        <v>41.3</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>6072.8973</v>
       </c>
       <c r="G2" t="n">
-        <v>49683.37755121944</v>
+        <v>40.74999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,110 +467,101 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>39.4</v>
+        <v>41.3</v>
       </c>
       <c r="C3" t="n">
-        <v>39.4</v>
+        <v>41.4</v>
       </c>
       <c r="D3" t="n">
-        <v>39.4</v>
+        <v>41.4</v>
       </c>
       <c r="E3" t="n">
-        <v>39.4</v>
+        <v>41.3</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>17794.0579</v>
       </c>
       <c r="G3" t="n">
-        <v>49683.37755121944</v>
+        <v>40.78499999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.4</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
-        <v>39.4</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>39.4</v>
+        <v>41</v>
       </c>
       <c r="E4" t="n">
-        <v>39.4</v>
+        <v>41</v>
       </c>
       <c r="F4" t="n">
-        <v>8238.9252</v>
+        <v>6212.315</v>
       </c>
       <c r="G4" t="n">
-        <v>49683.37755121944</v>
+        <v>40.78999999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39.2</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
-        <v>38.7</v>
+        <v>41.4</v>
       </c>
       <c r="D5" t="n">
-        <v>39.2</v>
+        <v>41.4</v>
       </c>
       <c r="E5" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="F5" t="n">
-        <v>4398.6128</v>
+        <v>22032</v>
       </c>
       <c r="G5" t="n">
-        <v>45284.76475121944</v>
+        <v>40.80499999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -574,82 +570,70 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38.7</v>
+        <v>40.8</v>
       </c>
       <c r="C6" t="n">
-        <v>38.7</v>
+        <v>40.1</v>
       </c>
       <c r="D6" t="n">
-        <v>38.7</v>
+        <v>40.8</v>
       </c>
       <c r="E6" t="n">
-        <v>38.7</v>
+        <v>40.1</v>
       </c>
       <c r="F6" t="n">
-        <v>82</v>
+        <v>33667.5145</v>
       </c>
       <c r="G6" t="n">
-        <v>45284.76475121944</v>
+        <v>40.81499999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>38.7</v>
+        <v>40.1</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7</v>
+        <v>41</v>
       </c>
       <c r="E7" t="n">
-        <v>38.7</v>
+        <v>40.1</v>
       </c>
       <c r="F7" t="n">
-        <v>165</v>
+        <v>35660.361</v>
       </c>
       <c r="G7" t="n">
-        <v>45284.76475121944</v>
+        <v>40.83499999999998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -658,125 +642,106 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38.8</v>
+        <v>41.2</v>
       </c>
       <c r="C8" t="n">
-        <v>38.8</v>
+        <v>41.2</v>
       </c>
       <c r="D8" t="n">
-        <v>38.8</v>
+        <v>41.2</v>
       </c>
       <c r="E8" t="n">
-        <v>38.8</v>
+        <v>41.2</v>
       </c>
       <c r="F8" t="n">
-        <v>12.5376</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>45297.30235121944</v>
+        <v>40.85499999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>40.3</v>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>40.3</v>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>40.3</v>
       </c>
       <c r="E9" t="n">
-        <v>39</v>
+        <v>40.3</v>
       </c>
       <c r="F9" t="n">
-        <v>3846.153846153846</v>
+        <v>1231.343</v>
       </c>
       <c r="G9" t="n">
-        <v>49143.45619737329</v>
+        <v>40.83499999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>39.3</v>
+        <v>40.2</v>
       </c>
       <c r="C10" t="n">
-        <v>39.3</v>
+        <v>40.1</v>
       </c>
       <c r="D10" t="n">
-        <v>39.3</v>
+        <v>40.2</v>
       </c>
       <c r="E10" t="n">
-        <v>39.3</v>
+        <v>40.1</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>49153.45619737329</v>
+        <v>40.80499999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -785,39 +750,34 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39.3</v>
+        <v>40.1</v>
       </c>
       <c r="C11" t="n">
-        <v>39.3</v>
+        <v>40.1</v>
       </c>
       <c r="D11" t="n">
-        <v>39.3</v>
+        <v>40.1</v>
       </c>
       <c r="E11" t="n">
-        <v>39.3</v>
+        <v>40.1</v>
       </c>
       <c r="F11" t="n">
-        <v>584.9605</v>
+        <v>516.8754</v>
       </c>
       <c r="G11" t="n">
-        <v>49153.45619737329</v>
+        <v>40.78499999999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -826,39 +786,34 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>39.4</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="D12" t="n">
-        <v>39.4</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="F12" t="n">
-        <v>1653.3453</v>
+        <v>11855.4401</v>
       </c>
       <c r="G12" t="n">
-        <v>50806.80149737329</v>
+        <v>40.76499999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -867,39 +822,34 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>39.4</v>
+        <v>40.1</v>
       </c>
       <c r="C13" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="D13" t="n">
-        <v>39.4</v>
+        <v>40.1</v>
       </c>
       <c r="E13" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="F13" t="n">
-        <v>790</v>
+        <v>53359.4808</v>
       </c>
       <c r="G13" t="n">
-        <v>50806.80149737329</v>
+        <v>40.74999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -908,39 +858,34 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="C14" t="n">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="D14" t="n">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="E14" t="n">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="F14" t="n">
-        <v>17450.9999</v>
+        <v>1231.343</v>
       </c>
       <c r="G14" t="n">
-        <v>68257.80139737329</v>
+        <v>40.72499999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -949,39 +894,34 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="C15" t="n">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="D15" t="n">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="E15" t="n">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="F15" t="n">
-        <v>849.1204</v>
+        <v>6900</v>
       </c>
       <c r="G15" t="n">
-        <v>68257.80139737329</v>
+        <v>40.70499999999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -990,39 +930,34 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="C16" t="n">
-        <v>39.6</v>
+        <v>40.2</v>
       </c>
       <c r="D16" t="n">
-        <v>39.6</v>
+        <v>40.2</v>
       </c>
       <c r="E16" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="F16" t="n">
-        <v>12668.8733</v>
+        <v>36300</v>
       </c>
       <c r="G16" t="n">
-        <v>80926.6746973733</v>
+        <v>40.66499999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1031,39 +966,34 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>39.7</v>
+        <v>40.1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="D17" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="E17" t="n">
-        <v>39.7</v>
+        <v>40.1</v>
       </c>
       <c r="F17" t="n">
-        <v>81804</v>
+        <v>3650</v>
       </c>
       <c r="G17" t="n">
-        <v>162730.6746973733</v>
+        <v>40.62499999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1072,39 +1002,34 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="C18" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="D18" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="E18" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="F18" t="n">
-        <v>27951</v>
+        <v>9600</v>
       </c>
       <c r="G18" t="n">
-        <v>162730.6746973733</v>
+        <v>40.58499999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1113,39 +1038,34 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="C19" t="n">
-        <v>39.7</v>
+        <v>40.6</v>
       </c>
       <c r="D19" t="n">
-        <v>39.7</v>
+        <v>40.9</v>
       </c>
       <c r="E19" t="n">
-        <v>39.7</v>
+        <v>40.2</v>
       </c>
       <c r="F19" t="n">
-        <v>952.1566</v>
+        <v>21806.2962</v>
       </c>
       <c r="G19" t="n">
-        <v>162730.6746973733</v>
+        <v>40.545</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1154,39 +1074,34 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>39.8</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>39.8</v>
+        <v>41.2</v>
       </c>
       <c r="D20" t="n">
-        <v>39.8</v>
+        <v>41.2</v>
       </c>
       <c r="E20" t="n">
-        <v>39.8</v>
+        <v>41</v>
       </c>
       <c r="F20" t="n">
-        <v>6310.9389</v>
+        <v>18300</v>
       </c>
       <c r="G20" t="n">
-        <v>169041.6135973733</v>
+        <v>40.545</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1195,39 +1110,34 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="D21" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="E21" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>23116.7961</v>
       </c>
       <c r="G21" t="n">
-        <v>169051.6135973733</v>
+        <v>40.55</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1236,39 +1146,34 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="C22" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="D22" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="E22" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="F22" t="n">
-        <v>29241</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>198292.6135973733</v>
+        <v>40.535</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1277,39 +1182,34 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40.3</v>
+        <v>41</v>
       </c>
       <c r="C23" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="D23" t="n">
-        <v>40.3</v>
+        <v>41</v>
       </c>
       <c r="E23" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="F23" t="n">
-        <v>8519.9998</v>
+        <v>7534.5169</v>
       </c>
       <c r="G23" t="n">
-        <v>189772.6137973733</v>
+        <v>40.52</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1318,39 +1218,34 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="C24" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="D24" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="E24" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="F24" t="n">
-        <v>11062.9561</v>
+        <v>49.261</v>
       </c>
       <c r="G24" t="n">
-        <v>200835.5698973733</v>
+        <v>40.50000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1359,17 +1254,12 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1379,19 +1269,19 @@
         <v>40.6</v>
       </c>
       <c r="C25" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="D25" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="E25" t="n">
         <v>40.6</v>
       </c>
       <c r="F25" t="n">
-        <v>2443.927825365854</v>
+        <v>1436.9376</v>
       </c>
       <c r="G25" t="n">
-        <v>203279.4977227392</v>
+        <v>40.48</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1400,39 +1290,34 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="C26" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="D26" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="E26" t="n">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="F26" t="n">
-        <v>2356.8901</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>200922.6076227392</v>
+        <v>40.46000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1441,39 +1326,34 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="C27" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="D27" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="E27" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="F27" t="n">
-        <v>5815.2535</v>
+        <v>17700</v>
       </c>
       <c r="G27" t="n">
-        <v>195107.3541227392</v>
+        <v>40.46000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1482,39 +1362,34 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.6</v>
+        <v>41.3</v>
       </c>
       <c r="C28" t="n">
-        <v>40.6</v>
+        <v>41.5</v>
       </c>
       <c r="D28" t="n">
-        <v>40.6</v>
+        <v>41.5</v>
       </c>
       <c r="E28" t="n">
-        <v>40.6</v>
+        <v>41.3</v>
       </c>
       <c r="F28" t="n">
-        <v>5233.7281</v>
+        <v>142504.7877</v>
       </c>
       <c r="G28" t="n">
-        <v>189873.6260227392</v>
+        <v>40.465</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1523,39 +1398,34 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="C29" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="D29" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="E29" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="F29" t="n">
-        <v>8403.729600000001</v>
+        <v>2642.3467</v>
       </c>
       <c r="G29" t="n">
-        <v>198277.3556227392</v>
+        <v>40.52</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1564,39 +1434,34 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="C30" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="D30" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="E30" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="F30" t="n">
-        <v>2290.7713</v>
+        <v>4518.4132</v>
       </c>
       <c r="G30" t="n">
-        <v>198277.3556227392</v>
+        <v>40.58</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1605,39 +1470,34 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="C31" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="D31" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="E31" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="F31" t="n">
-        <v>1907.6939</v>
+        <v>1211</v>
       </c>
       <c r="G31" t="n">
-        <v>196369.6617227392</v>
+        <v>40.645</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1646,39 +1506,34 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="C32" t="n">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="D32" t="n">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="E32" t="n">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="F32" t="n">
-        <v>1623</v>
+        <v>8100</v>
       </c>
       <c r="G32" t="n">
-        <v>197992.6617227392</v>
+        <v>40.715</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1687,39 +1542,34 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>40.5</v>
+        <v>41.4</v>
       </c>
       <c r="C33" t="n">
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
       <c r="D33" t="n">
-        <v>40.5</v>
+        <v>41.4</v>
       </c>
       <c r="E33" t="n">
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
       <c r="F33" t="n">
-        <v>1173.8099</v>
+        <v>3976</v>
       </c>
       <c r="G33" t="n">
-        <v>196818.8518227392</v>
+        <v>40.77999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1728,39 +1578,34 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="C34" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="D34" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="E34" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="F34" t="n">
-        <v>238.2805</v>
+        <v>12.1359</v>
       </c>
       <c r="G34" t="n">
-        <v>196818.8518227392</v>
+        <v>40.845</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1769,39 +1614,34 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>40.4</v>
+        <v>41.1</v>
       </c>
       <c r="C35" t="n">
-        <v>40.4</v>
+        <v>41.1</v>
       </c>
       <c r="D35" t="n">
-        <v>40.4</v>
+        <v>41.1</v>
       </c>
       <c r="E35" t="n">
-        <v>40.4</v>
+        <v>41.1</v>
       </c>
       <c r="F35" t="n">
-        <v>1808.9999</v>
+        <v>12.1654</v>
       </c>
       <c r="G35" t="n">
-        <v>196818.8518227392</v>
+        <v>40.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1810,39 +1650,34 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="C36" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="D36" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="E36" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="F36" t="n">
-        <v>22262.8998</v>
+        <v>24.3902</v>
       </c>
       <c r="G36" t="n">
-        <v>196818.8518227392</v>
+        <v>40.945</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1851,39 +1686,34 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="C37" t="n">
         <v>40.8</v>
       </c>
       <c r="D37" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="E37" t="n">
         <v>40.8</v>
       </c>
-      <c r="E37" t="n">
-        <v>40.4</v>
-      </c>
       <c r="F37" t="n">
-        <v>30435.2142</v>
+        <v>23059.0041</v>
       </c>
       <c r="G37" t="n">
-        <v>227254.0660227392</v>
+        <v>40.985</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1892,39 +1722,34 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="C38" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="D38" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="E38" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="F38" t="n">
-        <v>1000</v>
+        <v>15993</v>
       </c>
       <c r="G38" t="n">
-        <v>228254.0660227392</v>
+        <v>41.01499999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1933,39 +1758,34 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>40.9</v>
+        <v>40.5</v>
       </c>
       <c r="C39" t="n">
-        <v>40.9</v>
+        <v>40.5</v>
       </c>
       <c r="D39" t="n">
-        <v>40.9</v>
+        <v>40.5</v>
       </c>
       <c r="E39" t="n">
-        <v>40.9</v>
+        <v>40.5</v>
       </c>
       <c r="F39" t="n">
-        <v>3867.7194</v>
+        <v>22218.3372</v>
       </c>
       <c r="G39" t="n">
-        <v>228254.0660227392</v>
+        <v>41.02999999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1974,39 +1794,34 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="C40" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="D40" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="E40" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="F40" t="n">
-        <v>2726.2231</v>
+        <v>1016.1053</v>
       </c>
       <c r="G40" t="n">
-        <v>230980.2891227392</v>
+        <v>41.01999999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2015,39 +1830,34 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="C41" t="n">
-        <v>41</v>
+        <v>40.3</v>
       </c>
       <c r="D41" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="E41" t="n">
-        <v>41</v>
+        <v>40.2</v>
       </c>
       <c r="F41" t="n">
-        <v>817.4386</v>
+        <v>36150</v>
       </c>
       <c r="G41" t="n">
-        <v>230980.2891227392</v>
+        <v>40.97999999999998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2056,39 +1866,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="C42" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="D42" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="E42" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="F42" t="n">
-        <v>91588.1452</v>
+        <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>230980.2891227392</v>
+        <v>40.95999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2097,39 +1902,34 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>41.1</v>
+        <v>40.1</v>
       </c>
       <c r="C43" t="n">
-        <v>41.3</v>
+        <v>40.1</v>
       </c>
       <c r="D43" t="n">
-        <v>41.3</v>
+        <v>40.1</v>
       </c>
       <c r="E43" t="n">
-        <v>41.1</v>
+        <v>40.1</v>
       </c>
       <c r="F43" t="n">
-        <v>17800.0069</v>
+        <v>3000</v>
       </c>
       <c r="G43" t="n">
-        <v>248780.2960227392</v>
+        <v>40.91499999999998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2138,39 +1938,34 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="C44" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="D44" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="E44" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="F44" t="n">
-        <v>6072.8973</v>
+        <v>123.5241</v>
       </c>
       <c r="G44" t="n">
-        <v>248780.2960227392</v>
+        <v>40.90499999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2179,39 +1974,34 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>41.3</v>
+        <v>40.1</v>
       </c>
       <c r="C45" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="D45" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="E45" t="n">
-        <v>41.3</v>
+        <v>40</v>
       </c>
       <c r="F45" t="n">
-        <v>17794.0579</v>
+        <v>18854.6806</v>
       </c>
       <c r="G45" t="n">
-        <v>266574.3539227392</v>
+        <v>40.87999999999998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2220,39 +2010,34 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>41</v>
+        <v>39.2</v>
       </c>
       <c r="C46" t="n">
-        <v>41</v>
+        <v>39.2</v>
       </c>
       <c r="D46" t="n">
-        <v>41</v>
+        <v>39.2</v>
       </c>
       <c r="E46" t="n">
-        <v>41</v>
+        <v>39.2</v>
       </c>
       <c r="F46" t="n">
-        <v>6212.315</v>
+        <v>4975.0623</v>
       </c>
       <c r="G46" t="n">
-        <v>260362.0389227392</v>
+        <v>40.81999999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2261,39 +2046,34 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>41</v>
+        <v>39.2</v>
       </c>
       <c r="C47" t="n">
-        <v>41.4</v>
+        <v>39.2</v>
       </c>
       <c r="D47" t="n">
-        <v>41.4</v>
+        <v>39.2</v>
       </c>
       <c r="E47" t="n">
-        <v>41</v>
+        <v>39.2</v>
       </c>
       <c r="F47" t="n">
-        <v>22032</v>
+        <v>7795.18</v>
       </c>
       <c r="G47" t="n">
-        <v>282394.0389227392</v>
+        <v>40.72999999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2302,131 +2082,130 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>40.8</v>
+        <v>39.2</v>
       </c>
       <c r="C48" t="n">
-        <v>40.1</v>
+        <v>39.2</v>
       </c>
       <c r="D48" t="n">
-        <v>40.8</v>
+        <v>39.2</v>
       </c>
       <c r="E48" t="n">
-        <v>40.1</v>
+        <v>39.2</v>
       </c>
       <c r="F48" t="n">
-        <v>33667.5145</v>
+        <v>3512.994</v>
       </c>
       <c r="G48" t="n">
-        <v>248726.5244227392</v>
+        <v>40.62499999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K48" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>39.2</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C49" t="n">
-        <v>40.1</v>
+        <v>38.9</v>
       </c>
       <c r="D49" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E49" t="n">
-        <v>40.1</v>
+        <v>38.9</v>
       </c>
       <c r="F49" t="n">
-        <v>35660.361</v>
+        <v>2400</v>
       </c>
       <c r="G49" t="n">
-        <v>248726.5244227392</v>
+        <v>40.505</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K49" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>41.2</v>
+        <v>38.7</v>
       </c>
       <c r="C50" t="n">
-        <v>41.2</v>
+        <v>38.7</v>
       </c>
       <c r="D50" t="n">
-        <v>41.2</v>
+        <v>38.7</v>
       </c>
       <c r="E50" t="n">
-        <v>41.2</v>
+        <v>38.7</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>661.826</v>
       </c>
       <c r="G50" t="n">
-        <v>248736.5244227392</v>
+        <v>40.37</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>38.9</v>
+      </c>
       <c r="K50" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2436,38 +2215,41 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="C51" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="D51" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="E51" t="n">
-        <v>40.3</v>
+        <v>39.6</v>
       </c>
       <c r="F51" t="n">
-        <v>1231.343</v>
+        <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>247505.1814227392</v>
+        <v>40.28</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>38.7</v>
+      </c>
       <c r="K51" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2477,6 +2259,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2486,29 +2269,31 @@
         <v>40.2</v>
       </c>
       <c r="C52" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="D52" t="n">
         <v>40.2</v>
       </c>
       <c r="E52" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="F52" t="n">
-        <v>10000</v>
+        <v>25</v>
       </c>
       <c r="G52" t="n">
-        <v>237505.1814227392</v>
+        <v>40.22000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>39.6</v>
+      </c>
       <c r="K52" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2518,38 +2303,41 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="C53" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="D53" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="E53" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="F53" t="n">
-        <v>516.8754</v>
+        <v>5790.6316</v>
       </c>
       <c r="G53" t="n">
-        <v>237505.1814227392</v>
+        <v>40.12500000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>40.2</v>
+      </c>
       <c r="K53" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2559,28 +2347,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="C54" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="D54" t="n">
-        <v>40</v>
+        <v>40.3</v>
       </c>
       <c r="E54" t="n">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="F54" t="n">
-        <v>11855.4401</v>
+        <v>21253.277</v>
       </c>
       <c r="G54" t="n">
-        <v>225649.7413227392</v>
+        <v>40.075</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2590,7 +2379,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2600,28 +2389,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>40.1</v>
+        <v>40.4</v>
       </c>
       <c r="C55" t="n">
-        <v>39.6</v>
+        <v>40.7</v>
       </c>
       <c r="D55" t="n">
-        <v>40.1</v>
+        <v>40.7</v>
       </c>
       <c r="E55" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="F55" t="n">
-        <v>53359.4808</v>
+        <v>20700</v>
       </c>
       <c r="G55" t="n">
-        <v>225649.7413227392</v>
+        <v>40.04000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2631,7 +2421,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2641,38 +2431,41 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="C56" t="n">
-        <v>39.9</v>
+        <v>40.9</v>
       </c>
       <c r="D56" t="n">
-        <v>39.9</v>
+        <v>40.9</v>
       </c>
       <c r="E56" t="n">
-        <v>39.9</v>
+        <v>40.8</v>
       </c>
       <c r="F56" t="n">
-        <v>1231.343</v>
+        <v>5700</v>
       </c>
       <c r="G56" t="n">
-        <v>226881.0843227392</v>
+        <v>40.03</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>40.7</v>
+      </c>
       <c r="K56" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2682,38 +2475,41 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="D57" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="E57" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F57" t="n">
-        <v>6900</v>
+        <v>2250</v>
       </c>
       <c r="G57" t="n">
-        <v>233781.0843227392</v>
+        <v>40.035</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>40.9</v>
+      </c>
       <c r="K57" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2723,28 +2519,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>40.1</v>
+        <v>40.7</v>
       </c>
       <c r="C58" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="D58" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="E58" t="n">
-        <v>40.1</v>
+        <v>40.7</v>
       </c>
       <c r="F58" t="n">
-        <v>36300</v>
+        <v>1363.8397</v>
       </c>
       <c r="G58" t="n">
-        <v>270081.0843227392</v>
+        <v>40.03000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2754,7 +2551,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2764,28 +2561,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="C59" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="D59" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="E59" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F59" t="n">
-        <v>3650</v>
+        <v>1209.6956</v>
       </c>
       <c r="G59" t="n">
-        <v>270081.0843227392</v>
+        <v>40.03500000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2795,7 +2593,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2805,28 +2603,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="C60" t="n">
-        <v>40.2</v>
+        <v>41.4</v>
       </c>
       <c r="D60" t="n">
-        <v>40.2</v>
+        <v>41.4</v>
       </c>
       <c r="E60" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="F60" t="n">
-        <v>9600</v>
+        <v>21947.6338</v>
       </c>
       <c r="G60" t="n">
-        <v>270081.0843227392</v>
+        <v>40.02500000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2836,7 +2635,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2846,28 +2645,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>40.2</v>
+        <v>40.7</v>
       </c>
       <c r="C61" t="n">
         <v>40.6</v>
       </c>
       <c r="D61" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="E61" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="F61" t="n">
-        <v>21806.2962</v>
+        <v>1319</v>
       </c>
       <c r="G61" t="n">
-        <v>291887.3805227391</v>
+        <v>40.04000000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2877,7 +2677,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2887,28 +2687,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="C62" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="D62" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="E62" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="F62" t="n">
-        <v>18300</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>310187.3805227391</v>
+        <v>40.07500000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2918,7 +2719,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2928,28 +2729,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="C63" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="D63" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="E63" t="n">
-        <v>41.2</v>
+        <v>40.7</v>
       </c>
       <c r="F63" t="n">
-        <v>23116.7961</v>
+        <v>4933.2083</v>
       </c>
       <c r="G63" t="n">
-        <v>310187.3805227391</v>
+        <v>40.13500000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2959,7 +2761,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2969,28 +2771,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="C64" t="n">
         <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="E64" t="n">
         <v>41</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>14775.9999</v>
       </c>
       <c r="G64" t="n">
-        <v>310177.3805227391</v>
+        <v>40.17000000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3000,7 +2803,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3010,28 +2813,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="C65" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="D65" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="E65" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="F65" t="n">
-        <v>7534.5169</v>
+        <v>9236.3264</v>
       </c>
       <c r="G65" t="n">
-        <v>310177.3805227391</v>
+        <v>40.23</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3041,7 +2845,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3051,28 +2855,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="C66" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="D66" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="E66" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="F66" t="n">
-        <v>49.261</v>
+        <v>22713.7483</v>
       </c>
       <c r="G66" t="n">
-        <v>310128.1195227391</v>
+        <v>40.31</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3082,7 +2887,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3092,28 +2897,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>40.6</v>
+        <v>41.1</v>
       </c>
       <c r="C67" t="n">
-        <v>40.6</v>
+        <v>41.2</v>
       </c>
       <c r="D67" t="n">
-        <v>40.6</v>
+        <v>41.2</v>
       </c>
       <c r="E67" t="n">
-        <v>40.6</v>
+        <v>41.1</v>
       </c>
       <c r="F67" t="n">
-        <v>1436.9376</v>
+        <v>7495.3883</v>
       </c>
       <c r="G67" t="n">
-        <v>310128.1195227391</v>
+        <v>40.405</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3123,7 +2929,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3133,28 +2939,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="C68" t="n">
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
       <c r="D68" t="n">
-        <v>40.4</v>
+        <v>41.4</v>
       </c>
       <c r="E68" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>39900</v>
       </c>
       <c r="G68" t="n">
-        <v>310118.1195227391</v>
+        <v>40.505</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3164,7 +2971,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3174,13 +2981,14 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>41</v>
+        <v>41.4</v>
       </c>
       <c r="C69" t="n">
         <v>41.4</v>
@@ -3189,13 +2997,13 @@
         <v>41.4</v>
       </c>
       <c r="E69" t="n">
-        <v>41</v>
+        <v>41.4</v>
       </c>
       <c r="F69" t="n">
-        <v>17700</v>
+        <v>27308.2367</v>
       </c>
       <c r="G69" t="n">
-        <v>327818.1195227391</v>
+        <v>40.625</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3205,7 +3013,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3215,6 +3023,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3233,10 +3042,10 @@
         <v>41.3</v>
       </c>
       <c r="F70" t="n">
-        <v>142504.7877</v>
+        <v>94296.3855</v>
       </c>
       <c r="G70" t="n">
-        <v>470322.9072227391</v>
+        <v>40.755</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3246,7 +3055,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3256,28 +3065,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="C71" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="D71" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="E71" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="F71" t="n">
-        <v>2642.3467</v>
+        <v>7607.4226</v>
       </c>
       <c r="G71" t="n">
-        <v>467680.5605227391</v>
+        <v>40.84999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3287,7 +3097,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3297,28 +3107,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="C72" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="D72" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="E72" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="F72" t="n">
-        <v>4518.4132</v>
+        <v>23729.5949</v>
       </c>
       <c r="G72" t="n">
-        <v>467680.5605227391</v>
+        <v>40.91499999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3328,7 +3139,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3338,28 +3149,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="C73" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="D73" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="E73" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="F73" t="n">
-        <v>1211</v>
+        <v>2156.1019</v>
       </c>
       <c r="G73" t="n">
-        <v>467680.5605227391</v>
+        <v>41.02499999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3369,7 +3181,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3379,28 +3191,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="C74" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="D74" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="E74" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="F74" t="n">
-        <v>8100</v>
+        <v>2887</v>
       </c>
       <c r="G74" t="n">
-        <v>475780.5605227391</v>
+        <v>41.09999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3410,7 +3223,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3420,28 +3233,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="C75" t="n">
-        <v>41.4</v>
+        <v>42.2</v>
       </c>
       <c r="D75" t="n">
-        <v>41.4</v>
+        <v>42.2</v>
       </c>
       <c r="E75" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="F75" t="n">
-        <v>3976</v>
+        <v>8850</v>
       </c>
       <c r="G75" t="n">
-        <v>471804.5605227391</v>
+        <v>41.165</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3451,7 +3265,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3461,28 +3275,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>41.2</v>
+        <v>42.2</v>
       </c>
       <c r="C76" t="n">
-        <v>41.2</v>
+        <v>41.8</v>
       </c>
       <c r="D76" t="n">
-        <v>41.2</v>
+        <v>42.2</v>
       </c>
       <c r="E76" t="n">
-        <v>41.2</v>
+        <v>41.8</v>
       </c>
       <c r="F76" t="n">
-        <v>12.1359</v>
+        <v>20216.6604</v>
       </c>
       <c r="G76" t="n">
-        <v>471792.4246227391</v>
+        <v>41.235</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3492,7 +3307,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3502,28 +3317,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>41.1</v>
+        <v>41.9</v>
       </c>
       <c r="C77" t="n">
-        <v>41.1</v>
+        <v>41.9</v>
       </c>
       <c r="D77" t="n">
-        <v>41.1</v>
+        <v>41.9</v>
       </c>
       <c r="E77" t="n">
-        <v>41.1</v>
+        <v>41.9</v>
       </c>
       <c r="F77" t="n">
-        <v>12.1654</v>
+        <v>1009.6513</v>
       </c>
       <c r="G77" t="n">
-        <v>471780.2592227391</v>
+        <v>41.28</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3533,7 +3349,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3543,28 +3359,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>41</v>
+        <v>41.7</v>
       </c>
       <c r="C78" t="n">
-        <v>41</v>
+        <v>42.2</v>
       </c>
       <c r="D78" t="n">
-        <v>41</v>
+        <v>42.2</v>
       </c>
       <c r="E78" t="n">
-        <v>41</v>
+        <v>41.7</v>
       </c>
       <c r="F78" t="n">
-        <v>24.3902</v>
+        <v>1352.8277</v>
       </c>
       <c r="G78" t="n">
-        <v>471755.8690227391</v>
+        <v>41.33</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3574,7 +3391,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3584,28 +3401,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>40.9</v>
+        <v>41.8</v>
       </c>
       <c r="C79" t="n">
-        <v>40.8</v>
+        <v>41.6</v>
       </c>
       <c r="D79" t="n">
-        <v>40.9</v>
+        <v>41.8</v>
       </c>
       <c r="E79" t="n">
-        <v>40.8</v>
+        <v>41.6</v>
       </c>
       <c r="F79" t="n">
-        <v>23059.0041</v>
+        <v>14960.7178</v>
       </c>
       <c r="G79" t="n">
-        <v>448696.8649227391</v>
+        <v>41.39</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3615,7 +3433,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3625,28 +3443,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>40.8</v>
+        <v>41.8</v>
       </c>
       <c r="C80" t="n">
-        <v>40.8</v>
+        <v>41.8</v>
       </c>
       <c r="D80" t="n">
-        <v>40.8</v>
+        <v>41.8</v>
       </c>
       <c r="E80" t="n">
-        <v>40.8</v>
+        <v>41.8</v>
       </c>
       <c r="F80" t="n">
-        <v>15993</v>
+        <v>24036.1445</v>
       </c>
       <c r="G80" t="n">
-        <v>448696.8649227391</v>
+        <v>41.45</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3656,7 +3475,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3666,28 +3485,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>40.5</v>
+        <v>41.8</v>
       </c>
       <c r="C81" t="n">
-        <v>40.5</v>
+        <v>41.8</v>
       </c>
       <c r="D81" t="n">
-        <v>40.5</v>
+        <v>41.8</v>
       </c>
       <c r="E81" t="n">
-        <v>40.5</v>
+        <v>41.8</v>
       </c>
       <c r="F81" t="n">
-        <v>22218.3372</v>
+        <v>1373</v>
       </c>
       <c r="G81" t="n">
-        <v>426478.5277227391</v>
+        <v>41.50499999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3697,7 +3517,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3707,28 +3527,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>40.8</v>
+        <v>41.8</v>
       </c>
       <c r="C82" t="n">
-        <v>40.8</v>
+        <v>42.5</v>
       </c>
       <c r="D82" t="n">
-        <v>40.8</v>
+        <v>42.5</v>
       </c>
       <c r="E82" t="n">
-        <v>40.8</v>
+        <v>41.8</v>
       </c>
       <c r="F82" t="n">
-        <v>1016.1053</v>
+        <v>2393.7909</v>
       </c>
       <c r="G82" t="n">
-        <v>427494.6330227391</v>
+        <v>41.52999999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3738,7 +3559,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3748,28 +3569,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>40.4</v>
+        <v>42.3</v>
       </c>
       <c r="C83" t="n">
-        <v>40.3</v>
+        <v>42.5</v>
       </c>
       <c r="D83" t="n">
-        <v>40.4</v>
+        <v>42.5</v>
       </c>
       <c r="E83" t="n">
-        <v>40.2</v>
+        <v>42.3</v>
       </c>
       <c r="F83" t="n">
-        <v>36150</v>
+        <v>675.9623</v>
       </c>
       <c r="G83" t="n">
-        <v>391344.6330227391</v>
+        <v>41.57999999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3779,7 +3601,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3789,28 +3611,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>40.6</v>
+        <v>42.7</v>
       </c>
       <c r="C84" t="n">
-        <v>40.6</v>
+        <v>43.2</v>
       </c>
       <c r="D84" t="n">
-        <v>40.6</v>
+        <v>43.4</v>
       </c>
       <c r="E84" t="n">
-        <v>40.6</v>
+        <v>42.7</v>
       </c>
       <c r="F84" t="n">
-        <v>11</v>
+        <v>51128.4838</v>
       </c>
       <c r="G84" t="n">
-        <v>391355.6330227391</v>
+        <v>41.65999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3820,7 +3643,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3830,28 +3653,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>40.1</v>
+        <v>43.4</v>
       </c>
       <c r="C85" t="n">
-        <v>40.1</v>
+        <v>42.7</v>
       </c>
       <c r="D85" t="n">
-        <v>40.1</v>
+        <v>43.4</v>
       </c>
       <c r="E85" t="n">
-        <v>40.1</v>
+        <v>42.7</v>
       </c>
       <c r="F85" t="n">
-        <v>3000</v>
+        <v>2449.95</v>
       </c>
       <c r="G85" t="n">
-        <v>388355.6330227391</v>
+        <v>41.76499999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3861,7 +3685,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3871,28 +3695,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>40.4</v>
+        <v>42.7</v>
       </c>
       <c r="C86" t="n">
-        <v>40.4</v>
+        <v>43.4</v>
       </c>
       <c r="D86" t="n">
-        <v>40.4</v>
+        <v>43.4</v>
       </c>
       <c r="E86" t="n">
-        <v>40.4</v>
+        <v>42.2</v>
       </c>
       <c r="F86" t="n">
-        <v>123.5241</v>
+        <v>11927.8996</v>
       </c>
       <c r="G86" t="n">
-        <v>388479.1571227391</v>
+        <v>41.86</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3902,7 +3727,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3912,46 +3737,50 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>40.1</v>
+        <v>43.4</v>
       </c>
       <c r="C87" t="n">
-        <v>40.4</v>
+        <v>42.3</v>
       </c>
       <c r="D87" t="n">
-        <v>40.4</v>
+        <v>43.4</v>
       </c>
       <c r="E87" t="n">
-        <v>40</v>
+        <v>42.3</v>
       </c>
       <c r="F87" t="n">
-        <v>18854.6806</v>
+        <v>1165.4403</v>
       </c>
       <c r="G87" t="n">
-        <v>388479.1571227391</v>
+        <v>41.97499999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>1.074081632653061</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1.058673469387755</v>
       </c>
     </row>
     <row r="88">
@@ -3959,22 +3788,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>39.2</v>
+        <v>43</v>
       </c>
       <c r="C88" t="n">
-        <v>39.2</v>
+        <v>43.3</v>
       </c>
       <c r="D88" t="n">
-        <v>39.2</v>
+        <v>43.3</v>
       </c>
       <c r="E88" t="n">
-        <v>39.2</v>
+        <v>43</v>
       </c>
       <c r="F88" t="n">
-        <v>4975.0623</v>
+        <v>15766.69091316397</v>
       </c>
       <c r="G88" t="n">
-        <v>383504.0948227391</v>
+        <v>42.06499999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3983,244 +3812,214 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>39.2</v>
+        <v>42.3</v>
       </c>
       <c r="C89" t="n">
-        <v>39.2</v>
+        <v>42.1</v>
       </c>
       <c r="D89" t="n">
-        <v>39.2</v>
+        <v>42.3</v>
       </c>
       <c r="E89" t="n">
-        <v>39.2</v>
+        <v>42.1</v>
       </c>
       <c r="F89" t="n">
-        <v>7795.18</v>
+        <v>6315.77</v>
       </c>
       <c r="G89" t="n">
-        <v>383504.0948227391</v>
+        <v>42.10999999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>39.2</v>
+        <v>42.2</v>
       </c>
       <c r="C90" t="n">
-        <v>39.2</v>
+        <v>42.2</v>
       </c>
       <c r="D90" t="n">
-        <v>39.2</v>
+        <v>42.2</v>
       </c>
       <c r="E90" t="n">
-        <v>39.2</v>
+        <v>42.2</v>
       </c>
       <c r="F90" t="n">
-        <v>3512.994</v>
+        <v>736.8483</v>
       </c>
       <c r="G90" t="n">
-        <v>383504.0948227391</v>
+        <v>42.15499999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>39</v>
+        <v>42.2</v>
       </c>
       <c r="C91" t="n">
-        <v>38.9</v>
+        <v>42.3</v>
       </c>
       <c r="D91" t="n">
-        <v>39</v>
+        <v>42.3</v>
       </c>
       <c r="E91" t="n">
-        <v>38.9</v>
+        <v>42.2</v>
       </c>
       <c r="F91" t="n">
-        <v>2400</v>
+        <v>395.255</v>
       </c>
       <c r="G91" t="n">
-        <v>381104.0948227391</v>
+        <v>42.19</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>38.7</v>
+        <v>42.2</v>
       </c>
       <c r="C92" t="n">
-        <v>38.7</v>
+        <v>42</v>
       </c>
       <c r="D92" t="n">
-        <v>38.7</v>
+        <v>42.2</v>
       </c>
       <c r="E92" t="n">
-        <v>38.7</v>
+        <v>42</v>
       </c>
       <c r="F92" t="n">
-        <v>661.826</v>
+        <v>7982.5221</v>
       </c>
       <c r="G92" t="n">
-        <v>380442.2688227391</v>
+        <v>42.225</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>39.6</v>
+        <v>41.8</v>
       </c>
       <c r="C93" t="n">
-        <v>39.6</v>
+        <v>41.5</v>
       </c>
       <c r="D93" t="n">
-        <v>39.6</v>
+        <v>41.8</v>
       </c>
       <c r="E93" t="n">
-        <v>39.6</v>
+        <v>41.5</v>
       </c>
       <c r="F93" t="n">
-        <v>11</v>
+        <v>6131.3393</v>
       </c>
       <c r="G93" t="n">
-        <v>380453.2688227391</v>
+        <v>42.23</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>40.2</v>
+        <v>41.5</v>
       </c>
       <c r="C94" t="n">
-        <v>40.2</v>
+        <v>41.2</v>
       </c>
       <c r="D94" t="n">
-        <v>40.2</v>
+        <v>41.5</v>
       </c>
       <c r="E94" t="n">
-        <v>40.2</v>
+        <v>41.2</v>
       </c>
       <c r="F94" t="n">
-        <v>25</v>
+        <v>64040.702</v>
       </c>
       <c r="G94" t="n">
-        <v>380478.2688227391</v>
+        <v>42.21999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4229,39 +4028,34 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>39.5</v>
+        <v>41.7</v>
       </c>
       <c r="C95" t="n">
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="D95" t="n">
-        <v>39.5</v>
+        <v>42</v>
       </c>
       <c r="E95" t="n">
-        <v>39.5</v>
+        <v>41.7</v>
       </c>
       <c r="F95" t="n">
-        <v>5790.6316</v>
+        <v>3930.3507</v>
       </c>
       <c r="G95" t="n">
-        <v>374687.6372227391</v>
+        <v>42.21999999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4270,39 +4064,34 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>40.2</v>
+        <v>42</v>
       </c>
       <c r="C96" t="n">
-        <v>40.1</v>
+        <v>42.3</v>
       </c>
       <c r="D96" t="n">
-        <v>40.3</v>
+        <v>42.3</v>
       </c>
       <c r="E96" t="n">
-        <v>40.1</v>
+        <v>42</v>
       </c>
       <c r="F96" t="n">
-        <v>21253.277</v>
+        <v>70650</v>
       </c>
       <c r="G96" t="n">
-        <v>395940.9142227391</v>
+        <v>42.20999999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4311,39 +4100,34 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>40.4</v>
+        <v>42.7</v>
       </c>
       <c r="C97" t="n">
-        <v>40.7</v>
+        <v>42.6</v>
       </c>
       <c r="D97" t="n">
-        <v>40.7</v>
+        <v>42.7</v>
       </c>
       <c r="E97" t="n">
-        <v>40.4</v>
+        <v>42.6</v>
       </c>
       <c r="F97" t="n">
-        <v>20700</v>
+        <v>12450</v>
       </c>
       <c r="G97" t="n">
-        <v>416640.9142227391</v>
+        <v>42.24999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4352,39 +4136,34 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>40.8</v>
+        <v>42.2</v>
       </c>
       <c r="C98" t="n">
-        <v>40.9</v>
+        <v>42.1</v>
       </c>
       <c r="D98" t="n">
-        <v>40.9</v>
+        <v>42.2</v>
       </c>
       <c r="E98" t="n">
-        <v>40.8</v>
+        <v>42.1</v>
       </c>
       <c r="F98" t="n">
-        <v>5700</v>
+        <v>4213.2652</v>
       </c>
       <c r="G98" t="n">
-        <v>422340.9142227391</v>
+        <v>42.27499999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4393,39 +4172,34 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>41</v>
+        <v>42.9</v>
       </c>
       <c r="C99" t="n">
-        <v>41.2</v>
+        <v>43.2</v>
       </c>
       <c r="D99" t="n">
-        <v>41.2</v>
+        <v>43.2</v>
       </c>
       <c r="E99" t="n">
-        <v>41</v>
+        <v>42.9</v>
       </c>
       <c r="F99" t="n">
-        <v>2250</v>
+        <v>48034.389</v>
       </c>
       <c r="G99" t="n">
-        <v>424590.9142227391</v>
+        <v>42.33</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4434,2134 +4208,480 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>40.7</v>
+        <v>42.9</v>
       </c>
       <c r="C100" t="n">
-        <v>40.7</v>
+        <v>42.9</v>
       </c>
       <c r="D100" t="n">
-        <v>40.7</v>
+        <v>42.9</v>
       </c>
       <c r="E100" t="n">
-        <v>40.7</v>
+        <v>42.9</v>
       </c>
       <c r="F100" t="n">
-        <v>1363.8397</v>
+        <v>2297.2378</v>
       </c>
       <c r="G100" t="n">
-        <v>423227.074522739</v>
+        <v>42.385</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>40.6</v>
+        <v>42.8</v>
       </c>
       <c r="C101" t="n">
-        <v>40.6</v>
+        <v>42.8</v>
       </c>
       <c r="D101" t="n">
-        <v>40.6</v>
+        <v>42.8</v>
       </c>
       <c r="E101" t="n">
-        <v>40.6</v>
+        <v>42.8</v>
       </c>
       <c r="F101" t="n">
-        <v>1209.6956</v>
+        <v>6720.5373</v>
       </c>
       <c r="G101" t="n">
-        <v>422017.3789227391</v>
+        <v>42.435</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>40.6</v>
+        <v>42.6</v>
       </c>
       <c r="C102" t="n">
-        <v>41.4</v>
+        <v>42.7</v>
       </c>
       <c r="D102" t="n">
-        <v>41.4</v>
+        <v>42.7</v>
       </c>
       <c r="E102" t="n">
-        <v>40.6</v>
+        <v>42.6</v>
       </c>
       <c r="F102" t="n">
-        <v>21947.6338</v>
+        <v>15000</v>
       </c>
       <c r="G102" t="n">
-        <v>443965.0127227391</v>
+        <v>42.475</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>40.7</v>
+        <v>42.5</v>
       </c>
       <c r="C103" t="n">
-        <v>40.6</v>
+        <v>42.5</v>
       </c>
       <c r="D103" t="n">
-        <v>40.7</v>
+        <v>42.5</v>
       </c>
       <c r="E103" t="n">
-        <v>40.6</v>
+        <v>42.5</v>
       </c>
       <c r="F103" t="n">
-        <v>1319</v>
+        <v>500</v>
       </c>
       <c r="G103" t="n">
-        <v>442646.0127227391</v>
+        <v>42.485</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>41.3</v>
+        <v>42.2</v>
       </c>
       <c r="C104" t="n">
-        <v>41.3</v>
+        <v>42.2</v>
       </c>
       <c r="D104" t="n">
-        <v>41.3</v>
+        <v>42.2</v>
       </c>
       <c r="E104" t="n">
-        <v>41.3</v>
+        <v>42.2</v>
       </c>
       <c r="F104" t="n">
-        <v>100</v>
+        <v>13005.3554</v>
       </c>
       <c r="G104" t="n">
-        <v>442746.0127227391</v>
+        <v>42.46</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>41.3</v>
+        <v>42</v>
       </c>
       <c r="C105" t="n">
-        <v>41.4</v>
+        <v>42</v>
       </c>
       <c r="D105" t="n">
-        <v>41.4</v>
+        <v>42</v>
       </c>
       <c r="E105" t="n">
-        <v>40.7</v>
+        <v>42</v>
       </c>
       <c r="F105" t="n">
-        <v>4933.2083</v>
+        <v>7303.5804</v>
       </c>
       <c r="G105" t="n">
-        <v>447679.2210227391</v>
+        <v>42.39</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>41.1</v>
+        <v>42</v>
       </c>
       <c r="C106" t="n">
-        <v>41</v>
+        <v>41.9</v>
       </c>
       <c r="D106" t="n">
-        <v>41.1</v>
+        <v>42</v>
       </c>
       <c r="E106" t="n">
-        <v>41</v>
+        <v>41.9</v>
       </c>
       <c r="F106" t="n">
-        <v>14775.9999</v>
+        <v>6703.736</v>
       </c>
       <c r="G106" t="n">
-        <v>432903.2211227391</v>
+        <v>42.355</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>41.3</v>
+        <v>41.9</v>
       </c>
       <c r="C107" t="n">
-        <v>40.8</v>
+        <v>42.4</v>
       </c>
       <c r="D107" t="n">
-        <v>41.3</v>
+        <v>42.4</v>
       </c>
       <c r="E107" t="n">
-        <v>40.8</v>
+        <v>41.9</v>
       </c>
       <c r="F107" t="n">
-        <v>9236.3264</v>
+        <v>972.9234584905661</v>
       </c>
       <c r="G107" t="n">
-        <v>423666.8947227391</v>
+        <v>42.28</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>40.8</v>
+        <v>42.3</v>
       </c>
       <c r="C108" t="n">
-        <v>40.8</v>
+        <v>42.4</v>
       </c>
       <c r="D108" t="n">
-        <v>40.8</v>
+        <v>42.4</v>
       </c>
       <c r="E108" t="n">
-        <v>40.8</v>
+        <v>42.3</v>
       </c>
       <c r="F108" t="n">
-        <v>22713.7483</v>
+        <v>3945.8068</v>
       </c>
       <c r="G108" t="n">
-        <v>423666.8947227391</v>
+        <v>42.245</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>41.1</v>
+        <v>42</v>
       </c>
       <c r="C109" t="n">
-        <v>41.2</v>
+        <v>42</v>
       </c>
       <c r="D109" t="n">
-        <v>41.2</v>
+        <v>42</v>
       </c>
       <c r="E109" t="n">
-        <v>41.1</v>
+        <v>42</v>
       </c>
       <c r="F109" t="n">
-        <v>7495.3883</v>
+        <v>21717.6233</v>
       </c>
       <c r="G109" t="n">
-        <v>431162.2830227391</v>
+        <v>42.23</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>41.2</v>
+        <v>42</v>
       </c>
       <c r="C110" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="D110" t="n">
-        <v>41.4</v>
+        <v>42</v>
       </c>
       <c r="E110" t="n">
-        <v>41.2</v>
+        <v>41.5</v>
       </c>
       <c r="F110" t="n">
-        <v>39900</v>
+        <v>21180.1798</v>
       </c>
       <c r="G110" t="n">
-        <v>471062.2830227391</v>
+        <v>42.22</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="C111" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="D111" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="E111" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="F111" t="n">
-        <v>27308.2367</v>
+        <v>474.525</v>
       </c>
       <c r="G111" t="n">
-        <v>471062.2830227391</v>
+        <v>42.175</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>41.3</v>
+        <v>41.9</v>
       </c>
       <c r="C112" t="n">
-        <v>41.5</v>
+        <v>42</v>
       </c>
       <c r="D112" t="n">
-        <v>41.5</v>
+        <v>42</v>
       </c>
       <c r="E112" t="n">
-        <v>41.3</v>
+        <v>41.9</v>
       </c>
       <c r="F112" t="n">
-        <v>94296.3855</v>
+        <v>12894.3499</v>
       </c>
       <c r="G112" t="n">
-        <v>565358.6685227391</v>
+        <v>42.15999999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="C113" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="D113" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E113" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="F113" t="n">
-        <v>7607.4226</v>
-      </c>
-      <c r="G113" t="n">
-        <v>565358.6685227391</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="C114" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="D114" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="E114" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="F114" t="n">
-        <v>23729.5949</v>
-      </c>
-      <c r="G114" t="n">
-        <v>589088.2634227391</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C115" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D115" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E115" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2156.1019</v>
-      </c>
-      <c r="G115" t="n">
-        <v>591244.3653227391</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C116" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="D116" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="E116" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2887</v>
-      </c>
-      <c r="G116" t="n">
-        <v>591244.3653227391</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C117" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="D117" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="E117" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F117" t="n">
-        <v>8850</v>
-      </c>
-      <c r="G117" t="n">
-        <v>600094.3653227391</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="C118" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="D118" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F118" t="n">
-        <v>20216.6604</v>
-      </c>
-      <c r="G118" t="n">
-        <v>579877.7049227391</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C119" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D119" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="E119" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1009.6513</v>
-      </c>
-      <c r="G119" t="n">
-        <v>580887.3562227391</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C120" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="E120" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1352.8277</v>
-      </c>
-      <c r="G120" t="n">
-        <v>582240.1839227391</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C121" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="D121" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E121" t="n">
-        <v>41.6</v>
-      </c>
-      <c r="F121" t="n">
-        <v>14960.7178</v>
-      </c>
-      <c r="G121" t="n">
-        <v>567279.4661227391</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C122" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="D122" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E122" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F122" t="n">
-        <v>24036.1445</v>
-      </c>
-      <c r="G122" t="n">
-        <v>591315.6106227392</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C123" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="D123" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E123" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1373</v>
-      </c>
-      <c r="G123" t="n">
-        <v>591315.6106227392</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C124" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="D124" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="E124" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F124" t="n">
-        <v>2393.7909</v>
-      </c>
-      <c r="G124" t="n">
-        <v>593709.4015227392</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="C125" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="D125" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="E125" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="F125" t="n">
-        <v>675.9623</v>
-      </c>
-      <c r="G125" t="n">
-        <v>593709.4015227392</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="C126" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="D126" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="E126" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="F126" t="n">
-        <v>51128.4838</v>
-      </c>
-      <c r="G126" t="n">
-        <v>644837.8853227393</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="C127" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="D127" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="E127" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="F127" t="n">
-        <v>2449.95</v>
-      </c>
-      <c r="G127" t="n">
-        <v>642387.9353227393</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="C128" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="D128" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="E128" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="F128" t="n">
-        <v>11927.8996</v>
-      </c>
-      <c r="G128" t="n">
-        <v>654315.8349227393</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="C129" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="D129" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="E129" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1165.4403</v>
-      </c>
-      <c r="G129" t="n">
-        <v>653150.3946227393</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>43</v>
-      </c>
-      <c r="C130" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="E130" t="n">
-        <v>43</v>
-      </c>
-      <c r="F130" t="n">
-        <v>15766.69091316397</v>
-      </c>
-      <c r="G130" t="n">
-        <v>668917.0855359032</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="C131" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="D131" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="E131" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="F131" t="n">
-        <v>6315.77</v>
-      </c>
-      <c r="G131" t="n">
-        <v>662601.3155359032</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1.063527918781726</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="C132" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="D132" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="E132" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="F132" t="n">
-        <v>736.8483</v>
-      </c>
-      <c r="G132" t="n">
-        <v>663338.1638359032</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="C133" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="D133" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="E133" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="F133" t="n">
-        <v>395.255</v>
-      </c>
-      <c r="G133" t="n">
-        <v>663733.4188359032</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="C134" t="n">
-        <v>42</v>
-      </c>
-      <c r="D134" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="E134" t="n">
-        <v>42</v>
-      </c>
-      <c r="F134" t="n">
-        <v>7982.5221</v>
-      </c>
-      <c r="G134" t="n">
-        <v>655750.8967359032</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="C135" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="D135" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="E135" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="F135" t="n">
-        <v>6131.3393</v>
-      </c>
-      <c r="G135" t="n">
-        <v>649619.5574359032</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="C136" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E136" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="F136" t="n">
-        <v>64040.702</v>
-      </c>
-      <c r="G136" t="n">
-        <v>585578.8554359032</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="C137" t="n">
-        <v>42</v>
-      </c>
-      <c r="D137" t="n">
-        <v>42</v>
-      </c>
-      <c r="E137" t="n">
-        <v>41.7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>3930.3507</v>
-      </c>
-      <c r="G137" t="n">
-        <v>589509.2061359031</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>42</v>
-      </c>
-      <c r="C138" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="D138" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="E138" t="n">
-        <v>42</v>
-      </c>
-      <c r="F138" t="n">
-        <v>70650</v>
-      </c>
-      <c r="G138" t="n">
-        <v>660159.2061359031</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="C139" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="D139" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="E139" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="F139" t="n">
-        <v>12450</v>
-      </c>
-      <c r="G139" t="n">
-        <v>672609.2061359031</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>4213.2652</v>
-      </c>
-      <c r="G140" t="n">
-        <v>668395.9409359031</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="C141" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="D141" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="E141" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="F141" t="n">
-        <v>48034.389</v>
-      </c>
-      <c r="G141" t="n">
-        <v>716430.3299359031</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="C142" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="D142" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="E142" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2297.2378</v>
-      </c>
-      <c r="G142" t="n">
-        <v>714133.0921359031</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="C143" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="D143" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="E143" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="F143" t="n">
-        <v>6720.5373</v>
-      </c>
-      <c r="G143" t="n">
-        <v>707412.5548359031</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="C144" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="D144" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="E144" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="F144" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G144" t="n">
-        <v>692412.5548359031</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="C145" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="D145" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>500</v>
-      </c>
-      <c r="G145" t="n">
-        <v>691912.5548359031</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="C146" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="D146" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="E146" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="F146" t="n">
-        <v>13005.3554</v>
-      </c>
-      <c r="G146" t="n">
-        <v>678907.1994359031</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>42</v>
-      </c>
-      <c r="C147" t="n">
-        <v>42</v>
-      </c>
-      <c r="D147" t="n">
-        <v>42</v>
-      </c>
-      <c r="E147" t="n">
-        <v>42</v>
-      </c>
-      <c r="F147" t="n">
-        <v>7303.5804</v>
-      </c>
-      <c r="G147" t="n">
-        <v>671603.6190359031</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>42</v>
-      </c>
-      <c r="C148" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D148" t="n">
-        <v>42</v>
-      </c>
-      <c r="E148" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F148" t="n">
-        <v>6703.736</v>
-      </c>
-      <c r="G148" t="n">
-        <v>664899.8830359031</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C149" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="D149" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="E149" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F149" t="n">
-        <v>972.9234584905661</v>
-      </c>
-      <c r="G149" t="n">
-        <v>665872.8064943936</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="C150" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="D150" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="E150" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="F150" t="n">
-        <v>3945.8068</v>
-      </c>
-      <c r="G150" t="n">
-        <v>665872.8064943936</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>42</v>
-      </c>
-      <c r="C151" t="n">
-        <v>42</v>
-      </c>
-      <c r="D151" t="n">
-        <v>42</v>
-      </c>
-      <c r="E151" t="n">
-        <v>42</v>
-      </c>
-      <c r="F151" t="n">
-        <v>21717.6233</v>
-      </c>
-      <c r="G151" t="n">
-        <v>644155.1831943936</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>42</v>
-      </c>
-      <c r="C152" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="D152" t="n">
-        <v>42</v>
-      </c>
-      <c r="E152" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="F152" t="n">
-        <v>21180.1798</v>
-      </c>
-      <c r="G152" t="n">
-        <v>622975.0033943936</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="C153" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="D153" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="E153" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="F153" t="n">
-        <v>474.525</v>
-      </c>
-      <c r="G153" t="n">
-        <v>622500.4783943936</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="C154" t="n">
-        <v>42</v>
-      </c>
-      <c r="D154" t="n">
-        <v>42</v>
-      </c>
-      <c r="E154" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F154" t="n">
-        <v>12894.3499</v>
-      </c>
-      <c r="G154" t="n">
-        <v>635394.8282943936</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
+      <c r="N112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest LRC.xlsx
+++ b/BackTest/2019-10-29 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:N183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="C2" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="D2" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="E2" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="F2" t="n">
-        <v>6072.8973</v>
+        <v>492.61</v>
       </c>
       <c r="G2" t="n">
-        <v>40.74999999999999</v>
+        <v>31129.27809999992</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="C3" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="D3" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="E3" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="F3" t="n">
-        <v>17794.0579</v>
+        <v>12.3762</v>
       </c>
       <c r="G3" t="n">
-        <v>40.78499999999998</v>
+        <v>31116.90189999992</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41</v>
+        <v>40.3</v>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="E4" t="n">
-        <v>41</v>
+        <v>40.3</v>
       </c>
       <c r="F4" t="n">
-        <v>6212.315</v>
+        <v>59825.4599</v>
       </c>
       <c r="G4" t="n">
-        <v>40.78999999999998</v>
+        <v>90942.36179999993</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -549,19 +549,19 @@
         <v>41</v>
       </c>
       <c r="C5" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="E5" t="n">
         <v>41</v>
       </c>
       <c r="F5" t="n">
-        <v>22032</v>
+        <v>1026.121951219512</v>
       </c>
       <c r="G5" t="n">
-        <v>40.80499999999999</v>
+        <v>91968.48375121944</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="E6" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="F6" t="n">
-        <v>33667.5145</v>
+        <v>18456.33404878049</v>
       </c>
       <c r="G6" t="n">
-        <v>40.81499999999998</v>
+        <v>91968.48375121944</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -621,19 +621,19 @@
         <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
         <v>41</v>
       </c>
       <c r="E7" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="F7" t="n">
-        <v>35660.361</v>
+        <v>10804.1648</v>
       </c>
       <c r="G7" t="n">
-        <v>40.83499999999998</v>
+        <v>91968.48375121944</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="D8" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="E8" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>9983.1648</v>
       </c>
       <c r="G8" t="n">
-        <v>40.85499999999998</v>
+        <v>81985.31895121944</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40.3</v>
+        <v>40.9</v>
       </c>
       <c r="C9" t="n">
-        <v>40.3</v>
+        <v>40.9</v>
       </c>
       <c r="D9" t="n">
-        <v>40.3</v>
+        <v>40.9</v>
       </c>
       <c r="E9" t="n">
-        <v>40.3</v>
+        <v>40.9</v>
       </c>
       <c r="F9" t="n">
-        <v>1231.343</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>40.83499999999998</v>
+        <v>82001.31895121944</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="C10" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="D10" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="E10" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>1441.1349</v>
       </c>
       <c r="G10" t="n">
-        <v>40.80499999999999</v>
+        <v>80560.18405121943</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="C11" t="n">
-        <v>40.1</v>
+        <v>40.9</v>
       </c>
       <c r="D11" t="n">
-        <v>40.1</v>
+        <v>40.9</v>
       </c>
       <c r="E11" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F11" t="n">
-        <v>516.8754</v>
+        <v>8850</v>
       </c>
       <c r="G11" t="n">
-        <v>40.78499999999998</v>
+        <v>89410.18405121943</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>40.3</v>
       </c>
       <c r="C12" t="n">
-        <v>39.6</v>
+        <v>40.3</v>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>40.3</v>
       </c>
       <c r="E12" t="n">
-        <v>39.6</v>
+        <v>40.3</v>
       </c>
       <c r="F12" t="n">
-        <v>11855.4401</v>
+        <v>2224.0426</v>
       </c>
       <c r="G12" t="n">
-        <v>40.76499999999999</v>
+        <v>87186.14145121943</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="C13" t="n">
-        <v>39.6</v>
+        <v>40.2</v>
       </c>
       <c r="D13" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="E13" t="n">
-        <v>39.6</v>
+        <v>40.2</v>
       </c>
       <c r="F13" t="n">
-        <v>53359.4808</v>
+        <v>3341.9999</v>
       </c>
       <c r="G13" t="n">
-        <v>40.74999999999999</v>
+        <v>83844.14155121944</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>39.9</v>
+        <v>40.2</v>
       </c>
       <c r="C14" t="n">
-        <v>39.9</v>
+        <v>40.2</v>
       </c>
       <c r="D14" t="n">
-        <v>39.9</v>
+        <v>40.2</v>
       </c>
       <c r="E14" t="n">
-        <v>39.9</v>
+        <v>40.2</v>
       </c>
       <c r="F14" t="n">
-        <v>1231.343</v>
+        <v>13471.7775</v>
       </c>
       <c r="G14" t="n">
-        <v>40.72499999999999</v>
+        <v>83844.14155121944</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="F15" t="n">
-        <v>6900</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>40.70499999999999</v>
+        <v>83854.14155121944</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -945,19 +945,19 @@
         <v>40.1</v>
       </c>
       <c r="C16" t="n">
-        <v>40.2</v>
+        <v>39.9</v>
       </c>
       <c r="D16" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="E16" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="F16" t="n">
-        <v>36300</v>
+        <v>9073.958000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>40.66499999999999</v>
+        <v>74780.18355121944</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="C17" t="n">
-        <v>40.2</v>
+        <v>39.7</v>
       </c>
       <c r="D17" t="n">
-        <v>40.2</v>
+        <v>39.8</v>
       </c>
       <c r="E17" t="n">
-        <v>40.1</v>
+        <v>39.7</v>
       </c>
       <c r="F17" t="n">
-        <v>3650</v>
+        <v>9811.7904</v>
       </c>
       <c r="G17" t="n">
-        <v>40.62499999999999</v>
+        <v>64968.39315121944</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="C18" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="D18" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="E18" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="F18" t="n">
-        <v>9600</v>
+        <v>5060.5782</v>
       </c>
       <c r="G18" t="n">
-        <v>40.58499999999999</v>
+        <v>59907.81495121944</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>40.2</v>
+        <v>39.6</v>
       </c>
       <c r="C19" t="n">
-        <v>40.6</v>
+        <v>39.5</v>
       </c>
       <c r="D19" t="n">
-        <v>40.9</v>
+        <v>39.6</v>
       </c>
       <c r="E19" t="n">
-        <v>40.2</v>
+        <v>39.5</v>
       </c>
       <c r="F19" t="n">
-        <v>21806.2962</v>
+        <v>18846.3724</v>
       </c>
       <c r="G19" t="n">
-        <v>40.545</v>
+        <v>41061.44255121944</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>41</v>
+        <v>39.3</v>
       </c>
       <c r="C20" t="n">
-        <v>41.2</v>
+        <v>39.1</v>
       </c>
       <c r="D20" t="n">
-        <v>41.2</v>
+        <v>39.3</v>
       </c>
       <c r="E20" t="n">
-        <v>41</v>
+        <v>39.1</v>
       </c>
       <c r="F20" t="n">
-        <v>18300</v>
+        <v>8082.2167</v>
       </c>
       <c r="G20" t="n">
-        <v>40.545</v>
+        <v>32979.22585121944</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,32 +1122,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>41.2</v>
+        <v>39.1</v>
       </c>
       <c r="C21" t="n">
-        <v>41.2</v>
+        <v>39</v>
       </c>
       <c r="D21" t="n">
-        <v>41.2</v>
+        <v>39.1</v>
       </c>
       <c r="E21" t="n">
-        <v>41.2</v>
+        <v>39</v>
       </c>
       <c r="F21" t="n">
-        <v>23116.7961</v>
+        <v>9594.6181</v>
       </c>
       <c r="G21" t="n">
-        <v>40.55</v>
+        <v>23384.60775121944</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>39.1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1164,38 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" t="n">
-        <v>41</v>
+        <v>39.6</v>
       </c>
       <c r="D22" t="n">
-        <v>41</v>
+        <v>39.6</v>
       </c>
       <c r="E22" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>14836.0707</v>
       </c>
       <c r="G22" t="n">
-        <v>40.535</v>
+        <v>38220.67845121944</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>39</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1206,38 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>41</v>
+        <v>39.6</v>
       </c>
       <c r="C23" t="n">
-        <v>41</v>
+        <v>39.8</v>
       </c>
       <c r="D23" t="n">
-        <v>41</v>
+        <v>39.9</v>
       </c>
       <c r="E23" t="n">
-        <v>41</v>
+        <v>39.6</v>
       </c>
       <c r="F23" t="n">
-        <v>7534.5169</v>
+        <v>5853</v>
       </c>
       <c r="G23" t="n">
-        <v>40.52</v>
+        <v>44073.67845121944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>39.6</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1248,38 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>40.6</v>
+        <v>39.2</v>
       </c>
       <c r="C24" t="n">
-        <v>40.6</v>
+        <v>39.2</v>
       </c>
       <c r="D24" t="n">
-        <v>40.6</v>
+        <v>39.2</v>
       </c>
       <c r="E24" t="n">
-        <v>40.6</v>
+        <v>39.2</v>
       </c>
       <c r="F24" t="n">
-        <v>49.261</v>
+        <v>5695.3716</v>
       </c>
       <c r="G24" t="n">
-        <v>40.50000000000001</v>
+        <v>38378.30685121944</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>39.8</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1290,38 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>40.6</v>
+        <v>39</v>
       </c>
       <c r="C25" t="n">
-        <v>40.6</v>
+        <v>39</v>
       </c>
       <c r="D25" t="n">
-        <v>40.6</v>
+        <v>39</v>
       </c>
       <c r="E25" t="n">
-        <v>40.6</v>
+        <v>39</v>
       </c>
       <c r="F25" t="n">
-        <v>1436.9376</v>
+        <v>5140.2992</v>
       </c>
       <c r="G25" t="n">
-        <v>40.48</v>
+        <v>33238.00765121944</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1332,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40.4</v>
+        <v>39.2</v>
       </c>
       <c r="C26" t="n">
-        <v>40.4</v>
+        <v>39.2</v>
       </c>
       <c r="D26" t="n">
-        <v>40.4</v>
+        <v>39.2</v>
       </c>
       <c r="E26" t="n">
-        <v>40.4</v>
+        <v>39.2</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>18202.9131</v>
       </c>
       <c r="G26" t="n">
-        <v>40.46000000000001</v>
+        <v>51440.92075121944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>39</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1374,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" t="n">
-        <v>41.4</v>
+        <v>39.1</v>
       </c>
       <c r="D27" t="n">
-        <v>41.4</v>
+        <v>39.1</v>
       </c>
       <c r="E27" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F27" t="n">
-        <v>17700</v>
+        <v>9046.284</v>
       </c>
       <c r="G27" t="n">
-        <v>40.46000000000001</v>
+        <v>42394.63675121944</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1416,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>41.3</v>
+        <v>39.2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.5</v>
+        <v>39.2</v>
       </c>
       <c r="D28" t="n">
-        <v>41.5</v>
+        <v>39.2</v>
       </c>
       <c r="E28" t="n">
-        <v>41.3</v>
+        <v>39.2</v>
       </c>
       <c r="F28" t="n">
-        <v>142504.7877</v>
+        <v>1274.5842</v>
       </c>
       <c r="G28" t="n">
-        <v>40.465</v>
+        <v>43669.22095121944</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>39.1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,32 +1458,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>41.4</v>
+        <v>39.3</v>
       </c>
       <c r="C29" t="n">
-        <v>41.4</v>
+        <v>39.3</v>
       </c>
       <c r="D29" t="n">
-        <v>41.4</v>
+        <v>39.3</v>
       </c>
       <c r="E29" t="n">
-        <v>41.4</v>
+        <v>39.3</v>
       </c>
       <c r="F29" t="n">
-        <v>2642.3467</v>
+        <v>5994.1566</v>
       </c>
       <c r="G29" t="n">
-        <v>40.52</v>
+        <v>49663.37755121944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>39.2</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1500,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="C30" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="D30" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="E30" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="F30" t="n">
-        <v>4518.4132</v>
+        <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>40.58</v>
+        <v>49683.37755121944</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>39.3</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,32 +1542,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="C31" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="D31" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="E31" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="F31" t="n">
-        <v>1211</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>40.645</v>
+        <v>49683.37755121944</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1584,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="C32" t="n">
-        <v>41.5</v>
+        <v>39.4</v>
       </c>
       <c r="D32" t="n">
-        <v>41.5</v>
+        <v>39.4</v>
       </c>
       <c r="E32" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="F32" t="n">
-        <v>8100</v>
+        <v>20</v>
       </c>
       <c r="G32" t="n">
-        <v>40.715</v>
+        <v>49683.37755121944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1626,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="C33" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="D33" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="E33" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="F33" t="n">
-        <v>3976</v>
+        <v>8238.9252</v>
       </c>
       <c r="G33" t="n">
-        <v>40.77999999999999</v>
+        <v>49683.37755121944</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1668,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>41.2</v>
+        <v>39.2</v>
       </c>
       <c r="C34" t="n">
-        <v>41.2</v>
+        <v>38.7</v>
       </c>
       <c r="D34" t="n">
-        <v>41.2</v>
+        <v>39.2</v>
       </c>
       <c r="E34" t="n">
-        <v>41.2</v>
+        <v>38.7</v>
       </c>
       <c r="F34" t="n">
-        <v>12.1359</v>
+        <v>4398.6128</v>
       </c>
       <c r="G34" t="n">
-        <v>40.845</v>
+        <v>45284.76475121944</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1710,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>41.1</v>
+        <v>38.7</v>
       </c>
       <c r="C35" t="n">
-        <v>41.1</v>
+        <v>38.7</v>
       </c>
       <c r="D35" t="n">
-        <v>41.1</v>
+        <v>38.7</v>
       </c>
       <c r="E35" t="n">
-        <v>41.1</v>
+        <v>38.7</v>
       </c>
       <c r="F35" t="n">
-        <v>12.1654</v>
+        <v>82</v>
       </c>
       <c r="G35" t="n">
-        <v>40.9</v>
+        <v>45284.76475121944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>38.7</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1752,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>41</v>
+        <v>38.7</v>
       </c>
       <c r="C36" t="n">
-        <v>41</v>
+        <v>38.7</v>
       </c>
       <c r="D36" t="n">
-        <v>41</v>
+        <v>38.7</v>
       </c>
       <c r="E36" t="n">
-        <v>41</v>
+        <v>38.7</v>
       </c>
       <c r="F36" t="n">
-        <v>24.3902</v>
+        <v>165</v>
       </c>
       <c r="G36" t="n">
-        <v>40.945</v>
+        <v>45284.76475121944</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>38.7</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1794,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>40.9</v>
+        <v>38.8</v>
       </c>
       <c r="C37" t="n">
-        <v>40.8</v>
+        <v>38.8</v>
       </c>
       <c r="D37" t="n">
-        <v>40.9</v>
+        <v>38.8</v>
       </c>
       <c r="E37" t="n">
-        <v>40.8</v>
+        <v>38.8</v>
       </c>
       <c r="F37" t="n">
-        <v>23059.0041</v>
+        <v>12.5376</v>
       </c>
       <c r="G37" t="n">
-        <v>40.985</v>
+        <v>45297.30235121944</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>38.7</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,32 +1836,38 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="C38" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="D38" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="E38" t="n">
-        <v>40.8</v>
+        <v>39</v>
       </c>
       <c r="F38" t="n">
-        <v>15993</v>
+        <v>3846.153846153846</v>
       </c>
       <c r="G38" t="n">
-        <v>41.01499999999999</v>
+        <v>49143.45619737329</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>38.8</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,32 +1878,38 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>40.5</v>
+        <v>39.3</v>
       </c>
       <c r="C39" t="n">
-        <v>40.5</v>
+        <v>39.3</v>
       </c>
       <c r="D39" t="n">
-        <v>40.5</v>
+        <v>39.3</v>
       </c>
       <c r="E39" t="n">
-        <v>40.5</v>
+        <v>39.3</v>
       </c>
       <c r="F39" t="n">
-        <v>22218.3372</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>41.02999999999999</v>
+        <v>49153.45619737329</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>39</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +1920,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>40.8</v>
+        <v>39.3</v>
       </c>
       <c r="C40" t="n">
-        <v>40.8</v>
+        <v>39.3</v>
       </c>
       <c r="D40" t="n">
-        <v>40.8</v>
+        <v>39.3</v>
       </c>
       <c r="E40" t="n">
-        <v>40.8</v>
+        <v>39.3</v>
       </c>
       <c r="F40" t="n">
-        <v>1016.1053</v>
+        <v>584.9605</v>
       </c>
       <c r="G40" t="n">
-        <v>41.01999999999999</v>
+        <v>49153.45619737329</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>39.3</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,32 +1962,38 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>40.4</v>
+        <v>39.4</v>
       </c>
       <c r="C41" t="n">
-        <v>40.3</v>
+        <v>39.4</v>
       </c>
       <c r="D41" t="n">
-        <v>40.4</v>
+        <v>39.4</v>
       </c>
       <c r="E41" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="F41" t="n">
-        <v>36150</v>
+        <v>1653.3453</v>
       </c>
       <c r="G41" t="n">
-        <v>40.97999999999998</v>
+        <v>50806.80149737329</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>39.3</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +2004,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>40.6</v>
+        <v>39.4</v>
       </c>
       <c r="C42" t="n">
-        <v>40.6</v>
+        <v>39.4</v>
       </c>
       <c r="D42" t="n">
-        <v>40.6</v>
+        <v>39.4</v>
       </c>
       <c r="E42" t="n">
-        <v>40.6</v>
+        <v>39.4</v>
       </c>
       <c r="F42" t="n">
-        <v>11</v>
+        <v>790</v>
       </c>
       <c r="G42" t="n">
-        <v>40.95999999999999</v>
+        <v>50806.80149737329</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2046,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="C43" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="D43" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="E43" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="F43" t="n">
-        <v>3000</v>
+        <v>17450.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>40.91499999999998</v>
+        <v>68257.80139737329</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1939,7 +2071,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2086,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>40.4</v>
+        <v>39.5</v>
       </c>
       <c r="C44" t="n">
-        <v>40.4</v>
+        <v>39.5</v>
       </c>
       <c r="D44" t="n">
-        <v>40.4</v>
+        <v>39.5</v>
       </c>
       <c r="E44" t="n">
-        <v>40.4</v>
+        <v>39.5</v>
       </c>
       <c r="F44" t="n">
-        <v>123.5241</v>
+        <v>849.1204</v>
       </c>
       <c r="G44" t="n">
-        <v>40.90499999999999</v>
+        <v>68257.80139737329</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1975,7 +2111,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2126,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>40.1</v>
+        <v>39.6</v>
       </c>
       <c r="C45" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="D45" t="n">
-        <v>40.4</v>
+        <v>39.6</v>
       </c>
       <c r="E45" t="n">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="F45" t="n">
-        <v>18854.6806</v>
+        <v>12668.8733</v>
       </c>
       <c r="G45" t="n">
-        <v>40.87999999999998</v>
+        <v>80926.6746973733</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2011,7 +2151,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2166,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="C46" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="D46" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="E46" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="F46" t="n">
-        <v>4975.0623</v>
+        <v>81804</v>
       </c>
       <c r="G46" t="n">
-        <v>40.81999999999999</v>
+        <v>162730.6746973733</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2047,7 +2191,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2206,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="C47" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="D47" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="E47" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="F47" t="n">
-        <v>7795.18</v>
+        <v>27951</v>
       </c>
       <c r="G47" t="n">
-        <v>40.72999999999999</v>
+        <v>162730.6746973733</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2083,7 +2231,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,36 +2246,36 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="C48" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="D48" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="E48" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="F48" t="n">
-        <v>3512.994</v>
+        <v>952.1566</v>
       </c>
       <c r="G48" t="n">
-        <v>40.62499999999999</v>
+        <v>162730.6746973733</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K48" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2134,38 +2286,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="C49" t="n">
-        <v>38.9</v>
+        <v>39.8</v>
       </c>
       <c r="D49" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="E49" t="n">
-        <v>38.9</v>
+        <v>39.8</v>
       </c>
       <c r="F49" t="n">
-        <v>2400</v>
+        <v>6310.9389</v>
       </c>
       <c r="G49" t="n">
-        <v>40.505</v>
+        <v>169041.6135973733</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -2178,35 +2326,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>38.7</v>
+        <v>40</v>
       </c>
       <c r="C50" t="n">
-        <v>38.7</v>
+        <v>40</v>
       </c>
       <c r="D50" t="n">
-        <v>38.7</v>
+        <v>40</v>
       </c>
       <c r="E50" t="n">
-        <v>38.7</v>
+        <v>40</v>
       </c>
       <c r="F50" t="n">
-        <v>661.826</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>40.37</v>
+        <v>169051.6135973733</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="K50" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2222,35 +2366,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="C51" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="D51" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="E51" t="n">
-        <v>39.6</v>
+        <v>40.4</v>
       </c>
       <c r="F51" t="n">
-        <v>11</v>
+        <v>29241</v>
       </c>
       <c r="G51" t="n">
-        <v>40.28</v>
+        <v>198292.6135973733</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K51" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2266,35 +2406,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="C52" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="D52" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="E52" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="F52" t="n">
-        <v>25</v>
+        <v>8519.9998</v>
       </c>
       <c r="G52" t="n">
-        <v>40.22000000000001</v>
+        <v>189772.6137973733</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="K52" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2310,35 +2446,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>39.5</v>
+        <v>40.3</v>
       </c>
       <c r="C53" t="n">
-        <v>39.5</v>
+        <v>40.4</v>
       </c>
       <c r="D53" t="n">
-        <v>39.5</v>
+        <v>40.4</v>
       </c>
       <c r="E53" t="n">
-        <v>39.5</v>
+        <v>40.3</v>
       </c>
       <c r="F53" t="n">
-        <v>5790.6316</v>
+        <v>11062.9561</v>
       </c>
       <c r="G53" t="n">
-        <v>40.12500000000001</v>
+        <v>200835.5698973733</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="K53" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2354,22 +2486,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="C54" t="n">
-        <v>40.1</v>
+        <v>41</v>
       </c>
       <c r="D54" t="n">
-        <v>40.3</v>
+        <v>41</v>
       </c>
       <c r="E54" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="F54" t="n">
-        <v>21253.277</v>
+        <v>2443.927825365854</v>
       </c>
       <c r="G54" t="n">
-        <v>40.075</v>
+        <v>203279.4977227392</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2378,9 +2510,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2396,22 +2526,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="C55" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="D55" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="E55" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="F55" t="n">
-        <v>20700</v>
+        <v>2356.8901</v>
       </c>
       <c r="G55" t="n">
-        <v>40.04000000000001</v>
+        <v>200922.6076227392</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2420,9 +2550,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2438,35 +2566,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="C56" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="D56" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="E56" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="F56" t="n">
-        <v>5700</v>
+        <v>5815.2535</v>
       </c>
       <c r="G56" t="n">
-        <v>40.03</v>
+        <v>195107.3541227392</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="K56" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2482,35 +2606,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="C57" t="n">
-        <v>41.2</v>
+        <v>40.6</v>
       </c>
       <c r="D57" t="n">
-        <v>41.2</v>
+        <v>40.6</v>
       </c>
       <c r="E57" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="F57" t="n">
-        <v>2250</v>
+        <v>5233.7281</v>
       </c>
       <c r="G57" t="n">
-        <v>40.035</v>
+        <v>189873.6260227392</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="K57" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2526,22 +2646,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="C58" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="D58" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="E58" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="F58" t="n">
-        <v>1363.8397</v>
+        <v>8403.729600000001</v>
       </c>
       <c r="G58" t="n">
-        <v>40.03000000000001</v>
+        <v>198277.3556227392</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2550,9 +2670,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2568,22 +2686,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="C59" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="D59" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="E59" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="F59" t="n">
-        <v>1209.6956</v>
+        <v>2290.7713</v>
       </c>
       <c r="G59" t="n">
-        <v>40.03500000000001</v>
+        <v>198277.3556227392</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2592,9 +2710,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2610,22 +2726,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="C60" t="n">
-        <v>41.4</v>
+        <v>40.7</v>
       </c>
       <c r="D60" t="n">
-        <v>41.4</v>
+        <v>40.7</v>
       </c>
       <c r="E60" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="F60" t="n">
-        <v>21947.6338</v>
+        <v>1907.6939</v>
       </c>
       <c r="G60" t="n">
-        <v>40.02500000000001</v>
+        <v>196369.6617227392</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2634,9 +2750,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2652,22 +2766,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="C61" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="D61" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="E61" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="F61" t="n">
-        <v>1319</v>
+        <v>1623</v>
       </c>
       <c r="G61" t="n">
-        <v>40.04000000000001</v>
+        <v>197992.6617227392</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2676,9 +2790,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2694,22 +2806,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>41.3</v>
+        <v>40.5</v>
       </c>
       <c r="C62" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="D62" t="n">
-        <v>41.3</v>
+        <v>40.5</v>
       </c>
       <c r="E62" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>1173.8099</v>
       </c>
       <c r="G62" t="n">
-        <v>40.07500000000001</v>
+        <v>196818.8518227392</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2718,9 +2830,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2736,22 +2846,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="C63" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="D63" t="n">
-        <v>41.4</v>
+        <v>40.4</v>
       </c>
       <c r="E63" t="n">
-        <v>40.7</v>
+        <v>40.4</v>
       </c>
       <c r="F63" t="n">
-        <v>4933.2083</v>
+        <v>238.2805</v>
       </c>
       <c r="G63" t="n">
-        <v>40.13500000000001</v>
+        <v>196818.8518227392</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2760,9 +2870,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2778,22 +2886,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>41.1</v>
+        <v>40.4</v>
       </c>
       <c r="C64" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="D64" t="n">
-        <v>41.1</v>
+        <v>40.4</v>
       </c>
       <c r="E64" t="n">
-        <v>41</v>
+        <v>40.4</v>
       </c>
       <c r="F64" t="n">
-        <v>14775.9999</v>
+        <v>1808.9999</v>
       </c>
       <c r="G64" t="n">
-        <v>40.17000000000001</v>
+        <v>196818.8518227392</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2802,9 +2910,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2820,22 +2926,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="C65" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="D65" t="n">
-        <v>41.3</v>
+        <v>40.4</v>
       </c>
       <c r="E65" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="F65" t="n">
-        <v>9236.3264</v>
+        <v>22262.8998</v>
       </c>
       <c r="G65" t="n">
-        <v>40.23</v>
+        <v>196818.8518227392</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2844,9 +2950,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2862,7 +2966,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="C66" t="n">
         <v>40.8</v>
@@ -2871,13 +2975,13 @@
         <v>40.8</v>
       </c>
       <c r="E66" t="n">
-        <v>40.8</v>
+        <v>40.4</v>
       </c>
       <c r="F66" t="n">
-        <v>22713.7483</v>
+        <v>30435.2142</v>
       </c>
       <c r="G66" t="n">
-        <v>40.31</v>
+        <v>227254.0660227392</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2886,9 +2990,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2904,22 +3006,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="C67" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="D67" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="E67" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="F67" t="n">
-        <v>7495.3883</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="n">
-        <v>40.405</v>
+        <v>228254.0660227392</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2928,9 +3030,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2946,22 +3046,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="C68" t="n">
-        <v>41.4</v>
+        <v>40.9</v>
       </c>
       <c r="D68" t="n">
-        <v>41.4</v>
+        <v>40.9</v>
       </c>
       <c r="E68" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="F68" t="n">
-        <v>39900</v>
+        <v>3867.7194</v>
       </c>
       <c r="G68" t="n">
-        <v>40.505</v>
+        <v>228254.0660227392</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2970,9 +3070,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2988,22 +3086,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="C69" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="D69" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="E69" t="n">
-        <v>41.4</v>
+        <v>41</v>
       </c>
       <c r="F69" t="n">
-        <v>27308.2367</v>
+        <v>2726.2231</v>
       </c>
       <c r="G69" t="n">
-        <v>40.625</v>
+        <v>230980.2891227392</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3012,9 +3110,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3030,22 +3126,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="C70" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="D70" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="E70" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="F70" t="n">
-        <v>94296.3855</v>
+        <v>817.4386</v>
       </c>
       <c r="G70" t="n">
-        <v>40.755</v>
+        <v>230980.2891227392</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3054,9 +3150,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3072,22 +3166,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="C71" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="D71" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="E71" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="F71" t="n">
-        <v>7607.4226</v>
+        <v>91588.1452</v>
       </c>
       <c r="G71" t="n">
-        <v>40.84999999999999</v>
+        <v>230980.2891227392</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3096,9 +3190,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3114,22 +3206,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>41.5</v>
+        <v>41.1</v>
       </c>
       <c r="C72" t="n">
-        <v>41.6</v>
+        <v>41.3</v>
       </c>
       <c r="D72" t="n">
-        <v>41.6</v>
+        <v>41.3</v>
       </c>
       <c r="E72" t="n">
-        <v>41.5</v>
+        <v>41.1</v>
       </c>
       <c r="F72" t="n">
-        <v>23729.5949</v>
+        <v>17800.0069</v>
       </c>
       <c r="G72" t="n">
-        <v>40.91499999999999</v>
+        <v>248780.2960227392</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3138,9 +3230,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3156,22 +3246,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="C73" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="D73" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="E73" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="F73" t="n">
-        <v>2156.1019</v>
+        <v>6072.8973</v>
       </c>
       <c r="G73" t="n">
-        <v>41.02499999999999</v>
+        <v>248780.2960227392</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3180,9 +3270,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3198,22 +3286,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="C74" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="D74" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="E74" t="n">
-        <v>41.7</v>
+        <v>41.3</v>
       </c>
       <c r="F74" t="n">
-        <v>2887</v>
+        <v>17794.0579</v>
       </c>
       <c r="G74" t="n">
-        <v>41.09999999999999</v>
+        <v>266574.3539227392</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3222,9 +3310,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3240,22 +3326,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>41.7</v>
+        <v>41</v>
       </c>
       <c r="C75" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="D75" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="E75" t="n">
-        <v>41.7</v>
+        <v>41</v>
       </c>
       <c r="F75" t="n">
-        <v>8850</v>
+        <v>6212.315</v>
       </c>
       <c r="G75" t="n">
-        <v>41.165</v>
+        <v>260362.0389227392</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3264,9 +3350,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3282,22 +3366,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="C76" t="n">
-        <v>41.8</v>
+        <v>41.4</v>
       </c>
       <c r="D76" t="n">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="E76" t="n">
-        <v>41.8</v>
+        <v>41</v>
       </c>
       <c r="F76" t="n">
-        <v>20216.6604</v>
+        <v>22032</v>
       </c>
       <c r="G76" t="n">
-        <v>41.235</v>
+        <v>282394.0389227392</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3306,9 +3390,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3324,22 +3406,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>41.9</v>
+        <v>40.8</v>
       </c>
       <c r="C77" t="n">
-        <v>41.9</v>
+        <v>40.1</v>
       </c>
       <c r="D77" t="n">
-        <v>41.9</v>
+        <v>40.8</v>
       </c>
       <c r="E77" t="n">
-        <v>41.9</v>
+        <v>40.1</v>
       </c>
       <c r="F77" t="n">
-        <v>1009.6513</v>
+        <v>33667.5145</v>
       </c>
       <c r="G77" t="n">
-        <v>41.28</v>
+        <v>248726.5244227392</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3348,9 +3430,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3366,22 +3446,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>41.7</v>
+        <v>41</v>
       </c>
       <c r="C78" t="n">
-        <v>42.2</v>
+        <v>40.1</v>
       </c>
       <c r="D78" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="E78" t="n">
-        <v>41.7</v>
+        <v>40.1</v>
       </c>
       <c r="F78" t="n">
-        <v>1352.8277</v>
+        <v>35660.361</v>
       </c>
       <c r="G78" t="n">
-        <v>41.33</v>
+        <v>248726.5244227392</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3390,9 +3470,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3408,22 +3486,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>41.8</v>
+        <v>41.2</v>
       </c>
       <c r="C79" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="D79" t="n">
-        <v>41.8</v>
+        <v>41.2</v>
       </c>
       <c r="E79" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="F79" t="n">
-        <v>14960.7178</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>41.39</v>
+        <v>248736.5244227392</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3432,9 +3510,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3450,22 +3526,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>41.8</v>
+        <v>40.3</v>
       </c>
       <c r="C80" t="n">
-        <v>41.8</v>
+        <v>40.3</v>
       </c>
       <c r="D80" t="n">
-        <v>41.8</v>
+        <v>40.3</v>
       </c>
       <c r="E80" t="n">
-        <v>41.8</v>
+        <v>40.3</v>
       </c>
       <c r="F80" t="n">
-        <v>24036.1445</v>
+        <v>1231.343</v>
       </c>
       <c r="G80" t="n">
-        <v>41.45</v>
+        <v>247505.1814227392</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3474,9 +3550,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3492,22 +3566,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>41.8</v>
+        <v>40.2</v>
       </c>
       <c r="C81" t="n">
-        <v>41.8</v>
+        <v>40.1</v>
       </c>
       <c r="D81" t="n">
-        <v>41.8</v>
+        <v>40.2</v>
       </c>
       <c r="E81" t="n">
-        <v>41.8</v>
+        <v>40.1</v>
       </c>
       <c r="F81" t="n">
-        <v>1373</v>
+        <v>10000</v>
       </c>
       <c r="G81" t="n">
-        <v>41.50499999999999</v>
+        <v>237505.1814227392</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3516,9 +3590,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3534,22 +3606,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>41.8</v>
+        <v>40.1</v>
       </c>
       <c r="C82" t="n">
-        <v>42.5</v>
+        <v>40.1</v>
       </c>
       <c r="D82" t="n">
-        <v>42.5</v>
+        <v>40.1</v>
       </c>
       <c r="E82" t="n">
-        <v>41.8</v>
+        <v>40.1</v>
       </c>
       <c r="F82" t="n">
-        <v>2393.7909</v>
+        <v>516.8754</v>
       </c>
       <c r="G82" t="n">
-        <v>41.52999999999999</v>
+        <v>237505.1814227392</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3558,9 +3630,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3576,22 +3646,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>42.3</v>
+        <v>40</v>
       </c>
       <c r="C83" t="n">
-        <v>42.5</v>
+        <v>39.6</v>
       </c>
       <c r="D83" t="n">
-        <v>42.5</v>
+        <v>40</v>
       </c>
       <c r="E83" t="n">
-        <v>42.3</v>
+        <v>39.6</v>
       </c>
       <c r="F83" t="n">
-        <v>675.9623</v>
+        <v>11855.4401</v>
       </c>
       <c r="G83" t="n">
-        <v>41.57999999999999</v>
+        <v>225649.7413227392</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3600,9 +3670,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3618,22 +3686,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>42.7</v>
+        <v>40.1</v>
       </c>
       <c r="C84" t="n">
-        <v>43.2</v>
+        <v>39.6</v>
       </c>
       <c r="D84" t="n">
-        <v>43.4</v>
+        <v>40.1</v>
       </c>
       <c r="E84" t="n">
-        <v>42.7</v>
+        <v>39.6</v>
       </c>
       <c r="F84" t="n">
-        <v>51128.4838</v>
+        <v>53359.4808</v>
       </c>
       <c r="G84" t="n">
-        <v>41.65999999999999</v>
+        <v>225649.7413227392</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3642,9 +3710,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3660,22 +3726,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>43.4</v>
+        <v>39.9</v>
       </c>
       <c r="C85" t="n">
-        <v>42.7</v>
+        <v>39.9</v>
       </c>
       <c r="D85" t="n">
-        <v>43.4</v>
+        <v>39.9</v>
       </c>
       <c r="E85" t="n">
-        <v>42.7</v>
+        <v>39.9</v>
       </c>
       <c r="F85" t="n">
-        <v>2449.95</v>
+        <v>1231.343</v>
       </c>
       <c r="G85" t="n">
-        <v>41.76499999999999</v>
+        <v>226881.0843227392</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3684,9 +3750,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3702,22 +3766,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>42.7</v>
+        <v>40</v>
       </c>
       <c r="C86" t="n">
-        <v>43.4</v>
+        <v>40</v>
       </c>
       <c r="D86" t="n">
-        <v>43.4</v>
+        <v>40</v>
       </c>
       <c r="E86" t="n">
-        <v>42.2</v>
+        <v>40</v>
       </c>
       <c r="F86" t="n">
-        <v>11927.8996</v>
+        <v>6900</v>
       </c>
       <c r="G86" t="n">
-        <v>41.86</v>
+        <v>233781.0843227392</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3726,9 +3790,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3744,66 +3806,62 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>43.4</v>
+        <v>40.1</v>
       </c>
       <c r="C87" t="n">
-        <v>42.3</v>
+        <v>40.2</v>
       </c>
       <c r="D87" t="n">
-        <v>43.4</v>
+        <v>40.2</v>
       </c>
       <c r="E87" t="n">
-        <v>42.3</v>
+        <v>40.1</v>
       </c>
       <c r="F87" t="n">
-        <v>1165.4403</v>
+        <v>36300</v>
       </c>
       <c r="G87" t="n">
-        <v>41.97499999999999</v>
+        <v>270081.0843227392</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1.074081632653061</v>
-      </c>
-      <c r="N87" t="n">
-        <v>1.058673469387755</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>43</v>
+        <v>40.1</v>
       </c>
       <c r="C88" t="n">
-        <v>43.3</v>
+        <v>40.2</v>
       </c>
       <c r="D88" t="n">
-        <v>43.3</v>
+        <v>40.2</v>
       </c>
       <c r="E88" t="n">
-        <v>43</v>
+        <v>40.1</v>
       </c>
       <c r="F88" t="n">
-        <v>15766.69091316397</v>
+        <v>3650</v>
       </c>
       <c r="G88" t="n">
-        <v>42.06499999999999</v>
+        <v>270081.0843227392</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3813,7 +3871,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3824,32 +3886,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>42.3</v>
+        <v>40.2</v>
       </c>
       <c r="C89" t="n">
-        <v>42.1</v>
+        <v>40.2</v>
       </c>
       <c r="D89" t="n">
-        <v>42.3</v>
+        <v>40.2</v>
       </c>
       <c r="E89" t="n">
-        <v>42.1</v>
+        <v>40.2</v>
       </c>
       <c r="F89" t="n">
-        <v>6315.77</v>
+        <v>9600</v>
       </c>
       <c r="G89" t="n">
-        <v>42.10999999999999</v>
+        <v>270081.0843227392</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3860,32 +3926,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>42.2</v>
+        <v>40.2</v>
       </c>
       <c r="C90" t="n">
-        <v>42.2</v>
+        <v>40.6</v>
       </c>
       <c r="D90" t="n">
-        <v>42.2</v>
+        <v>40.9</v>
       </c>
       <c r="E90" t="n">
-        <v>42.2</v>
+        <v>40.2</v>
       </c>
       <c r="F90" t="n">
-        <v>736.8483</v>
+        <v>21806.2962</v>
       </c>
       <c r="G90" t="n">
-        <v>42.15499999999999</v>
+        <v>291887.3805227391</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3896,32 +3966,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="C91" t="n">
-        <v>42.3</v>
+        <v>41.2</v>
       </c>
       <c r="D91" t="n">
-        <v>42.3</v>
+        <v>41.2</v>
       </c>
       <c r="E91" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="F91" t="n">
-        <v>395.255</v>
+        <v>18300</v>
       </c>
       <c r="G91" t="n">
-        <v>42.19</v>
+        <v>310187.3805227391</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3932,32 +4006,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>42.2</v>
+        <v>41.2</v>
       </c>
       <c r="C92" t="n">
-        <v>42</v>
+        <v>41.2</v>
       </c>
       <c r="D92" t="n">
-        <v>42.2</v>
+        <v>41.2</v>
       </c>
       <c r="E92" t="n">
-        <v>42</v>
+        <v>41.2</v>
       </c>
       <c r="F92" t="n">
-        <v>7982.5221</v>
+        <v>23116.7961</v>
       </c>
       <c r="G92" t="n">
-        <v>42.225</v>
+        <v>310187.3805227391</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3968,32 +4046,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>41.8</v>
+        <v>41</v>
       </c>
       <c r="C93" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="D93" t="n">
-        <v>41.8</v>
+        <v>41</v>
       </c>
       <c r="E93" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="F93" t="n">
-        <v>6131.3393</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>42.23</v>
+        <v>310177.3805227391</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4004,22 +4086,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="C94" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="D94" t="n">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="E94" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="F94" t="n">
-        <v>64040.702</v>
+        <v>7534.5169</v>
       </c>
       <c r="G94" t="n">
-        <v>42.21999999999999</v>
+        <v>310177.3805227391</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4029,7 +4111,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4040,22 +4126,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>41.7</v>
+        <v>40.6</v>
       </c>
       <c r="C95" t="n">
-        <v>42</v>
+        <v>40.6</v>
       </c>
       <c r="D95" t="n">
-        <v>42</v>
+        <v>40.6</v>
       </c>
       <c r="E95" t="n">
-        <v>41.7</v>
+        <v>40.6</v>
       </c>
       <c r="F95" t="n">
-        <v>3930.3507</v>
+        <v>49.261</v>
       </c>
       <c r="G95" t="n">
-        <v>42.21999999999999</v>
+        <v>310128.1195227391</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4065,7 +4151,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4076,22 +4166,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>42</v>
+        <v>40.6</v>
       </c>
       <c r="C96" t="n">
-        <v>42.3</v>
+        <v>40.6</v>
       </c>
       <c r="D96" t="n">
-        <v>42.3</v>
+        <v>40.6</v>
       </c>
       <c r="E96" t="n">
-        <v>42</v>
+        <v>40.6</v>
       </c>
       <c r="F96" t="n">
-        <v>70650</v>
+        <v>1436.9376</v>
       </c>
       <c r="G96" t="n">
-        <v>42.20999999999999</v>
+        <v>310128.1195227391</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4101,7 +4191,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4112,22 +4206,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>42.7</v>
+        <v>40.4</v>
       </c>
       <c r="C97" t="n">
-        <v>42.6</v>
+        <v>40.4</v>
       </c>
       <c r="D97" t="n">
-        <v>42.7</v>
+        <v>40.4</v>
       </c>
       <c r="E97" t="n">
-        <v>42.6</v>
+        <v>40.4</v>
       </c>
       <c r="F97" t="n">
-        <v>12450</v>
+        <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>42.24999999999999</v>
+        <v>310118.1195227391</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4137,7 +4231,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4148,22 +4246,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>42.2</v>
+        <v>41</v>
       </c>
       <c r="C98" t="n">
-        <v>42.1</v>
+        <v>41.4</v>
       </c>
       <c r="D98" t="n">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="E98" t="n">
-        <v>42.1</v>
+        <v>41</v>
       </c>
       <c r="F98" t="n">
-        <v>4213.2652</v>
+        <v>17700</v>
       </c>
       <c r="G98" t="n">
-        <v>42.27499999999999</v>
+        <v>327818.1195227391</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4173,7 +4271,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4184,22 +4286,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>42.9</v>
+        <v>41.3</v>
       </c>
       <c r="C99" t="n">
-        <v>43.2</v>
+        <v>41.5</v>
       </c>
       <c r="D99" t="n">
-        <v>43.2</v>
+        <v>41.5</v>
       </c>
       <c r="E99" t="n">
-        <v>42.9</v>
+        <v>41.3</v>
       </c>
       <c r="F99" t="n">
-        <v>48034.389</v>
+        <v>142504.7877</v>
       </c>
       <c r="G99" t="n">
-        <v>42.33</v>
+        <v>470322.9072227391</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4209,7 +4311,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4220,32 +4326,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>42.9</v>
+        <v>41.4</v>
       </c>
       <c r="C100" t="n">
-        <v>42.9</v>
+        <v>41.4</v>
       </c>
       <c r="D100" t="n">
-        <v>42.9</v>
+        <v>41.4</v>
       </c>
       <c r="E100" t="n">
-        <v>42.9</v>
+        <v>41.4</v>
       </c>
       <c r="F100" t="n">
-        <v>2297.2378</v>
+        <v>2642.3467</v>
       </c>
       <c r="G100" t="n">
-        <v>42.385</v>
+        <v>467680.5605227391</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4256,32 +4366,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>42.8</v>
+        <v>41.4</v>
       </c>
       <c r="C101" t="n">
-        <v>42.8</v>
+        <v>41.4</v>
       </c>
       <c r="D101" t="n">
-        <v>42.8</v>
+        <v>41.4</v>
       </c>
       <c r="E101" t="n">
-        <v>42.8</v>
+        <v>41.4</v>
       </c>
       <c r="F101" t="n">
-        <v>6720.5373</v>
+        <v>4518.4132</v>
       </c>
       <c r="G101" t="n">
-        <v>42.435</v>
+        <v>467680.5605227391</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4292,32 +4406,36 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>42.6</v>
+        <v>41.4</v>
       </c>
       <c r="C102" t="n">
-        <v>42.7</v>
+        <v>41.4</v>
       </c>
       <c r="D102" t="n">
-        <v>42.7</v>
+        <v>41.4</v>
       </c>
       <c r="E102" t="n">
-        <v>42.6</v>
+        <v>41.4</v>
       </c>
       <c r="F102" t="n">
-        <v>15000</v>
+        <v>1211</v>
       </c>
       <c r="G102" t="n">
-        <v>42.475</v>
+        <v>467680.5605227391</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4328,32 +4446,36 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>42.5</v>
+        <v>41.4</v>
       </c>
       <c r="C103" t="n">
-        <v>42.5</v>
+        <v>41.5</v>
       </c>
       <c r="D103" t="n">
-        <v>42.5</v>
+        <v>41.5</v>
       </c>
       <c r="E103" t="n">
-        <v>42.5</v>
+        <v>41.4</v>
       </c>
       <c r="F103" t="n">
-        <v>500</v>
+        <v>8100</v>
       </c>
       <c r="G103" t="n">
-        <v>42.485</v>
+        <v>475780.5605227391</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4364,32 +4486,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="C104" t="n">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="D104" t="n">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="E104" t="n">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="F104" t="n">
-        <v>13005.3554</v>
+        <v>3976</v>
       </c>
       <c r="G104" t="n">
-        <v>42.46</v>
+        <v>471804.5605227391</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4400,32 +4526,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>42</v>
+        <v>41.2</v>
       </c>
       <c r="C105" t="n">
-        <v>42</v>
+        <v>41.2</v>
       </c>
       <c r="D105" t="n">
-        <v>42</v>
+        <v>41.2</v>
       </c>
       <c r="E105" t="n">
-        <v>42</v>
+        <v>41.2</v>
       </c>
       <c r="F105" t="n">
-        <v>7303.5804</v>
+        <v>12.1359</v>
       </c>
       <c r="G105" t="n">
-        <v>42.39</v>
+        <v>471792.4246227391</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4436,32 +4566,36 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>42</v>
+        <v>41.1</v>
       </c>
       <c r="C106" t="n">
-        <v>41.9</v>
+        <v>41.1</v>
       </c>
       <c r="D106" t="n">
-        <v>42</v>
+        <v>41.1</v>
       </c>
       <c r="E106" t="n">
-        <v>41.9</v>
+        <v>41.1</v>
       </c>
       <c r="F106" t="n">
-        <v>6703.736</v>
+        <v>12.1654</v>
       </c>
       <c r="G106" t="n">
-        <v>42.355</v>
+        <v>471780.2592227391</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4472,32 +4606,36 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>41.9</v>
+        <v>41</v>
       </c>
       <c r="C107" t="n">
-        <v>42.4</v>
+        <v>41</v>
       </c>
       <c r="D107" t="n">
-        <v>42.4</v>
+        <v>41</v>
       </c>
       <c r="E107" t="n">
-        <v>41.9</v>
+        <v>41</v>
       </c>
       <c r="F107" t="n">
-        <v>972.9234584905661</v>
+        <v>24.3902</v>
       </c>
       <c r="G107" t="n">
-        <v>42.28</v>
+        <v>471755.8690227391</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4508,32 +4646,36 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>42.3</v>
+        <v>40.9</v>
       </c>
       <c r="C108" t="n">
-        <v>42.4</v>
+        <v>40.8</v>
       </c>
       <c r="D108" t="n">
-        <v>42.4</v>
+        <v>40.9</v>
       </c>
       <c r="E108" t="n">
-        <v>42.3</v>
+        <v>40.8</v>
       </c>
       <c r="F108" t="n">
-        <v>3945.8068</v>
+        <v>23059.0041</v>
       </c>
       <c r="G108" t="n">
-        <v>42.245</v>
+        <v>448696.8649227391</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4544,32 +4686,36 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>42</v>
+        <v>40.8</v>
       </c>
       <c r="C109" t="n">
-        <v>42</v>
+        <v>40.8</v>
       </c>
       <c r="D109" t="n">
-        <v>42</v>
+        <v>40.8</v>
       </c>
       <c r="E109" t="n">
-        <v>42</v>
+        <v>40.8</v>
       </c>
       <c r="F109" t="n">
-        <v>21717.6233</v>
+        <v>15993</v>
       </c>
       <c r="G109" t="n">
-        <v>42.23</v>
+        <v>448696.8649227391</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4580,32 +4726,36 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="C110" t="n">
-        <v>41.5</v>
+        <v>40.5</v>
       </c>
       <c r="D110" t="n">
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="E110" t="n">
-        <v>41.5</v>
+        <v>40.5</v>
       </c>
       <c r="F110" t="n">
-        <v>21180.1798</v>
+        <v>22218.3372</v>
       </c>
       <c r="G110" t="n">
-        <v>42.22</v>
+        <v>426478.5277227391</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4616,32 +4766,36 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>41.3</v>
+        <v>40.8</v>
       </c>
       <c r="C111" t="n">
-        <v>41.3</v>
+        <v>40.8</v>
       </c>
       <c r="D111" t="n">
-        <v>41.3</v>
+        <v>40.8</v>
       </c>
       <c r="E111" t="n">
-        <v>41.3</v>
+        <v>40.8</v>
       </c>
       <c r="F111" t="n">
-        <v>474.525</v>
+        <v>1016.1053</v>
       </c>
       <c r="G111" t="n">
-        <v>42.175</v>
+        <v>427494.6330227391</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4652,36 +4806,2770 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>41.9</v>
+        <v>40.4</v>
       </c>
       <c r="C112" t="n">
-        <v>42</v>
+        <v>40.3</v>
       </c>
       <c r="D112" t="n">
-        <v>42</v>
+        <v>40.4</v>
       </c>
       <c r="E112" t="n">
-        <v>41.9</v>
+        <v>40.2</v>
       </c>
       <c r="F112" t="n">
-        <v>12894.3499</v>
+        <v>36150</v>
       </c>
       <c r="G112" t="n">
-        <v>42.15999999999999</v>
+        <v>391344.6330227391</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
       <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C113" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D113" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E113" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F113" t="n">
+        <v>11</v>
+      </c>
+      <c r="G113" t="n">
+        <v>391355.6330227391</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>388355.6330227391</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="E115" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>123.5241</v>
+      </c>
+      <c r="G115" t="n">
+        <v>388479.1571227391</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="D116" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="E116" t="n">
+        <v>40</v>
+      </c>
+      <c r="F116" t="n">
+        <v>18854.6806</v>
+      </c>
+      <c r="G116" t="n">
+        <v>388479.1571227391</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4975.0623</v>
+      </c>
+      <c r="G117" t="n">
+        <v>383504.0948227391</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C118" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7795.18</v>
+      </c>
+      <c r="G118" t="n">
+        <v>383504.0948227391</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3512.994</v>
+      </c>
+      <c r="G119" t="n">
+        <v>383504.0948227391</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>39</v>
+      </c>
+      <c r="C120" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>39</v>
+      </c>
+      <c r="E120" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G120" t="n">
+        <v>381104.0948227391</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="C121" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="D121" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="E121" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="F121" t="n">
+        <v>661.826</v>
+      </c>
+      <c r="G121" t="n">
+        <v>380442.2688227391</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="C122" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="E122" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>11</v>
+      </c>
+      <c r="G122" t="n">
+        <v>380453.2688227391</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>25</v>
+      </c>
+      <c r="G123" t="n">
+        <v>380478.2688227391</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>5790.6316</v>
+      </c>
+      <c r="G124" t="n">
+        <v>374687.6372227391</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="C125" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="E125" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>21253.277</v>
+      </c>
+      <c r="G125" t="n">
+        <v>395940.9142227391</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>20700</v>
+      </c>
+      <c r="G126" t="n">
+        <v>416640.9142227391</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="C127" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5700</v>
+      </c>
+      <c r="G127" t="n">
+        <v>422340.9142227391</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>41</v>
+      </c>
+      <c r="C128" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>41</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G128" t="n">
+        <v>424590.9142227391</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="C129" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D129" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1363.8397</v>
+      </c>
+      <c r="G129" t="n">
+        <v>423227.074522739</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1209.6956</v>
+      </c>
+      <c r="G130" t="n">
+        <v>422017.3789227391</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>21947.6338</v>
+      </c>
+      <c r="G131" t="n">
+        <v>443965.0127227391</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1319</v>
+      </c>
+      <c r="G132" t="n">
+        <v>442646.0127227391</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>100</v>
+      </c>
+      <c r="G133" t="n">
+        <v>442746.0127227391</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C134" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4933.2083</v>
+      </c>
+      <c r="G134" t="n">
+        <v>447679.2210227391</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>41</v>
+      </c>
+      <c r="D135" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>41</v>
+      </c>
+      <c r="F135" t="n">
+        <v>14775.9999</v>
+      </c>
+      <c r="G135" t="n">
+        <v>432903.2211227391</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C136" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>9236.3264</v>
+      </c>
+      <c r="G136" t="n">
+        <v>423666.8947227391</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="C137" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="F137" t="n">
+        <v>22713.7483</v>
+      </c>
+      <c r="G137" t="n">
+        <v>423666.8947227391</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D138" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7495.3883</v>
+      </c>
+      <c r="G138" t="n">
+        <v>431162.2830227391</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C139" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D139" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E139" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>39900</v>
+      </c>
+      <c r="G139" t="n">
+        <v>471062.2830227391</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="C140" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>27308.2367</v>
+      </c>
+      <c r="G140" t="n">
+        <v>471062.2830227391</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C141" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>94296.3855</v>
+      </c>
+      <c r="G141" t="n">
+        <v>565358.6685227391</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>7607.4226</v>
+      </c>
+      <c r="G142" t="n">
+        <v>565358.6685227391</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>23729.5949</v>
+      </c>
+      <c r="G143" t="n">
+        <v>589088.2634227391</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2156.1019</v>
+      </c>
+      <c r="G144" t="n">
+        <v>591244.3653227391</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C145" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="D145" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2887</v>
+      </c>
+      <c r="G145" t="n">
+        <v>591244.3653227391</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C146" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>8850</v>
+      </c>
+      <c r="G146" t="n">
+        <v>600094.3653227391</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F147" t="n">
+        <v>20216.6604</v>
+      </c>
+      <c r="G147" t="n">
+        <v>579877.7049227391</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C148" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1009.6513</v>
+      </c>
+      <c r="G148" t="n">
+        <v>580887.3562227391</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C149" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1352.8277</v>
+      </c>
+      <c r="G149" t="n">
+        <v>582240.1839227391</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C150" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E150" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>14960.7178</v>
+      </c>
+      <c r="G150" t="n">
+        <v>567279.4661227391</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D151" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>24036.1445</v>
+      </c>
+      <c r="G151" t="n">
+        <v>591315.6106227392</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C152" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D152" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E152" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1373</v>
+      </c>
+      <c r="G152" t="n">
+        <v>591315.6106227392</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C153" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2393.7909</v>
+      </c>
+      <c r="G153" t="n">
+        <v>593709.4015227392</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D154" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>675.9623</v>
+      </c>
+      <c r="G154" t="n">
+        <v>593709.4015227392</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C155" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="F155" t="n">
+        <v>51128.4838</v>
+      </c>
+      <c r="G155" t="n">
+        <v>644837.8853227393</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="C156" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="D156" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E156" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2449.95</v>
+      </c>
+      <c r="G156" t="n">
+        <v>642387.9353227393</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="D157" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E157" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>11927.8996</v>
+      </c>
+      <c r="G157" t="n">
+        <v>654315.8349227393</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="C158" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E158" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1165.4403</v>
+      </c>
+      <c r="G158" t="n">
+        <v>653150.3946227393</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>43</v>
+      </c>
+      <c r="C159" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>43</v>
+      </c>
+      <c r="F159" t="n">
+        <v>15766.69091316397</v>
+      </c>
+      <c r="G159" t="n">
+        <v>668917.0855359032</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="C160" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6315.77</v>
+      </c>
+      <c r="G160" t="n">
+        <v>662601.3155359032</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>736.8483</v>
+      </c>
+      <c r="G161" t="n">
+        <v>663338.1638359032</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>395.255</v>
+      </c>
+      <c r="G162" t="n">
+        <v>663733.4188359032</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>42</v>
+      </c>
+      <c r="D163" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>42</v>
+      </c>
+      <c r="F163" t="n">
+        <v>7982.5221</v>
+      </c>
+      <c r="G163" t="n">
+        <v>655750.8967359032</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C164" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E164" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>6131.3393</v>
+      </c>
+      <c r="G164" t="n">
+        <v>649619.5574359032</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C165" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E165" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>64040.702</v>
+      </c>
+      <c r="G165" t="n">
+        <v>585578.8554359032</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>42</v>
+      </c>
+      <c r="D166" t="n">
+        <v>42</v>
+      </c>
+      <c r="E166" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3930.3507</v>
+      </c>
+      <c r="G166" t="n">
+        <v>589509.2061359031</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>42</v>
+      </c>
+      <c r="C167" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D167" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>42</v>
+      </c>
+      <c r="F167" t="n">
+        <v>70650</v>
+      </c>
+      <c r="G167" t="n">
+        <v>660159.2061359031</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>12450</v>
+      </c>
+      <c r="G168" t="n">
+        <v>672609.2061359031</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4213.2652</v>
+      </c>
+      <c r="G169" t="n">
+        <v>668395.9409359031</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="C170" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="F170" t="n">
+        <v>48034.389</v>
+      </c>
+      <c r="G170" t="n">
+        <v>716430.3299359031</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2297.2378</v>
+      </c>
+      <c r="G171" t="n">
+        <v>714133.0921359031</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="F172" t="n">
+        <v>6720.5373</v>
+      </c>
+      <c r="G172" t="n">
+        <v>707412.5548359031</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="C173" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G173" t="n">
+        <v>692412.5548359031</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>500</v>
+      </c>
+      <c r="G174" t="n">
+        <v>691912.5548359031</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="D175" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="E175" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F175" t="n">
+        <v>13005.3554</v>
+      </c>
+      <c r="G175" t="n">
+        <v>678907.1994359031</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>42</v>
+      </c>
+      <c r="C176" t="n">
+        <v>42</v>
+      </c>
+      <c r="D176" t="n">
+        <v>42</v>
+      </c>
+      <c r="E176" t="n">
+        <v>42</v>
+      </c>
+      <c r="F176" t="n">
+        <v>7303.5804</v>
+      </c>
+      <c r="G176" t="n">
+        <v>671603.6190359031</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>42</v>
+      </c>
+      <c r="C177" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D177" t="n">
+        <v>42</v>
+      </c>
+      <c r="E177" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>6703.736</v>
+      </c>
+      <c r="G177" t="n">
+        <v>664899.8830359031</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C178" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="D178" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="E178" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F178" t="n">
+        <v>972.9234584905661</v>
+      </c>
+      <c r="G178" t="n">
+        <v>665872.8064943936</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="C179" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="D179" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="E179" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3945.8068</v>
+      </c>
+      <c r="G179" t="n">
+        <v>665872.8064943936</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>42</v>
+      </c>
+      <c r="C180" t="n">
+        <v>42</v>
+      </c>
+      <c r="D180" t="n">
+        <v>42</v>
+      </c>
+      <c r="E180" t="n">
+        <v>42</v>
+      </c>
+      <c r="F180" t="n">
+        <v>21717.6233</v>
+      </c>
+      <c r="G180" t="n">
+        <v>644155.1831943936</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>42</v>
+      </c>
+      <c r="C181" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>42</v>
+      </c>
+      <c r="E181" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>21180.1798</v>
+      </c>
+      <c r="G181" t="n">
+        <v>622975.0033943936</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="C182" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D182" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E182" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="F182" t="n">
+        <v>474.525</v>
+      </c>
+      <c r="G182" t="n">
+        <v>622500.4783943936</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="C183" t="n">
+        <v>42</v>
+      </c>
+      <c r="D183" t="n">
+        <v>42</v>
+      </c>
+      <c r="E183" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F183" t="n">
+        <v>12894.3499</v>
+      </c>
+      <c r="G183" t="n">
+        <v>635394.8282943936</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest LRC.xlsx
+++ b/BackTest/2019-10-29 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>64968.39315121944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>41061.44255121944</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>32979.22585121944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,24 +1078,21 @@
         <v>23384.60775121944</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
         <v>39.1</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1182,24 +1117,21 @@
         <v>38220.67845121944</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>39</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1224,24 +1156,21 @@
         <v>44073.67845121944</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>39.6</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1266,24 +1195,21 @@
         <v>38378.30685121944</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
         <v>39.8</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1308,24 +1234,21 @@
         <v>33238.00765121944</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
         <v>39.2</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1350,24 +1273,21 @@
         <v>51440.92075121944</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
         <v>39</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1392,24 +1312,21 @@
         <v>42394.63675121944</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>39.2</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1434,24 +1351,21 @@
         <v>43669.22095121944</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
         <v>39.1</v>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1476,24 +1390,19 @@
         <v>49663.37755121944</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1520,22 +1429,17 @@
       <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1562,22 +1466,17 @@
       <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1604,22 +1503,17 @@
       <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1646,22 +1540,17 @@
       <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1688,22 +1577,17 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1730,22 +1614,17 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1772,22 +1651,17 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1812,24 +1686,19 @@
         <v>45297.30235121944</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1854,24 +1723,19 @@
         <v>49143.45619737329</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1896,24 +1760,19 @@
         <v>49153.45619737329</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>39</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1938,24 +1797,19 @@
         <v>49153.45619737329</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1980,24 +1834,19 @@
         <v>50806.80149737329</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2022,24 +1871,19 @@
         <v>50806.80149737329</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2066,20 +1910,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2106,20 +1947,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2144,22 +1982,21 @@
         <v>80926.6746973733</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2184,22 +2021,21 @@
         <v>162730.6746973733</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>39.6</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2224,22 +2060,21 @@
         <v>162730.6746973733</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>39.7</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2264,22 +2099,21 @@
         <v>162730.6746973733</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>39.7</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2304,22 +2138,21 @@
         <v>169041.6135973733</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>39.7</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2344,22 +2177,21 @@
         <v>169051.6135973733</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>39.8</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2384,22 +2216,21 @@
         <v>198292.6135973733</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2424,22 +2255,21 @@
         <v>189772.6137973733</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2464,22 +2294,21 @@
         <v>200835.5698973733</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>40.1</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2506,20 +2335,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2546,20 +2372,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2586,20 +2409,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2626,20 +2446,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2666,20 +2483,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2706,20 +2520,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2746,20 +2557,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2786,20 +2594,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2826,20 +2631,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2864,22 +2666,21 @@
         <v>196818.8518227392</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2906,20 +2707,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2946,20 +2744,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2986,20 +2781,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3026,20 +2818,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3064,22 +2853,19 @@
         <v>228254.0660227392</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3106,20 +2892,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3146,20 +2929,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3186,20 +2966,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3224,22 +3001,19 @@
         <v>248780.2960227392</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3264,22 +3038,19 @@
         <v>248780.2960227392</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3304,22 +3075,19 @@
         <v>266574.3539227392</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3344,22 +3112,19 @@
         <v>260362.0389227392</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3384,22 +3149,19 @@
         <v>282394.0389227392</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3426,20 +3188,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3464,22 +3223,17 @@
         <v>248726.5244227392</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3504,22 +3258,19 @@
         <v>248736.5244227392</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>40.1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>40.1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3544,22 +3295,21 @@
         <v>247505.1814227392</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3584,22 +3334,21 @@
         <v>237505.1814227392</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3624,22 +3373,23 @@
         <v>237505.1814227392</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+        <v>40.1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3664,22 +3414,23 @@
         <v>225649.7413227392</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+        <v>40.1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3706,20 +3457,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3744,22 +3494,23 @@
         <v>226881.0843227392</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+        <v>39.6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3784,22 +3535,23 @@
         <v>233781.0843227392</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+        <v>39.9</v>
+      </c>
+      <c r="J86" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3824,22 +3576,23 @@
         <v>270081.0843227392</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+        <v>40</v>
+      </c>
+      <c r="J87" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3864,22 +3617,23 @@
         <v>270081.0843227392</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+        <v>40.2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3904,22 +3658,23 @@
         <v>270081.0843227392</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+        <v>40.2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3944,22 +3699,23 @@
         <v>291887.3805227391</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+        <v>40.2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3984,22 +3740,23 @@
         <v>310187.3805227391</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+        <v>40.6</v>
+      </c>
+      <c r="J91" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4026,20 +3783,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4066,20 +3822,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4104,22 +3859,21 @@
         <v>310177.3805227391</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.017443890274314</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4146,20 +3900,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4186,20 +3933,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4226,20 +3966,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4266,20 +3999,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4306,20 +4032,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4346,20 +4065,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4386,20 +4098,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4424,22 +4129,15 @@
         <v>467680.5605227391</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4466,20 +4164,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4506,20 +4197,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4546,20 +4230,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4586,20 +4263,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4626,20 +4296,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4666,20 +4329,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4706,20 +4362,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4746,20 +4395,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4786,20 +4428,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4826,20 +4461,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4866,20 +4494,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4906,20 +4527,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4946,20 +4560,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4986,20 +4593,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5026,20 +4626,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5066,20 +4659,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5106,20 +4692,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5146,20 +4725,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5186,20 +4758,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5226,20 +4791,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5266,20 +4824,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5306,20 +4857,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5346,20 +4890,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5386,20 +4923,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5426,20 +4956,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5466,20 +4989,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5506,20 +5022,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5546,20 +5055,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5586,20 +5088,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5626,20 +5121,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5666,20 +5154,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5706,20 +5187,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5746,20 +5220,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5786,20 +5253,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5826,20 +5286,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5866,20 +5319,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5906,20 +5352,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5946,20 +5385,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5986,20 +5418,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6026,20 +5451,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6066,20 +5484,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6106,20 +5517,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6146,20 +5550,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6186,20 +5583,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6224,22 +5614,15 @@
         <v>579877.7049227391</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6264,22 +5647,15 @@
         <v>580887.3562227391</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6304,22 +5680,15 @@
         <v>582240.1839227391</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6344,22 +5713,15 @@
         <v>567279.4661227391</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6384,22 +5746,15 @@
         <v>591315.6106227392</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6424,22 +5779,15 @@
         <v>591315.6106227392</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6464,22 +5812,15 @@
         <v>593709.4015227392</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6506,20 +5847,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6546,20 +5880,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6584,20 +5911,15 @@
         <v>642387.9353227393</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L156" t="n">
+        <v>1</v>
       </c>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6622,18 +5944,15 @@
         <v>654315.8349227393</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6658,18 +5977,15 @@
         <v>653150.3946227393</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6694,18 +6010,15 @@
         <v>668917.0855359032</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6730,18 +6043,15 @@
         <v>662601.3155359032</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6766,18 +6076,15 @@
         <v>663338.1638359032</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6802,18 +6109,15 @@
         <v>663733.4188359032</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6838,18 +6142,15 @@
         <v>655750.8967359032</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6876,16 +6177,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6912,16 +6210,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6948,16 +6243,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6982,18 +6274,15 @@
         <v>660159.2061359031</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7020,16 +6309,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7054,18 +6340,15 @@
         <v>668395.9409359031</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7092,16 +6375,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7128,16 +6408,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7162,18 +6439,15 @@
         <v>707412.5548359031</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7200,16 +6474,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7234,18 +6505,15 @@
         <v>691912.5548359031</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7270,18 +6538,15 @@
         <v>678907.1994359031</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7308,16 +6573,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7342,18 +6604,15 @@
         <v>664899.8830359031</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7378,18 +6637,15 @@
         <v>665872.8064943936</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7414,18 +6670,15 @@
         <v>665872.8064943936</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7450,18 +6703,15 @@
         <v>644155.1831943936</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7486,18 +6736,15 @@
         <v>622975.0033943936</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7524,16 +6771,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7558,20 +6802,17 @@
         <v>635394.8282943936</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest LRC.xlsx
+++ b/BackTest/2019-10-29 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,7 +946,7 @@
         <v>64968.39315121944</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>41061.44255121944</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>32979.22585121944</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>23384.60775121944</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>39.1</v>
@@ -1117,7 +1117,7 @@
         <v>38220.67845121944</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>39</v>
@@ -1156,7 +1156,7 @@
         <v>44073.67845121944</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>39.6</v>
@@ -1195,11 +1195,9 @@
         <v>38378.30685121944</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1234,7 +1232,7 @@
         <v>33238.00765121944</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>39.2</v>
@@ -1273,7 +1271,7 @@
         <v>51440.92075121944</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>39</v>
@@ -1312,7 +1310,7 @@
         <v>42394.63675121944</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>39.2</v>
@@ -1351,7 +1349,7 @@
         <v>43669.22095121944</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>39.1</v>
@@ -1390,9 +1388,11 @@
         <v>49663.37755121944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1429,7 +1429,9 @@
       <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1464,7 +1466,7 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1501,7 +1503,7 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1538,7 +1540,7 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1575,7 +1577,7 @@
         <v>45284.76475121944</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1612,7 +1614,7 @@
         <v>45284.76475121944</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1649,7 +1651,7 @@
         <v>45284.76475121944</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1686,9 +1688,11 @@
         <v>45297.30235121944</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1723,9 +1727,11 @@
         <v>49143.45619737329</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>38.8</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1760,9 +1766,11 @@
         <v>49153.45619737329</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>39</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1982,11 +1990,9 @@
         <v>80926.6746973733</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2021,11 +2027,9 @@
         <v>162730.6746973733</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2060,11 +2064,9 @@
         <v>162730.6746973733</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>39.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2099,11 +2101,9 @@
         <v>162730.6746973733</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>39.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2138,11 +2138,9 @@
         <v>169041.6135973733</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>39.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2177,11 +2175,9 @@
         <v>169051.6135973733</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2216,11 +2212,9 @@
         <v>198292.6135973733</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2255,11 +2249,9 @@
         <v>189772.6137973733</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>40.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2294,11 +2286,9 @@
         <v>200835.5698973733</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>40.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2666,11 +2656,9 @@
         <v>196818.8518227392</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>40.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2853,7 +2841,7 @@
         <v>228254.0660227392</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3001,7 +2989,7 @@
         <v>248780.2960227392</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3038,7 +3026,7 @@
         <v>248780.2960227392</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3075,7 +3063,7 @@
         <v>266574.3539227392</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3112,7 +3100,7 @@
         <v>260362.0389227392</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3149,7 +3137,7 @@
         <v>282394.0389227392</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3223,16 +3211,18 @@
         <v>248726.5244227392</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
       <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -3258,15 +3248,15 @@
         <v>248736.5244227392</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3295,15 +3285,13 @@
         <v>247505.1814227392</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>40.1</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -3334,15 +3322,13 @@
         <v>237505.1814227392</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>40.1</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3373,14 +3359,10 @@
         <v>237505.1814227392</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>40.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,14 +3396,10 @@
         <v>225649.7413227392</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>40.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3458,9 +3436,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>40.1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3494,14 +3470,10 @@
         <v>226881.0843227392</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>40.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3535,14 +3507,10 @@
         <v>233781.0843227392</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>40.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3576,14 +3544,10 @@
         <v>270081.0843227392</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>40</v>
-      </c>
-      <c r="J87" t="n">
-        <v>40.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3617,14 +3581,10 @@
         <v>270081.0843227392</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>40.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3658,14 +3618,10 @@
         <v>270081.0843227392</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>40.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3699,14 +3655,10 @@
         <v>291887.3805227391</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>40.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3740,14 +3692,10 @@
         <v>310187.3805227391</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="J91" t="n">
-        <v>40.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,9 +3732,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>40.1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,9 +3769,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>40.1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3859,19 +3803,17 @@
         <v>310177.3805227391</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>40.1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.017443890274314</v>
+        <v>1</v>
       </c>
       <c r="M94" t="inlineStr"/>
     </row>
@@ -3902,7 +3844,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3935,7 +3881,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3968,7 +3918,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4001,7 +3955,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4034,7 +3992,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4067,7 +4029,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4100,7 +4066,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4129,11 +4099,15 @@
         <v>467680.5605227391</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4166,7 +4140,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4199,7 +4177,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4232,7 +4214,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4265,7 +4251,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4298,7 +4288,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4331,7 +4325,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4364,7 +4362,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4397,7 +4399,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4430,7 +4436,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4463,7 +4473,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4496,7 +4510,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4529,7 +4547,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4562,7 +4584,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4595,7 +4621,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4628,7 +4658,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4661,7 +4695,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4694,7 +4732,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4727,7 +4769,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4760,7 +4806,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4793,7 +4843,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4826,7 +4880,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4859,7 +4917,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4892,7 +4954,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4925,7 +4991,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4958,7 +5028,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4991,7 +5065,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5024,7 +5102,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5057,7 +5139,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5090,7 +5176,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5123,7 +5213,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5156,7 +5250,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5189,7 +5287,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5222,7 +5324,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5255,7 +5361,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5288,7 +5398,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5321,7 +5435,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5354,7 +5472,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5387,7 +5509,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5420,7 +5546,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5453,7 +5583,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5486,7 +5620,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5519,7 +5657,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5552,7 +5694,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5585,7 +5731,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5614,11 +5764,15 @@
         <v>579877.7049227391</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5647,11 +5801,15 @@
         <v>580887.3562227391</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5680,11 +5838,15 @@
         <v>582240.1839227391</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5713,11 +5875,15 @@
         <v>567279.4661227391</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5746,11 +5912,15 @@
         <v>591315.6106227392</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5779,11 +5949,15 @@
         <v>591315.6106227392</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5812,11 +5986,15 @@
         <v>593709.4015227392</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5849,7 +6027,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5882,7 +6064,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5911,11 +6097,15 @@
         <v>642387.9353227393</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5944,11 +6134,15 @@
         <v>654315.8349227393</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5977,11 +6171,15 @@
         <v>653150.3946227393</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6010,11 +6208,15 @@
         <v>668917.0855359032</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6043,11 +6245,15 @@
         <v>662601.3155359032</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6076,11 +6282,15 @@
         <v>663338.1638359032</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6109,11 +6319,15 @@
         <v>663733.4188359032</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6142,11 +6356,15 @@
         <v>655750.8967359032</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6179,7 +6397,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6212,7 +6434,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6245,7 +6471,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6274,14 +6504,16 @@
         <v>660159.2061359031</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -6307,7 +6539,7 @@
         <v>672609.2061359031</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6340,7 +6572,7 @@
         <v>668395.9409359031</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6373,7 +6605,7 @@
         <v>716430.3299359031</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6406,7 +6638,7 @@
         <v>714133.0921359031</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6439,7 +6671,7 @@
         <v>707412.5548359031</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6472,7 +6704,7 @@
         <v>692412.5548359031</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6505,7 +6737,7 @@
         <v>691912.5548359031</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6538,7 +6770,7 @@
         <v>678907.1994359031</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6571,7 +6803,7 @@
         <v>671603.6190359031</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6604,7 +6836,7 @@
         <v>664899.8830359031</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6637,7 +6869,7 @@
         <v>665872.8064943936</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6670,7 +6902,7 @@
         <v>665872.8064943936</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6703,7 +6935,7 @@
         <v>644155.1831943936</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6736,7 +6968,7 @@
         <v>622975.0033943936</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6769,7 +7001,7 @@
         <v>622500.4783943936</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6802,7 +7034,7 @@
         <v>635394.8282943936</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6813,6 +7045,6 @@
       <c r="M183" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest LRC.xlsx
+++ b/BackTest/2019-10-29 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
         <v>80560.18405121943</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>89410.18405121943</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>87186.14145121943</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>83844.14155121944</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>83844.14155121944</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>83854.14155121944</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>74780.18355121944</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>64968.39315121944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,17 +1078,11 @@
         <v>23384.60775121944</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>39.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1117,17 +1111,11 @@
         <v>38220.67845121944</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1156,17 +1144,11 @@
         <v>44073.67845121944</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1199,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1232,17 +1210,11 @@
         <v>33238.00765121944</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1271,17 +1243,11 @@
         <v>51440.92075121944</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1310,17 +1276,11 @@
         <v>42394.63675121944</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1349,17 +1309,11 @@
         <v>43669.22095121944</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>39.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1388,17 +1342,11 @@
         <v>49663.37755121944</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1427,17 +1375,11 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>39.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1470,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1544,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1581,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1618,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1655,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1688,17 +1606,11 @@
         <v>45297.30235121944</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>38.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1732,12 +1644,10 @@
       <c r="I38" t="n">
         <v>38.8</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1771,10 +1681,12 @@
       <c r="I39" t="n">
         <v>39</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>38.8</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1805,13 +1717,17 @@
         <v>49153.45619737329</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>38.8</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1842,15 +1758,15 @@
         <v>50806.80149737329</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1879,13 +1795,17 @@
         <v>50806.80149737329</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>39.3</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1916,13 +1836,17 @@
         <v>68257.80139737329</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>39.3</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1957,11 +1881,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1994,11 +1914,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2031,11 +1947,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +1980,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2105,11 +2013,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2142,11 +2046,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2179,11 +2079,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2216,11 +2112,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2253,11 +2145,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2290,11 +2178,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2327,11 +2211,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2364,11 +2244,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2401,11 +2277,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2438,11 +2310,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2475,11 +2343,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2512,11 +2376,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2549,11 +2409,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2586,11 +2442,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2623,11 +2475,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2660,11 +2508,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2697,11 +2541,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2734,11 +2574,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2771,11 +2607,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2808,11 +2640,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2845,11 +2673,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2882,11 +2706,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2919,11 +2739,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2956,11 +2772,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2989,15 +2801,11 @@
         <v>248780.2960227392</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3026,15 +2834,11 @@
         <v>248780.2960227392</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3063,15 +2867,11 @@
         <v>266574.3539227392</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3100,15 +2900,11 @@
         <v>260362.0389227392</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3137,15 +2933,11 @@
         <v>282394.0389227392</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3174,15 +2966,11 @@
         <v>248726.5244227392</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3211,15 +2999,11 @@
         <v>248726.5244227392</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3248,15 +3032,11 @@
         <v>248736.5244227392</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3285,15 +3065,11 @@
         <v>247505.1814227392</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3322,15 +3098,11 @@
         <v>237505.1814227392</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3359,15 +3131,11 @@
         <v>237505.1814227392</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3396,15 +3164,11 @@
         <v>225649.7413227392</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3437,11 +3201,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3474,11 +3234,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3511,11 +3267,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3548,11 +3300,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3585,11 +3333,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3622,11 +3366,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3659,11 +3399,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3696,11 +3432,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3733,11 +3465,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3770,11 +3498,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3807,11 +3531,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3844,11 +3564,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3881,11 +3597,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3918,11 +3630,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3955,11 +3663,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3992,11 +3696,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4029,11 +3729,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4066,11 +3762,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4103,11 +3795,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4140,11 +3828,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4177,11 +3861,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4214,11 +3894,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4251,11 +3927,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4288,11 +3960,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4325,11 +3993,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4362,11 +4026,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4399,11 +4059,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4436,11 +4092,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4473,11 +4125,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4158,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4547,11 +4191,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4584,11 +4224,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4621,11 +4257,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4658,11 +4290,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4695,11 +4323,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4732,11 +4356,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4769,11 +4389,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4806,11 +4422,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4843,11 +4455,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4880,11 +4488,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4917,11 +4521,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4954,11 +4554,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4991,11 +4587,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5028,11 +4620,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5065,11 +4653,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5102,11 +4686,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5139,11 +4719,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5176,11 +4752,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5213,11 +4785,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5250,11 +4818,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5287,11 +4851,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5324,11 +4884,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5361,11 +4917,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5398,11 +4950,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5435,11 +4983,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5472,11 +5016,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5509,11 +5049,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5546,11 +5082,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5583,11 +5115,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5620,11 +5148,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5657,11 +5181,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5694,11 +5214,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5247,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5768,11 +5280,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5805,11 +5313,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5842,11 +5346,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5879,11 +5379,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5916,11 +5412,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5953,11 +5445,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5990,11 +5478,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6027,11 +5511,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6064,11 +5544,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6101,11 +5577,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6138,11 +5610,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6175,11 +5643,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6212,11 +5676,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6249,11 +5709,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6286,11 +5742,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6323,11 +5775,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6360,11 +5808,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6397,11 +5841,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6434,11 +5874,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6471,11 +5907,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6504,16 +5936,14 @@
         <v>660159.2061359031</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
       <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -6539,7 +5969,7 @@
         <v>672609.2061359031</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6572,7 +6002,7 @@
         <v>668395.9409359031</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6605,7 +6035,7 @@
         <v>716430.3299359031</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6638,7 +6068,7 @@
         <v>714133.0921359031</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6671,7 +6101,7 @@
         <v>707412.5548359031</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6704,7 +6134,7 @@
         <v>692412.5548359031</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6737,7 +6167,7 @@
         <v>691912.5548359031</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6770,7 +6200,7 @@
         <v>678907.1994359031</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6803,7 +6233,7 @@
         <v>671603.6190359031</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6836,7 +6266,7 @@
         <v>664899.8830359031</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6869,7 +6299,7 @@
         <v>665872.8064943936</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6902,7 +6332,7 @@
         <v>665872.8064943936</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6935,7 +6365,7 @@
         <v>644155.1831943936</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6968,7 +6398,7 @@
         <v>622975.0033943936</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7001,7 +6431,7 @@
         <v>622500.4783943936</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7034,7 +6464,7 @@
         <v>635394.8282943936</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7045,6 +6475,6 @@
       <c r="M183" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest LRC.xlsx
+++ b/BackTest/2019-10-29 BackTest LRC.xlsx
@@ -517,11 +517,17 @@
         <v>90942.36179999993</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40.4</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +560,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +597,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +634,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +671,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +708,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +741,15 @@
         <v>80560.18405121943</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +778,15 @@
         <v>89410.18405121943</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +815,15 @@
         <v>87186.14145121943</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +852,15 @@
         <v>83844.14155121944</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +889,17 @@
         <v>83844.14155121944</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>40.2</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +928,15 @@
         <v>83854.14155121944</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +965,17 @@
         <v>74780.18355121944</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>40.5</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1004,17 @@
         <v>64968.39315121944</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>39.9</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1043,17 @@
         <v>59907.81495121944</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>39.7</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1082,17 @@
         <v>41061.44255121944</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1121,17 @@
         <v>32979.22585121944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1160,17 @@
         <v>23384.60775121944</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>39.1</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1199,17 @@
         <v>38220.67845121944</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>39</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1238,17 @@
         <v>44073.67845121944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1277,17 @@
         <v>38378.30685121944</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1316,17 @@
         <v>33238.00765121944</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1355,17 @@
         <v>51440.92075121944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>39</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1394,17 @@
         <v>42394.63675121944</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1433,17 @@
         <v>43669.22095121944</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>39.1</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1472,17 @@
         <v>49663.37755121944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1511,17 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>39.3</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1550,17 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>39.4</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1589,17 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>39.4</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1628,17 @@
         <v>49683.37755121944</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>39.4</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1667,17 @@
         <v>45284.76475121944</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>39.4</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1706,17 @@
         <v>45284.76475121944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1745,17 @@
         <v>45284.76475121944</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1784,17 @@
         <v>45297.30235121944</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>38.7</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1644,10 +1828,12 @@
       <c r="I38" t="n">
         <v>38.8</v>
       </c>
-      <c r="J38" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1681,12 +1867,10 @@
       <c r="I39" t="n">
         <v>39</v>
       </c>
-      <c r="J39" t="n">
-        <v>38.8</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1722,12 +1906,10 @@
       <c r="I40" t="n">
         <v>39.3</v>
       </c>
-      <c r="J40" t="n">
-        <v>38.8</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1763,10 +1945,12 @@
       <c r="I41" t="n">
         <v>39.3</v>
       </c>
-      <c r="J41" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1800,12 +1984,10 @@
       <c r="I42" t="n">
         <v>39.4</v>
       </c>
-      <c r="J42" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1841,12 +2023,10 @@
       <c r="I43" t="n">
         <v>39.4</v>
       </c>
-      <c r="J43" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1877,11 +2057,17 @@
         <v>68257.80139737329</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1910,11 +2096,17 @@
         <v>80926.6746973733</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1943,11 +2135,17 @@
         <v>162730.6746973733</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>39.6</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1976,11 +2174,17 @@
         <v>162730.6746973733</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>39.7</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2009,11 +2213,17 @@
         <v>162730.6746973733</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>39.7</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2042,11 +2252,17 @@
         <v>169041.6135973733</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>39.7</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2075,11 +2291,17 @@
         <v>169051.6135973733</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2108,11 +2330,17 @@
         <v>198292.6135973733</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>40</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2141,11 +2369,17 @@
         <v>189772.6137973733</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>40.4</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2174,11 +2408,17 @@
         <v>200835.5698973733</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>40.1</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2207,11 +2447,17 @@
         <v>203279.4977227392</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>40.4</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2240,11 +2486,17 @@
         <v>200922.6076227392</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>41</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2277,7 +2529,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2306,11 +2562,17 @@
         <v>189873.6260227392</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>40.7</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2339,11 +2601,17 @@
         <v>198277.3556227392</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>40.6</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2372,11 +2640,17 @@
         <v>198277.3556227392</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2409,7 +2683,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2442,7 +2720,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2475,7 +2757,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2504,11 +2790,17 @@
         <v>196818.8518227392</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>40.4</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2537,11 +2829,17 @@
         <v>196818.8518227392</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>40.4</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2570,11 +2868,17 @@
         <v>196818.8518227392</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>40.4</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2603,11 +2907,17 @@
         <v>227254.0660227392</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>40.4</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2636,11 +2946,17 @@
         <v>228254.0660227392</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>40.8</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2673,7 +2989,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2706,7 +3026,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2739,7 +3063,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2768,11 +3096,17 @@
         <v>230980.2891227392</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>41</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2801,11 +3135,15 @@
         <v>248780.2960227392</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2834,11 +3172,15 @@
         <v>248780.2960227392</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2867,11 +3209,15 @@
         <v>266574.3539227392</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2900,11 +3246,15 @@
         <v>260362.0389227392</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2933,11 +3283,15 @@
         <v>282394.0389227392</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2966,11 +3320,15 @@
         <v>248726.5244227392</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2999,11 +3357,15 @@
         <v>248726.5244227392</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3032,11 +3394,17 @@
         <v>248736.5244227392</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>40.1</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3065,11 +3433,15 @@
         <v>247505.1814227392</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3098,11 +3470,15 @@
         <v>237505.1814227392</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3131,11 +3507,15 @@
         <v>237505.1814227392</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3164,11 +3544,15 @@
         <v>225649.7413227392</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3201,7 +3585,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3234,7 +3622,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3267,7 +3659,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3300,7 +3696,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3333,7 +3733,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3366,7 +3770,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3399,7 +3807,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3432,7 +3844,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3465,7 +3881,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3498,7 +3918,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3531,7 +3955,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3564,7 +3992,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3597,7 +4029,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3630,7 +4066,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3663,7 +4103,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3696,7 +4140,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3729,7 +4177,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3762,7 +4214,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3795,7 +4251,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3828,7 +4288,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3861,7 +4325,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3894,7 +4362,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3927,7 +4399,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3960,7 +4436,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3993,7 +4473,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4026,7 +4510,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4059,7 +4547,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4092,7 +4584,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4125,7 +4621,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4158,7 +4658,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4191,7 +4695,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4224,7 +4732,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4257,7 +4769,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4290,7 +4806,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4323,7 +4843,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4356,7 +4880,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4389,7 +4917,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4422,7 +4954,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4455,7 +4991,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4488,7 +5028,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4521,7 +5065,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4554,7 +5102,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4587,7 +5139,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4620,7 +5176,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4653,7 +5213,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4686,7 +5250,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4719,7 +5287,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4752,7 +5324,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4785,7 +5361,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4818,7 +5398,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4851,7 +5435,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4884,7 +5472,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4917,7 +5509,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4950,7 +5546,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4983,7 +5583,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5016,7 +5620,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5049,7 +5657,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5082,7 +5694,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5115,7 +5731,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5768,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5181,7 +5805,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5214,7 +5842,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5247,7 +5879,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5280,7 +5916,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5313,7 +5953,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5346,7 +5990,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5379,7 +6027,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5412,7 +6064,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5445,7 +6101,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5478,7 +6138,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5511,7 +6175,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5540,14 +6208,16 @@
         <v>644837.8853227393</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
@@ -5573,7 +6243,7 @@
         <v>642387.9353227393</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5606,7 +6276,7 @@
         <v>654315.8349227393</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5639,7 +6309,7 @@
         <v>653150.3946227393</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5672,7 +6342,7 @@
         <v>668917.0855359032</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5705,7 +6375,7 @@
         <v>662601.3155359032</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5738,7 +6408,7 @@
         <v>663338.1638359032</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5771,7 +6441,7 @@
         <v>663733.4188359032</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5804,7 +6474,7 @@
         <v>655750.8967359032</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5837,7 +6507,7 @@
         <v>649619.5574359032</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5870,7 +6540,7 @@
         <v>585578.8554359032</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5903,7 +6573,7 @@
         <v>589509.2061359031</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5936,7 +6606,7 @@
         <v>660159.2061359031</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5969,7 +6639,7 @@
         <v>672609.2061359031</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6002,7 +6672,7 @@
         <v>668395.9409359031</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6035,7 +6705,7 @@
         <v>716430.3299359031</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6068,7 +6738,7 @@
         <v>714133.0921359031</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6101,7 +6771,7 @@
         <v>707412.5548359031</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6134,7 +6804,7 @@
         <v>692412.5548359031</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6167,7 +6837,7 @@
         <v>691912.5548359031</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6200,7 +6870,7 @@
         <v>678907.1994359031</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6233,7 +6903,7 @@
         <v>671603.6190359031</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6266,7 +6936,7 @@
         <v>664899.8830359031</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6299,7 +6969,7 @@
         <v>665872.8064943936</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6332,7 +7002,7 @@
         <v>665872.8064943936</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6365,7 +7035,7 @@
         <v>644155.1831943936</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6398,7 +7068,7 @@
         <v>622975.0033943936</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest LRC.xlsx
+++ b/BackTest/2019-10-29 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:L183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>492.61</v>
       </c>
       <c r="G2" t="n">
-        <v>31129.27809999992</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>12.3762</v>
       </c>
       <c r="G3" t="n">
-        <v>31116.90189999992</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,24 +503,15 @@
         <v>59825.4599</v>
       </c>
       <c r="G4" t="n">
-        <v>90942.36179999993</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,22 +533,15 @@
         <v>1026.121951219512</v>
       </c>
       <c r="G5" t="n">
-        <v>91968.48375121944</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -590,22 +563,15 @@
         <v>18456.33404878049</v>
       </c>
       <c r="G6" t="n">
-        <v>91968.48375121944</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -627,22 +593,15 @@
         <v>10804.1648</v>
       </c>
       <c r="G7" t="n">
-        <v>91968.48375121944</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,22 +623,15 @@
         <v>9983.1648</v>
       </c>
       <c r="G8" t="n">
-        <v>81985.31895121944</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -701,22 +653,15 @@
         <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>82001.31895121944</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -738,22 +683,15 @@
         <v>1441.1349</v>
       </c>
       <c r="G10" t="n">
-        <v>80560.18405121943</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -775,22 +713,15 @@
         <v>8850</v>
       </c>
       <c r="G11" t="n">
-        <v>89410.18405121943</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,22 +743,15 @@
         <v>2224.0426</v>
       </c>
       <c r="G12" t="n">
-        <v>87186.14145121943</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -849,22 +773,15 @@
         <v>3341.9999</v>
       </c>
       <c r="G13" t="n">
-        <v>83844.14155121944</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -886,24 +803,15 @@
         <v>13471.7775</v>
       </c>
       <c r="G14" t="n">
-        <v>83844.14155121944</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>40.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -925,22 +833,15 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>83854.14155121944</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,24 +863,15 @@
         <v>9073.958000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>74780.18355121944</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>40.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1001,24 +893,15 @@
         <v>9811.7904</v>
       </c>
       <c r="G17" t="n">
-        <v>64968.39315121944</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>39.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1040,24 +923,15 @@
         <v>5060.5782</v>
       </c>
       <c r="G18" t="n">
-        <v>59907.81495121944</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>39.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1079,24 +953,15 @@
         <v>18846.3724</v>
       </c>
       <c r="G19" t="n">
-        <v>41061.44255121944</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1118,24 +983,15 @@
         <v>8082.2167</v>
       </c>
       <c r="G20" t="n">
-        <v>32979.22585121944</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1157,24 +1013,15 @@
         <v>9594.6181</v>
       </c>
       <c r="G21" t="n">
-        <v>23384.60775121944</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>39.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1196,24 +1043,15 @@
         <v>14836.0707</v>
       </c>
       <c r="G22" t="n">
-        <v>38220.67845121944</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1235,24 +1073,15 @@
         <v>5853</v>
       </c>
       <c r="G23" t="n">
-        <v>44073.67845121944</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1274,24 +1103,15 @@
         <v>5695.3716</v>
       </c>
       <c r="G24" t="n">
-        <v>38378.30685121944</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1313,24 +1133,15 @@
         <v>5140.2992</v>
       </c>
       <c r="G25" t="n">
-        <v>33238.00765121944</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>39.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1352,24 +1163,19 @@
         <v>18202.9131</v>
       </c>
       <c r="G26" t="n">
-        <v>51440.92075121944</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I26" t="n">
         <v>39</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1391,24 +1197,23 @@
         <v>9046.284</v>
       </c>
       <c r="G27" t="n">
-        <v>42394.63675121944</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>39.2</v>
       </c>
       <c r="I27" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1430,24 +1235,23 @@
         <v>1274.5842</v>
       </c>
       <c r="G28" t="n">
-        <v>43669.22095121944</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>39.1</v>
       </c>
       <c r="I28" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1469,24 +1273,21 @@
         <v>5994.1566</v>
       </c>
       <c r="G29" t="n">
-        <v>49663.37755121944</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1508,24 +1309,23 @@
         <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>49683.37755121944</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>39.3</v>
       </c>
       <c r="I30" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1547,24 +1347,23 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>49683.37755121944</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>39.4</v>
       </c>
       <c r="I31" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1586,24 +1385,23 @@
         <v>20</v>
       </c>
       <c r="G32" t="n">
-        <v>49683.37755121944</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>39.4</v>
       </c>
       <c r="I32" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1625,24 +1423,23 @@
         <v>8238.9252</v>
       </c>
       <c r="G33" t="n">
-        <v>49683.37755121944</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>39.4</v>
       </c>
       <c r="I33" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1664,24 +1461,23 @@
         <v>4398.6128</v>
       </c>
       <c r="G34" t="n">
-        <v>45284.76475121944</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>39.4</v>
       </c>
       <c r="I34" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1703,24 +1499,23 @@
         <v>82</v>
       </c>
       <c r="G35" t="n">
-        <v>45284.76475121944</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>38.7</v>
       </c>
       <c r="I35" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1742,24 +1537,23 @@
         <v>165</v>
       </c>
       <c r="G36" t="n">
-        <v>45284.76475121944</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>38.7</v>
       </c>
       <c r="I36" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1781,24 +1575,23 @@
         <v>12.5376</v>
       </c>
       <c r="G37" t="n">
-        <v>45297.30235121944</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>38.7</v>
       </c>
       <c r="I37" t="n">
-        <v>38.7</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1820,24 +1613,23 @@
         <v>3846.153846153846</v>
       </c>
       <c r="G38" t="n">
-        <v>49143.45619737329</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>38.8</v>
       </c>
       <c r="I38" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1859,24 +1651,23 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>49153.45619737329</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I39" t="n">
         <v>39</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1898,24 +1689,23 @@
         <v>584.9605</v>
       </c>
       <c r="G40" t="n">
-        <v>49153.45619737329</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>39.3</v>
       </c>
       <c r="I40" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1937,24 +1727,23 @@
         <v>1653.3453</v>
       </c>
       <c r="G41" t="n">
-        <v>50806.80149737329</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>39.3</v>
       </c>
       <c r="I41" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1976,24 +1765,21 @@
         <v>790</v>
       </c>
       <c r="G42" t="n">
-        <v>50806.80149737329</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2015,24 +1801,23 @@
         <v>17450.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>68257.80139737329</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>39.4</v>
       </c>
       <c r="I43" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2054,24 +1839,23 @@
         <v>849.1204</v>
       </c>
       <c r="G44" t="n">
-        <v>68257.80139737329</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>39.5</v>
       </c>
       <c r="I44" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2093,24 +1877,23 @@
         <v>12668.8733</v>
       </c>
       <c r="G45" t="n">
-        <v>80926.6746973733</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>39.5</v>
       </c>
       <c r="I45" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2132,24 +1915,23 @@
         <v>81804</v>
       </c>
       <c r="G46" t="n">
-        <v>162730.6746973733</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>39.6</v>
       </c>
       <c r="I46" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2171,24 +1953,23 @@
         <v>27951</v>
       </c>
       <c r="G47" t="n">
-        <v>162730.6746973733</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>39.7</v>
       </c>
       <c r="I47" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2210,24 +1991,23 @@
         <v>952.1566</v>
       </c>
       <c r="G48" t="n">
-        <v>162730.6746973733</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>39.7</v>
       </c>
       <c r="I48" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2249,24 +2029,21 @@
         <v>6310.9389</v>
       </c>
       <c r="G49" t="n">
-        <v>169041.6135973733</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2288,24 +2065,21 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>169051.6135973733</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2327,24 +2101,21 @@
         <v>29241</v>
       </c>
       <c r="G51" t="n">
-        <v>198292.6135973733</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>40</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2366,24 +2137,21 @@
         <v>8519.9998</v>
       </c>
       <c r="G52" t="n">
-        <v>189772.6137973733</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2405,24 +2173,23 @@
         <v>11062.9561</v>
       </c>
       <c r="G53" t="n">
-        <v>200835.5698973733</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>40.1</v>
       </c>
       <c r="I53" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2444,24 +2211,21 @@
         <v>2443.927825365854</v>
       </c>
       <c r="G54" t="n">
-        <v>203279.4977227392</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2483,24 +2247,21 @@
         <v>2356.8901</v>
       </c>
       <c r="G55" t="n">
-        <v>200922.6076227392</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>41</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2522,22 +2283,21 @@
         <v>5815.2535</v>
       </c>
       <c r="G56" t="n">
-        <v>195107.3541227392</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>39</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2559,24 +2319,21 @@
         <v>5233.7281</v>
       </c>
       <c r="G57" t="n">
-        <v>189873.6260227392</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2598,24 +2355,21 @@
         <v>8403.729600000001</v>
       </c>
       <c r="G58" t="n">
-        <v>198277.3556227392</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2637,24 +2391,21 @@
         <v>2290.7713</v>
       </c>
       <c r="G59" t="n">
-        <v>198277.3556227392</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2676,22 +2427,21 @@
         <v>1907.6939</v>
       </c>
       <c r="G60" t="n">
-        <v>196369.6617227392</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>39</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2713,22 +2463,21 @@
         <v>1623</v>
       </c>
       <c r="G61" t="n">
-        <v>197992.6617227392</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>39</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2750,22 +2499,21 @@
         <v>1173.8099</v>
       </c>
       <c r="G62" t="n">
-        <v>196818.8518227392</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>39</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2787,24 +2535,21 @@
         <v>238.2805</v>
       </c>
       <c r="G63" t="n">
-        <v>196818.8518227392</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2826,24 +2571,21 @@
         <v>1808.9999</v>
       </c>
       <c r="G64" t="n">
-        <v>196818.8518227392</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2865,24 +2607,21 @@
         <v>22262.8998</v>
       </c>
       <c r="G65" t="n">
-        <v>196818.8518227392</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2904,24 +2643,21 @@
         <v>30435.2142</v>
       </c>
       <c r="G66" t="n">
-        <v>227254.0660227392</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2943,24 +2679,21 @@
         <v>1000</v>
       </c>
       <c r="G67" t="n">
-        <v>228254.0660227392</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2982,22 +2715,21 @@
         <v>3867.7194</v>
       </c>
       <c r="G68" t="n">
-        <v>228254.0660227392</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>39</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3019,22 +2751,21 @@
         <v>2726.2231</v>
       </c>
       <c r="G69" t="n">
-        <v>230980.2891227392</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>39</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3056,22 +2787,21 @@
         <v>817.4386</v>
       </c>
       <c r="G70" t="n">
-        <v>230980.2891227392</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3093,24 +2823,21 @@
         <v>91588.1452</v>
       </c>
       <c r="G71" t="n">
-        <v>230980.2891227392</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>41</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3132,22 +2859,21 @@
         <v>17800.0069</v>
       </c>
       <c r="G72" t="n">
-        <v>248780.2960227392</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>39</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3169,22 +2895,21 @@
         <v>6072.8973</v>
       </c>
       <c r="G73" t="n">
-        <v>248780.2960227392</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>39</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3206,22 +2931,21 @@
         <v>17794.0579</v>
       </c>
       <c r="G74" t="n">
-        <v>266574.3539227392</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>39</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3243,22 +2967,21 @@
         <v>6212.315</v>
       </c>
       <c r="G75" t="n">
-        <v>260362.0389227392</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>39</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3280,22 +3003,21 @@
         <v>22032</v>
       </c>
       <c r="G76" t="n">
-        <v>282394.0389227392</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>39</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3317,22 +3039,21 @@
         <v>33667.5145</v>
       </c>
       <c r="G77" t="n">
-        <v>248726.5244227392</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>39</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3354,22 +3075,21 @@
         <v>35660.361</v>
       </c>
       <c r="G78" t="n">
-        <v>248726.5244227392</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>39</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3391,24 +3111,21 @@
         <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>248736.5244227392</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3430,22 +3147,21 @@
         <v>1231.343</v>
       </c>
       <c r="G80" t="n">
-        <v>247505.1814227392</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>39</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3467,22 +3183,21 @@
         <v>10000</v>
       </c>
       <c r="G81" t="n">
-        <v>237505.1814227392</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>39</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3504,22 +3219,21 @@
         <v>516.8754</v>
       </c>
       <c r="G82" t="n">
-        <v>237505.1814227392</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>39</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3541,22 +3255,21 @@
         <v>11855.4401</v>
       </c>
       <c r="G83" t="n">
-        <v>225649.7413227392</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>39</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3578,22 +3291,21 @@
         <v>53359.4808</v>
       </c>
       <c r="G84" t="n">
-        <v>225649.7413227392</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>39</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3615,22 +3327,21 @@
         <v>1231.343</v>
       </c>
       <c r="G85" t="n">
-        <v>226881.0843227392</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3652,22 +3363,21 @@
         <v>6900</v>
       </c>
       <c r="G86" t="n">
-        <v>233781.0843227392</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>39</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3689,22 +3399,21 @@
         <v>36300</v>
       </c>
       <c r="G87" t="n">
-        <v>270081.0843227392</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>39</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3726,22 +3435,21 @@
         <v>3650</v>
       </c>
       <c r="G88" t="n">
-        <v>270081.0843227392</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>39</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3763,22 +3471,21 @@
         <v>9600</v>
       </c>
       <c r="G89" t="n">
-        <v>270081.0843227392</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>39</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3800,22 +3507,21 @@
         <v>21806.2962</v>
       </c>
       <c r="G90" t="n">
-        <v>291887.3805227391</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>39</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3837,22 +3543,21 @@
         <v>18300</v>
       </c>
       <c r="G91" t="n">
-        <v>310187.3805227391</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>39</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3874,22 +3579,21 @@
         <v>23116.7961</v>
       </c>
       <c r="G92" t="n">
-        <v>310187.3805227391</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>39</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3911,22 +3615,21 @@
         <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>310177.3805227391</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>39</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3948,22 +3651,21 @@
         <v>7534.5169</v>
       </c>
       <c r="G94" t="n">
-        <v>310177.3805227391</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>39</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3985,22 +3687,21 @@
         <v>49.261</v>
       </c>
       <c r="G95" t="n">
-        <v>310128.1195227391</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>39</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4022,22 +3723,21 @@
         <v>1436.9376</v>
       </c>
       <c r="G96" t="n">
-        <v>310128.1195227391</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>39</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4059,22 +3759,21 @@
         <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>310118.1195227391</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>39</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4096,22 +3795,21 @@
         <v>17700</v>
       </c>
       <c r="G98" t="n">
-        <v>327818.1195227391</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>39</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4133,22 +3831,21 @@
         <v>142504.7877</v>
       </c>
       <c r="G99" t="n">
-        <v>470322.9072227391</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>39</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4170,22 +3867,21 @@
         <v>2642.3467</v>
       </c>
       <c r="G100" t="n">
-        <v>467680.5605227391</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>39</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4207,22 +3903,21 @@
         <v>4518.4132</v>
       </c>
       <c r="G101" t="n">
-        <v>467680.5605227391</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>39</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4244,22 +3939,21 @@
         <v>1211</v>
       </c>
       <c r="G102" t="n">
-        <v>467680.5605227391</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>39</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4281,22 +3975,21 @@
         <v>8100</v>
       </c>
       <c r="G103" t="n">
-        <v>475780.5605227391</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>39</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4318,22 +4011,21 @@
         <v>3976</v>
       </c>
       <c r="G104" t="n">
-        <v>471804.5605227391</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>39</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4355,22 +4047,21 @@
         <v>12.1359</v>
       </c>
       <c r="G105" t="n">
-        <v>471792.4246227391</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>39</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4392,22 +4083,21 @@
         <v>12.1654</v>
       </c>
       <c r="G106" t="n">
-        <v>471780.2592227391</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>39</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4429,22 +4119,21 @@
         <v>24.3902</v>
       </c>
       <c r="G107" t="n">
-        <v>471755.8690227391</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>39</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4466,22 +4155,21 @@
         <v>23059.0041</v>
       </c>
       <c r="G108" t="n">
-        <v>448696.8649227391</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>39</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4503,22 +4191,21 @@
         <v>15993</v>
       </c>
       <c r="G109" t="n">
-        <v>448696.8649227391</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>39</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4540,22 +4227,21 @@
         <v>22218.3372</v>
       </c>
       <c r="G110" t="n">
-        <v>426478.5277227391</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>39</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4577,22 +4263,21 @@
         <v>1016.1053</v>
       </c>
       <c r="G111" t="n">
-        <v>427494.6330227391</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>39</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4614,22 +4299,21 @@
         <v>36150</v>
       </c>
       <c r="G112" t="n">
-        <v>391344.6330227391</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>39</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4651,22 +4335,21 @@
         <v>11</v>
       </c>
       <c r="G113" t="n">
-        <v>391355.6330227391</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>39</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4688,22 +4371,21 @@
         <v>3000</v>
       </c>
       <c r="G114" t="n">
-        <v>388355.6330227391</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>39</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4725,22 +4407,21 @@
         <v>123.5241</v>
       </c>
       <c r="G115" t="n">
-        <v>388479.1571227391</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>39</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4762,22 +4443,21 @@
         <v>18854.6806</v>
       </c>
       <c r="G116" t="n">
-        <v>388479.1571227391</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>39</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4799,22 +4479,21 @@
         <v>4975.0623</v>
       </c>
       <c r="G117" t="n">
-        <v>383504.0948227391</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>39</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4836,22 +4515,21 @@
         <v>7795.18</v>
       </c>
       <c r="G118" t="n">
-        <v>383504.0948227391</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>39</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4873,22 +4551,21 @@
         <v>3512.994</v>
       </c>
       <c r="G119" t="n">
-        <v>383504.0948227391</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>39</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4910,22 +4587,21 @@
         <v>2400</v>
       </c>
       <c r="G120" t="n">
-        <v>381104.0948227391</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>39</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4947,22 +4623,21 @@
         <v>661.826</v>
       </c>
       <c r="G121" t="n">
-        <v>380442.2688227391</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>39</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4984,22 +4659,23 @@
         <v>11</v>
       </c>
       <c r="G122" t="n">
-        <v>380453.2688227391</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>38.7</v>
+      </c>
+      <c r="I122" t="n">
+        <v>39</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5021,22 +4697,21 @@
         <v>25</v>
       </c>
       <c r="G123" t="n">
-        <v>380478.2688227391</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>39</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5058,22 +4733,21 @@
         <v>5790.6316</v>
       </c>
       <c r="G124" t="n">
-        <v>374687.6372227391</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>39</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5095,22 +4769,21 @@
         <v>21253.277</v>
       </c>
       <c r="G125" t="n">
-        <v>395940.9142227391</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>39</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5132,22 +4805,21 @@
         <v>20700</v>
       </c>
       <c r="G126" t="n">
-        <v>416640.9142227391</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>39</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5169,22 +4841,21 @@
         <v>5700</v>
       </c>
       <c r="G127" t="n">
-        <v>422340.9142227391</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>39</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5206,22 +4877,21 @@
         <v>2250</v>
       </c>
       <c r="G128" t="n">
-        <v>424590.9142227391</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>39</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5243,22 +4913,21 @@
         <v>1363.8397</v>
       </c>
       <c r="G129" t="n">
-        <v>423227.074522739</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>39</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5280,22 +4949,21 @@
         <v>1209.6956</v>
       </c>
       <c r="G130" t="n">
-        <v>422017.3789227391</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>39</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5317,22 +4985,21 @@
         <v>21947.6338</v>
       </c>
       <c r="G131" t="n">
-        <v>443965.0127227391</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>39</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5354,22 +5021,21 @@
         <v>1319</v>
       </c>
       <c r="G132" t="n">
-        <v>442646.0127227391</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>39</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5391,22 +5057,21 @@
         <v>100</v>
       </c>
       <c r="G133" t="n">
-        <v>442746.0127227391</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>39</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5428,22 +5093,21 @@
         <v>4933.2083</v>
       </c>
       <c r="G134" t="n">
-        <v>447679.2210227391</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>39</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5465,22 +5129,21 @@
         <v>14775.9999</v>
       </c>
       <c r="G135" t="n">
-        <v>432903.2211227391</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>39</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5502,22 +5165,21 @@
         <v>9236.3264</v>
       </c>
       <c r="G136" t="n">
-        <v>423666.8947227391</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>39</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5539,22 +5201,21 @@
         <v>22713.7483</v>
       </c>
       <c r="G137" t="n">
-        <v>423666.8947227391</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>39</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5576,22 +5237,21 @@
         <v>7495.3883</v>
       </c>
       <c r="G138" t="n">
-        <v>431162.2830227391</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>39</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5613,22 +5273,21 @@
         <v>39900</v>
       </c>
       <c r="G139" t="n">
-        <v>471062.2830227391</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>39</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5650,22 +5309,21 @@
         <v>27308.2367</v>
       </c>
       <c r="G140" t="n">
-        <v>471062.2830227391</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>39</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5687,22 +5345,21 @@
         <v>94296.3855</v>
       </c>
       <c r="G141" t="n">
-        <v>565358.6685227391</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>39</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5724,22 +5381,21 @@
         <v>7607.4226</v>
       </c>
       <c r="G142" t="n">
-        <v>565358.6685227391</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>39</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5761,22 +5417,21 @@
         <v>23729.5949</v>
       </c>
       <c r="G143" t="n">
-        <v>589088.2634227391</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>39</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5798,22 +5453,21 @@
         <v>2156.1019</v>
       </c>
       <c r="G144" t="n">
-        <v>591244.3653227391</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>39</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5835,22 +5489,21 @@
         <v>2887</v>
       </c>
       <c r="G145" t="n">
-        <v>591244.3653227391</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>39</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5872,22 +5525,21 @@
         <v>8850</v>
       </c>
       <c r="G146" t="n">
-        <v>600094.3653227391</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>39</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5909,22 +5561,21 @@
         <v>20216.6604</v>
       </c>
       <c r="G147" t="n">
-        <v>579877.7049227391</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>39</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5946,22 +5597,21 @@
         <v>1009.6513</v>
       </c>
       <c r="G148" t="n">
-        <v>580887.3562227391</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>39</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5983,22 +5633,21 @@
         <v>1352.8277</v>
       </c>
       <c r="G149" t="n">
-        <v>582240.1839227391</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>39</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6020,22 +5669,21 @@
         <v>14960.7178</v>
       </c>
       <c r="G150" t="n">
-        <v>567279.4661227391</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>39</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6057,22 +5705,21 @@
         <v>24036.1445</v>
       </c>
       <c r="G151" t="n">
-        <v>591315.6106227392</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>39</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6094,22 +5741,21 @@
         <v>1373</v>
       </c>
       <c r="G152" t="n">
-        <v>591315.6106227392</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>39</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6131,22 +5777,21 @@
         <v>2393.7909</v>
       </c>
       <c r="G153" t="n">
-        <v>593709.4015227392</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>39</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6168,22 +5813,21 @@
         <v>675.9623</v>
       </c>
       <c r="G154" t="n">
-        <v>593709.4015227392</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>39</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6205,20 +5849,21 @@
         <v>51128.4838</v>
       </c>
       <c r="G155" t="n">
-        <v>644837.8853227393</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>39</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
       </c>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6240,18 +5885,21 @@
         <v>2449.95</v>
       </c>
       <c r="G156" t="n">
-        <v>642387.9353227393</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>39</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6273,18 +5921,21 @@
         <v>11927.8996</v>
       </c>
       <c r="G157" t="n">
-        <v>654315.8349227393</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>39</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6306,18 +5957,21 @@
         <v>1165.4403</v>
       </c>
       <c r="G158" t="n">
-        <v>653150.3946227393</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>39</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6339,18 +5993,21 @@
         <v>15766.69091316397</v>
       </c>
       <c r="G159" t="n">
-        <v>668917.0855359032</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>39</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6372,18 +6029,21 @@
         <v>6315.77</v>
       </c>
       <c r="G160" t="n">
-        <v>662601.3155359032</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>39</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6405,18 +6065,21 @@
         <v>736.8483</v>
       </c>
       <c r="G161" t="n">
-        <v>663338.1638359032</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>39</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6438,18 +6101,23 @@
         <v>395.255</v>
       </c>
       <c r="G162" t="n">
-        <v>663733.4188359032</v>
-      </c>
-      <c r="H162" t="n">
         <v>2</v>
       </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>39</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1.079615384615385</v>
+      </c>
       <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>1.051282051282051</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6471,18 +6139,15 @@
         <v>7982.5221</v>
       </c>
       <c r="G163" t="n">
-        <v>655750.8967359032</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6504,18 +6169,15 @@
         <v>6131.3393</v>
       </c>
       <c r="G164" t="n">
-        <v>649619.5574359032</v>
-      </c>
-      <c r="H164" t="n">
         <v>2</v>
       </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6537,18 +6199,15 @@
         <v>64040.702</v>
       </c>
       <c r="G165" t="n">
-        <v>585578.8554359032</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6570,18 +6229,15 @@
         <v>3930.3507</v>
       </c>
       <c r="G166" t="n">
-        <v>589509.2061359031</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6603,18 +6259,15 @@
         <v>70650</v>
       </c>
       <c r="G167" t="n">
-        <v>660159.2061359031</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6636,18 +6289,15 @@
         <v>12450</v>
       </c>
       <c r="G168" t="n">
-        <v>672609.2061359031</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6669,18 +6319,15 @@
         <v>4213.2652</v>
       </c>
       <c r="G169" t="n">
-        <v>668395.9409359031</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6702,18 +6349,15 @@
         <v>48034.389</v>
       </c>
       <c r="G170" t="n">
-        <v>716430.3299359031</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6735,18 +6379,15 @@
         <v>2297.2378</v>
       </c>
       <c r="G171" t="n">
-        <v>714133.0921359031</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6768,18 +6409,15 @@
         <v>6720.5373</v>
       </c>
       <c r="G172" t="n">
-        <v>707412.5548359031</v>
-      </c>
-      <c r="H172" t="n">
         <v>2</v>
       </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6801,18 +6439,15 @@
         <v>15000</v>
       </c>
       <c r="G173" t="n">
-        <v>692412.5548359031</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6834,18 +6469,15 @@
         <v>500</v>
       </c>
       <c r="G174" t="n">
-        <v>691912.5548359031</v>
-      </c>
-      <c r="H174" t="n">
         <v>2</v>
       </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6867,18 +6499,15 @@
         <v>13005.3554</v>
       </c>
       <c r="G175" t="n">
-        <v>678907.1994359031</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6900,18 +6529,15 @@
         <v>7303.5804</v>
       </c>
       <c r="G176" t="n">
-        <v>671603.6190359031</v>
-      </c>
-      <c r="H176" t="n">
         <v>2</v>
       </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6933,18 +6559,15 @@
         <v>6703.736</v>
       </c>
       <c r="G177" t="n">
-        <v>664899.8830359031</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6966,18 +6589,15 @@
         <v>972.9234584905661</v>
       </c>
       <c r="G178" t="n">
-        <v>665872.8064943936</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6999,18 +6619,15 @@
         <v>3945.8068</v>
       </c>
       <c r="G179" t="n">
-        <v>665872.8064943936</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7032,18 +6649,15 @@
         <v>21717.6233</v>
       </c>
       <c r="G180" t="n">
-        <v>644155.1831943936</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7065,18 +6679,15 @@
         <v>21180.1798</v>
       </c>
       <c r="G181" t="n">
-        <v>622975.0033943936</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7098,18 +6709,15 @@
         <v>474.525</v>
       </c>
       <c r="G182" t="n">
-        <v>622500.4783943936</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7131,18 +6739,15 @@
         <v>12894.3499</v>
       </c>
       <c r="G183" t="n">
-        <v>635394.8282943936</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
